--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,21 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['14', '32', '50']</t>
+  </si>
+  <si>
+    <t>['24', '34', '78']</t>
+  </si>
+  <si>
+    <t>['29', '80']</t>
+  </si>
+  <si>
+    <t>['14', '37', '52', '64', '78']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -674,6 +689,12 @@
   </si>
   <si>
     <t>['37', '41']</t>
+  </si>
+  <si>
+    <t>['57', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '66']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1315,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1578,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1706,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1787,7 +1808,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1912,7 +1933,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2118,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2199,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2736,7 +2757,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2814,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -3226,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3972,7 +3993,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4053,7 +4074,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4178,7 +4199,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4256,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>2.57</v>
@@ -4384,7 +4405,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5208,7 +5229,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5414,7 +5435,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5904,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6032,7 +6053,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6316,10 +6337,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6444,7 +6465,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6731,7 +6752,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6856,7 +6877,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6934,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7268,7 +7289,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7474,7 +7495,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7555,7 +7576,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8504,7 +8525,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8916,7 +8937,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9122,7 +9143,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9409,7 +9430,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9612,10 +9633,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10152,7 +10173,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10358,7 +10379,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10564,7 +10585,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10770,7 +10791,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10848,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
         <v>1.83</v>
@@ -10976,7 +10997,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11182,7 +11203,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11263,7 +11284,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11388,7 +11409,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11469,7 +11490,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11672,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11800,7 +11821,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11878,7 +11899,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>2.57</v>
@@ -12006,7 +12027,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12084,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12212,7 +12233,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12418,7 +12439,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12911,7 +12932,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13448,7 +13469,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13654,7 +13675,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14478,7 +14499,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14559,7 +14580,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR66">
         <v>1.08</v>
@@ -14684,7 +14705,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14762,7 +14783,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -14968,10 +14989,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15302,7 +15323,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15383,7 +15404,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR70">
         <v>2.32</v>
@@ -15586,7 +15607,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -15714,7 +15735,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15795,7 +15816,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ72">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -15920,7 +15941,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16332,7 +16353,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16413,7 +16434,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -16538,7 +16559,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16616,7 +16637,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>2.14</v>
@@ -16950,7 +16971,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17028,7 +17049,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>1.83</v>
@@ -17156,7 +17177,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17362,7 +17383,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17852,10 +17873,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18186,7 +18207,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18267,7 +18288,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18598,7 +18619,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19216,7 +19237,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19422,7 +19443,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19500,7 +19521,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90">
         <v>1.83</v>
@@ -19628,7 +19649,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19709,7 +19730,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -19912,7 +19933,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20040,7 +20061,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20324,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>0</v>
@@ -20452,7 +20473,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20530,7 +20551,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20658,7 +20679,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20736,7 +20757,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
         <v>0.5</v>
@@ -20945,7 +20966,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21070,7 +21091,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21357,7 +21378,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ99">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -22100,7 +22121,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22306,7 +22327,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22512,7 +22533,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22718,7 +22739,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23130,7 +23151,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23287,6 +23308,1036 @@
       </c>
       <c r="BP108">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7466162</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45619.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" t="s">
+        <v>73</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q109">
+        <v>2.1</v>
+      </c>
+      <c r="R109">
+        <v>2.3</v>
+      </c>
+      <c r="S109">
+        <v>6</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>1.46</v>
+      </c>
+      <c r="AA109">
+        <v>3.89</v>
+      </c>
+      <c r="AB109">
+        <v>5.94</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>13</v>
+      </c>
+      <c r="AE109">
+        <v>1.26</v>
+      </c>
+      <c r="AF109">
+        <v>3.67</v>
+      </c>
+      <c r="AG109">
+        <v>1.8</v>
+      </c>
+      <c r="AH109">
+        <v>1.9</v>
+      </c>
+      <c r="AI109">
+        <v>1.91</v>
+      </c>
+      <c r="AJ109">
+        <v>1.91</v>
+      </c>
+      <c r="AK109">
+        <v>1.12</v>
+      </c>
+      <c r="AL109">
+        <v>1.19</v>
+      </c>
+      <c r="AM109">
+        <v>2.5</v>
+      </c>
+      <c r="AN109">
+        <v>1.33</v>
+      </c>
+      <c r="AO109">
+        <v>0.4</v>
+      </c>
+      <c r="AP109">
+        <v>1.57</v>
+      </c>
+      <c r="AQ109">
+        <v>0.33</v>
+      </c>
+      <c r="AR109">
+        <v>1.61</v>
+      </c>
+      <c r="AS109">
+        <v>1.15</v>
+      </c>
+      <c r="AT109">
+        <v>2.76</v>
+      </c>
+      <c r="AU109">
+        <v>11</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>22</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>9</v>
+      </c>
+      <c r="BD109">
+        <v>1.52</v>
+      </c>
+      <c r="BE109">
+        <v>7</v>
+      </c>
+      <c r="BF109">
+        <v>2.8</v>
+      </c>
+      <c r="BG109">
+        <v>1.17</v>
+      </c>
+      <c r="BH109">
+        <v>4.3</v>
+      </c>
+      <c r="BI109">
+        <v>1.32</v>
+      </c>
+      <c r="BJ109">
+        <v>3.05</v>
+      </c>
+      <c r="BK109">
+        <v>1.54</v>
+      </c>
+      <c r="BL109">
+        <v>2.3</v>
+      </c>
+      <c r="BM109">
+        <v>1.86</v>
+      </c>
+      <c r="BN109">
+        <v>1.82</v>
+      </c>
+      <c r="BO109">
+        <v>2.32</v>
+      </c>
+      <c r="BP109">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7466163</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45619.61458333334</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>168</v>
+      </c>
+      <c r="P110" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q110">
+        <v>1.73</v>
+      </c>
+      <c r="R110">
+        <v>2.75</v>
+      </c>
+      <c r="S110">
+        <v>7.5</v>
+      </c>
+      <c r="T110">
+        <v>1.25</v>
+      </c>
+      <c r="U110">
+        <v>3.75</v>
+      </c>
+      <c r="V110">
+        <v>2.1</v>
+      </c>
+      <c r="W110">
+        <v>1.67</v>
+      </c>
+      <c r="X110">
+        <v>4.5</v>
+      </c>
+      <c r="Y110">
+        <v>1.18</v>
+      </c>
+      <c r="Z110">
+        <v>1.27</v>
+      </c>
+      <c r="AA110">
+        <v>6</v>
+      </c>
+      <c r="AB110">
+        <v>10.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>21</v>
+      </c>
+      <c r="AE110">
+        <v>1.14</v>
+      </c>
+      <c r="AF110">
+        <v>5.38</v>
+      </c>
+      <c r="AG110">
+        <v>1.48</v>
+      </c>
+      <c r="AH110">
+        <v>2.54</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.03</v>
+      </c>
+      <c r="AL110">
+        <v>1.11</v>
+      </c>
+      <c r="AM110">
+        <v>3.6</v>
+      </c>
+      <c r="AN110">
+        <v>2</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>2.17</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>1.62</v>
+      </c>
+      <c r="AS110">
+        <v>1.2</v>
+      </c>
+      <c r="AT110">
+        <v>2.82</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>25</v>
+      </c>
+      <c r="AZ110">
+        <v>8</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.27</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>3.95</v>
+      </c>
+      <c r="BG110">
+        <v>1.15</v>
+      </c>
+      <c r="BH110">
+        <v>4.6</v>
+      </c>
+      <c r="BI110">
+        <v>1.27</v>
+      </c>
+      <c r="BJ110">
+        <v>3.3</v>
+      </c>
+      <c r="BK110">
+        <v>1.46</v>
+      </c>
+      <c r="BL110">
+        <v>2.5</v>
+      </c>
+      <c r="BM110">
+        <v>1.72</v>
+      </c>
+      <c r="BN110">
+        <v>1.98</v>
+      </c>
+      <c r="BO110">
+        <v>2.08</v>
+      </c>
+      <c r="BP110">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7466164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45619.61458333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>169</v>
+      </c>
+      <c r="P111" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q111">
+        <v>2.4</v>
+      </c>
+      <c r="R111">
+        <v>2.3</v>
+      </c>
+      <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.33</v>
+      </c>
+      <c r="U111">
+        <v>3.25</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.11</v>
+      </c>
+      <c r="Z111">
+        <v>1.77</v>
+      </c>
+      <c r="AA111">
+        <v>4.1</v>
+      </c>
+      <c r="AB111">
+        <v>4.15</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>15</v>
+      </c>
+      <c r="AE111">
+        <v>1.21</v>
+      </c>
+      <c r="AF111">
+        <v>4.25</v>
+      </c>
+      <c r="AG111">
+        <v>1.7</v>
+      </c>
+      <c r="AH111">
+        <v>2.16</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
+        <v>2.1</v>
+      </c>
+      <c r="AK111">
+        <v>1.24</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>2.05</v>
+      </c>
+      <c r="AN111">
+        <v>1.33</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>1.29</v>
+      </c>
+      <c r="AQ111">
+        <v>0.17</v>
+      </c>
+      <c r="AR111">
+        <v>1.37</v>
+      </c>
+      <c r="AS111">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT111">
+        <v>2.18</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>8</v>
+      </c>
+      <c r="AX111">
+        <v>6</v>
+      </c>
+      <c r="AY111">
+        <v>19</v>
+      </c>
+      <c r="AZ111">
+        <v>15</v>
+      </c>
+      <c r="BA111">
+        <v>9</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>14</v>
+      </c>
+      <c r="BD111">
+        <v>1.53</v>
+      </c>
+      <c r="BE111">
+        <v>7</v>
+      </c>
+      <c r="BF111">
+        <v>2.7</v>
+      </c>
+      <c r="BG111">
+        <v>1.14</v>
+      </c>
+      <c r="BH111">
+        <v>4.8</v>
+      </c>
+      <c r="BI111">
+        <v>1.25</v>
+      </c>
+      <c r="BJ111">
+        <v>3.4</v>
+      </c>
+      <c r="BK111">
+        <v>1.43</v>
+      </c>
+      <c r="BL111">
+        <v>2.55</v>
+      </c>
+      <c r="BM111">
+        <v>1.7</v>
+      </c>
+      <c r="BN111">
+        <v>2.02</v>
+      </c>
+      <c r="BO111">
+        <v>2.06</v>
+      </c>
+      <c r="BP111">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7466161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45619.70833333334</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>170</v>
+      </c>
+      <c r="P112" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q112">
+        <v>1.5</v>
+      </c>
+      <c r="R112">
+        <v>3.1</v>
+      </c>
+      <c r="S112">
+        <v>12</v>
+      </c>
+      <c r="T112">
+        <v>1.2</v>
+      </c>
+      <c r="U112">
+        <v>4.33</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>1.73</v>
+      </c>
+      <c r="X112">
+        <v>4.33</v>
+      </c>
+      <c r="Y112">
+        <v>1.2</v>
+      </c>
+      <c r="Z112">
+        <v>1.16</v>
+      </c>
+      <c r="AA112">
+        <v>6.7</v>
+      </c>
+      <c r="AB112">
+        <v>11</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>1.08</v>
+      </c>
+      <c r="AF112">
+        <v>7.29</v>
+      </c>
+      <c r="AG112">
+        <v>1.38</v>
+      </c>
+      <c r="AH112">
+        <v>2.9</v>
+      </c>
+      <c r="AI112">
+        <v>2.05</v>
+      </c>
+      <c r="AJ112">
+        <v>1.7</v>
+      </c>
+      <c r="AK112">
+        <v>1.02</v>
+      </c>
+      <c r="AL112">
+        <v>1.07</v>
+      </c>
+      <c r="AM112">
+        <v>5.5</v>
+      </c>
+      <c r="AN112">
+        <v>3</v>
+      </c>
+      <c r="AO112">
+        <v>0.67</v>
+      </c>
+      <c r="AP112">
+        <v>3</v>
+      </c>
+      <c r="AQ112">
+        <v>0.57</v>
+      </c>
+      <c r="AR112">
+        <v>2.46</v>
+      </c>
+      <c r="AS112">
+        <v>1.06</v>
+      </c>
+      <c r="AT112">
+        <v>3.52</v>
+      </c>
+      <c r="AU112">
+        <v>11</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>27</v>
+      </c>
+      <c r="AZ112">
+        <v>5</v>
+      </c>
+      <c r="BA112">
+        <v>14</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>17</v>
+      </c>
+      <c r="BD112">
+        <v>1.2</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>4.9</v>
+      </c>
+      <c r="BG112">
+        <v>1.2</v>
+      </c>
+      <c r="BH112">
+        <v>3.9</v>
+      </c>
+      <c r="BI112">
+        <v>1.36</v>
+      </c>
+      <c r="BJ112">
+        <v>2.8</v>
+      </c>
+      <c r="BK112">
+        <v>1.6</v>
+      </c>
+      <c r="BL112">
+        <v>2.17</v>
+      </c>
+      <c r="BM112">
+        <v>1.96</v>
+      </c>
+      <c r="BN112">
+        <v>1.74</v>
+      </c>
+      <c r="BO112">
+        <v>2.48</v>
+      </c>
+      <c r="BP112">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7466165</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45619.70833333334</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>171</v>
+      </c>
+      <c r="P113" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q113">
+        <v>4.75</v>
+      </c>
+      <c r="R113">
+        <v>2.2</v>
+      </c>
+      <c r="S113">
+        <v>2.4</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>3.87</v>
+      </c>
+      <c r="AA113">
+        <v>3.32</v>
+      </c>
+      <c r="AB113">
+        <v>1.85</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>11</v>
+      </c>
+      <c r="AE113">
+        <v>1.31</v>
+      </c>
+      <c r="AF113">
+        <v>3.35</v>
+      </c>
+      <c r="AG113">
+        <v>1.96</v>
+      </c>
+      <c r="AH113">
+        <v>1.88</v>
+      </c>
+      <c r="AI113">
+        <v>1.8</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>2</v>
+      </c>
+      <c r="AL113">
+        <v>1.24</v>
+      </c>
+      <c r="AM113">
+        <v>1.22</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>1.67</v>
+      </c>
+      <c r="AP113">
+        <v>1.71</v>
+      </c>
+      <c r="AQ113">
+        <v>1.86</v>
+      </c>
+      <c r="AR113">
+        <v>1.21</v>
+      </c>
+      <c r="AS113">
+        <v>1.72</v>
+      </c>
+      <c r="AT113">
+        <v>2.93</v>
+      </c>
+      <c r="AU113">
+        <v>2</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>9</v>
+      </c>
+      <c r="AZ113">
+        <v>12</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
+        <v>4</v>
+      </c>
+      <c r="BD113">
+        <v>2.55</v>
+      </c>
+      <c r="BE113">
+        <v>6.75</v>
+      </c>
+      <c r="BF113">
+        <v>1.61</v>
+      </c>
+      <c r="BG113">
+        <v>1.23</v>
+      </c>
+      <c r="BH113">
+        <v>3.65</v>
+      </c>
+      <c r="BI113">
+        <v>1.41</v>
+      </c>
+      <c r="BJ113">
+        <v>2.65</v>
+      </c>
+      <c r="BK113">
+        <v>1.66</v>
+      </c>
+      <c r="BL113">
+        <v>2.06</v>
+      </c>
+      <c r="BM113">
+        <v>2.05</v>
+      </c>
+      <c r="BN113">
+        <v>1.67</v>
+      </c>
+      <c r="BO113">
+        <v>2.55</v>
+      </c>
+      <c r="BP113">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,7 +517,7 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['14', '32', '50']</t>
+    <t>['14', '37', '52', '64', '78']</t>
   </si>
   <si>
     <t>['24', '34', '78']</t>
@@ -526,10 +526,16 @@
     <t>['29', '80']</t>
   </si>
   <si>
-    <t>['14', '37', '52', '64', '78']</t>
+    <t>['62']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['14', '32', '50']</t>
+  </si>
+  <si>
+    <t>['61', '90+8']</t>
+  </si>
+  <si>
+    <t>['27', '63']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -695,6 +701,9 @@
   </si>
   <si>
     <t>['35', '66']</t>
+  </si>
+  <si>
+    <t>['31', '53']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1324,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1396,7 +1405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1727,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1933,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2139,7 +2148,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2632,7 +2641,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2757,7 +2766,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3993,7 +4002,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4199,7 +4208,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4405,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4689,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -5104,7 +5113,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5229,7 +5238,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5435,7 +5444,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6053,7 +6062,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6465,7 +6474,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6877,7 +6886,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7164,7 +7173,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7289,7 +7298,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7367,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7495,7 +7504,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8400,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8525,7 +8534,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8937,7 +8946,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9143,7 +9152,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9427,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>0.17</v>
@@ -10173,7 +10182,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10379,7 +10388,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10585,7 +10594,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10791,7 +10800,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10997,7 +11006,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11203,7 +11212,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11409,7 +11418,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11696,7 +11705,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -11821,7 +11830,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12027,7 +12036,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12233,7 +12242,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12311,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
         <v>2.57</v>
@@ -12439,7 +12448,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13138,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13469,7 +13478,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13675,7 +13684,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14499,7 +14508,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14705,7 +14714,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15198,7 +15207,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15323,7 +15332,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15735,7 +15744,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15941,7 +15950,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16353,7 +16362,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16559,7 +16568,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16843,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -16971,7 +16980,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17177,7 +17186,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17383,7 +17392,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17464,7 +17473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -18082,7 +18091,7 @@
         <v>3</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18207,7 +18216,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18619,7 +18628,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19237,7 +19246,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19443,7 +19452,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19649,7 +19658,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19727,7 +19736,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
         <v>1.86</v>
@@ -19936,7 +19945,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
         <v>1.39</v>
@@ -20061,7 +20070,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20473,7 +20482,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20679,7 +20688,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20760,7 +20769,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21091,7 +21100,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22121,7 +22130,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22327,7 +22336,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22533,7 +22542,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22739,7 +22748,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23151,7 +23160,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23315,7 +23324,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7466162</v>
+        <v>7466161</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23324,16 +23333,16 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45619.52083333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -23345,13 +23354,13 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O109" t="s">
         <v>167</v>
@@ -23360,160 +23369,160 @@
         <v>91</v>
       </c>
       <c r="Q109">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="R109">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="S109">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T109">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U109">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="V109">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W109">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X109">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="Y109">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AA109">
-        <v>3.89</v>
+        <v>6.7</v>
       </c>
       <c r="AB109">
-        <v>5.94</v>
+        <v>11</v>
       </c>
       <c r="AC109">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AD109">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE109">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AF109">
-        <v>3.67</v>
+        <v>7.29</v>
       </c>
       <c r="AG109">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AH109">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="AI109">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AJ109">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK109">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="AL109">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AM109">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="AN109">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO109">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AR109">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="AS109">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT109">
-        <v>2.76</v>
+        <v>3.52</v>
       </c>
       <c r="AU109">
         <v>11</v>
       </c>
       <c r="AV109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW109">
         <v>6</v>
       </c>
       <c r="AX109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY109">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA109">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BB109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC109">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BD109">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="BE109">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF109">
+        <v>4.9</v>
+      </c>
+      <c r="BG109">
+        <v>1.2</v>
+      </c>
+      <c r="BH109">
+        <v>3.9</v>
+      </c>
+      <c r="BI109">
+        <v>1.36</v>
+      </c>
+      <c r="BJ109">
         <v>2.8</v>
       </c>
-      <c r="BG109">
-        <v>1.17</v>
-      </c>
-      <c r="BH109">
-        <v>4.3</v>
-      </c>
-      <c r="BI109">
-        <v>1.32</v>
-      </c>
-      <c r="BJ109">
-        <v>3.05</v>
-      </c>
       <c r="BK109">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BL109">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BM109">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="BN109">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="BO109">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BP109">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23530,7 +23539,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45619.61458333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -23736,7 +23745,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45619.61458333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F111">
         <v>13</v>
@@ -23769,7 +23778,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23933,7 +23942,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7466161</v>
+        <v>7466165</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23942,196 +23951,196 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45619.70833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O112" t="s">
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="R112">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="S112">
+        <v>2.4</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>3.87</v>
+      </c>
+      <c r="AA112">
+        <v>3.32</v>
+      </c>
+      <c r="AB112">
+        <v>1.85</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>11</v>
+      </c>
+      <c r="AE112">
+        <v>1.31</v>
+      </c>
+      <c r="AF112">
+        <v>3.35</v>
+      </c>
+      <c r="AG112">
+        <v>1.96</v>
+      </c>
+      <c r="AH112">
+        <v>1.88</v>
+      </c>
+      <c r="AI112">
+        <v>1.8</v>
+      </c>
+      <c r="AJ112">
+        <v>1.95</v>
+      </c>
+      <c r="AK112">
+        <v>2</v>
+      </c>
+      <c r="AL112">
+        <v>1.24</v>
+      </c>
+      <c r="AM112">
+        <v>1.22</v>
+      </c>
+      <c r="AN112">
+        <v>2</v>
+      </c>
+      <c r="AO112">
+        <v>1.67</v>
+      </c>
+      <c r="AP112">
+        <v>1.71</v>
+      </c>
+      <c r="AQ112">
+        <v>1.86</v>
+      </c>
+      <c r="AR112">
+        <v>1.21</v>
+      </c>
+      <c r="AS112">
+        <v>1.72</v>
+      </c>
+      <c r="AT112">
+        <v>2.93</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>9</v>
+      </c>
+      <c r="AZ112">
         <v>12</v>
       </c>
-      <c r="T112">
-        <v>1.2</v>
-      </c>
-      <c r="U112">
-        <v>4.33</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>1.73</v>
-      </c>
-      <c r="X112">
-        <v>4.33</v>
-      </c>
-      <c r="Y112">
-        <v>1.2</v>
-      </c>
-      <c r="Z112">
-        <v>1.16</v>
-      </c>
-      <c r="AA112">
-        <v>6.7</v>
-      </c>
-      <c r="AB112">
-        <v>11</v>
-      </c>
-      <c r="AC112">
-        <v>0</v>
-      </c>
-      <c r="AD112">
-        <v>0</v>
-      </c>
-      <c r="AE112">
-        <v>1.08</v>
-      </c>
-      <c r="AF112">
-        <v>7.29</v>
-      </c>
-      <c r="AG112">
-        <v>1.38</v>
-      </c>
-      <c r="AH112">
-        <v>2.9</v>
-      </c>
-      <c r="AI112">
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>4</v>
+      </c>
+      <c r="BD112">
+        <v>2.55</v>
+      </c>
+      <c r="BE112">
+        <v>6.75</v>
+      </c>
+      <c r="BF112">
+        <v>1.61</v>
+      </c>
+      <c r="BG112">
+        <v>1.23</v>
+      </c>
+      <c r="BH112">
+        <v>3.65</v>
+      </c>
+      <c r="BI112">
+        <v>1.41</v>
+      </c>
+      <c r="BJ112">
+        <v>2.65</v>
+      </c>
+      <c r="BK112">
+        <v>1.66</v>
+      </c>
+      <c r="BL112">
+        <v>2.06</v>
+      </c>
+      <c r="BM112">
         <v>2.05</v>
       </c>
-      <c r="AJ112">
-        <v>1.7</v>
-      </c>
-      <c r="AK112">
-        <v>1.02</v>
-      </c>
-      <c r="AL112">
-        <v>1.07</v>
-      </c>
-      <c r="AM112">
-        <v>5.5</v>
-      </c>
-      <c r="AN112">
-        <v>3</v>
-      </c>
-      <c r="AO112">
-        <v>0.67</v>
-      </c>
-      <c r="AP112">
-        <v>3</v>
-      </c>
-      <c r="AQ112">
-        <v>0.57</v>
-      </c>
-      <c r="AR112">
-        <v>2.46</v>
-      </c>
-      <c r="AS112">
-        <v>1.06</v>
-      </c>
-      <c r="AT112">
-        <v>3.52</v>
-      </c>
-      <c r="AU112">
-        <v>11</v>
-      </c>
-      <c r="AV112">
-        <v>3</v>
-      </c>
-      <c r="AW112">
-        <v>6</v>
-      </c>
-      <c r="AX112">
-        <v>0</v>
-      </c>
-      <c r="AY112">
-        <v>27</v>
-      </c>
-      <c r="AZ112">
-        <v>5</v>
-      </c>
-      <c r="BA112">
-        <v>14</v>
-      </c>
-      <c r="BB112">
-        <v>3</v>
-      </c>
-      <c r="BC112">
-        <v>17</v>
-      </c>
-      <c r="BD112">
-        <v>1.2</v>
-      </c>
-      <c r="BE112">
-        <v>8.5</v>
-      </c>
-      <c r="BF112">
-        <v>4.9</v>
-      </c>
-      <c r="BG112">
-        <v>1.2</v>
-      </c>
-      <c r="BH112">
-        <v>3.9</v>
-      </c>
-      <c r="BI112">
-        <v>1.36</v>
-      </c>
-      <c r="BJ112">
-        <v>2.8</v>
-      </c>
-      <c r="BK112">
-        <v>1.6</v>
-      </c>
-      <c r="BL112">
-        <v>2.17</v>
-      </c>
-      <c r="BM112">
-        <v>1.96</v>
-      </c>
       <c r="BN112">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BO112">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BP112">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24139,7 +24148,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7466165</v>
+        <v>7466162</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24148,31 +24157,31 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.70833333334</v>
+        <v>45619.52083333334</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>3</v>
@@ -24181,163 +24190,575 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="Q113">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="R113">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S113">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="T113">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V113">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W113">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y113">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z113">
-        <v>3.87</v>
+        <v>1.46</v>
       </c>
       <c r="AA113">
-        <v>3.32</v>
+        <v>3.89</v>
       </c>
       <c r="AB113">
-        <v>1.85</v>
+        <v>5.94</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD113">
+        <v>13</v>
+      </c>
+      <c r="AE113">
+        <v>1.26</v>
+      </c>
+      <c r="AF113">
+        <v>3.67</v>
+      </c>
+      <c r="AG113">
+        <v>1.8</v>
+      </c>
+      <c r="AH113">
+        <v>1.9</v>
+      </c>
+      <c r="AI113">
+        <v>1.91</v>
+      </c>
+      <c r="AJ113">
+        <v>1.91</v>
+      </c>
+      <c r="AK113">
+        <v>1.12</v>
+      </c>
+      <c r="AL113">
+        <v>1.19</v>
+      </c>
+      <c r="AM113">
+        <v>2.5</v>
+      </c>
+      <c r="AN113">
+        <v>1.33</v>
+      </c>
+      <c r="AO113">
+        <v>0.4</v>
+      </c>
+      <c r="AP113">
+        <v>1.57</v>
+      </c>
+      <c r="AQ113">
+        <v>0.33</v>
+      </c>
+      <c r="AR113">
+        <v>1.61</v>
+      </c>
+      <c r="AS113">
+        <v>1.15</v>
+      </c>
+      <c r="AT113">
+        <v>2.76</v>
+      </c>
+      <c r="AU113">
         <v>11</v>
       </c>
-      <c r="AE113">
-        <v>1.31</v>
-      </c>
-      <c r="AF113">
-        <v>3.35</v>
-      </c>
-      <c r="AG113">
-        <v>1.96</v>
-      </c>
-      <c r="AH113">
-        <v>1.88</v>
-      </c>
-      <c r="AI113">
-        <v>1.8</v>
-      </c>
-      <c r="AJ113">
-        <v>1.95</v>
-      </c>
-      <c r="AK113">
-        <v>2</v>
-      </c>
-      <c r="AL113">
-        <v>1.24</v>
-      </c>
-      <c r="AM113">
-        <v>1.22</v>
-      </c>
-      <c r="AN113">
-        <v>2</v>
-      </c>
-      <c r="AO113">
-        <v>1.67</v>
-      </c>
-      <c r="AP113">
-        <v>1.71</v>
-      </c>
-      <c r="AQ113">
-        <v>1.86</v>
-      </c>
-      <c r="AR113">
-        <v>1.21</v>
-      </c>
-      <c r="AS113">
-        <v>1.72</v>
-      </c>
-      <c r="AT113">
-        <v>2.93</v>
-      </c>
-      <c r="AU113">
-        <v>2</v>
-      </c>
       <c r="AV113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX113">
         <v>4</v>
       </c>
       <c r="AY113">
+        <v>22</v>
+      </c>
+      <c r="AZ113">
         <v>9</v>
       </c>
-      <c r="AZ113">
-        <v>12</v>
-      </c>
       <c r="BA113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.52</v>
+      </c>
+      <c r="BE113">
+        <v>7</v>
+      </c>
+      <c r="BF113">
+        <v>2.8</v>
+      </c>
+      <c r="BG113">
+        <v>1.17</v>
+      </c>
+      <c r="BH113">
+        <v>4.3</v>
+      </c>
+      <c r="BI113">
+        <v>1.32</v>
+      </c>
+      <c r="BJ113">
+        <v>3.05</v>
+      </c>
+      <c r="BK113">
+        <v>1.54</v>
+      </c>
+      <c r="BL113">
+        <v>2.3</v>
+      </c>
+      <c r="BM113">
+        <v>1.86</v>
+      </c>
+      <c r="BN113">
+        <v>1.82</v>
+      </c>
+      <c r="BO113">
+        <v>2.32</v>
+      </c>
+      <c r="BP113">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7466168</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45620.4375</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s">
+        <v>87</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
         <v>4</v>
       </c>
-      <c r="BD113">
-        <v>2.55</v>
-      </c>
-      <c r="BE113">
-        <v>6.75</v>
-      </c>
-      <c r="BF113">
-        <v>1.61</v>
-      </c>
-      <c r="BG113">
-        <v>1.23</v>
-      </c>
-      <c r="BH113">
-        <v>3.65</v>
-      </c>
-      <c r="BI113">
+      <c r="O114" t="s">
+        <v>172</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q114">
+        <v>2.75</v>
+      </c>
+      <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>4.5</v>
+      </c>
+      <c r="T114">
+        <v>1.5</v>
+      </c>
+      <c r="U114">
+        <v>2.5</v>
+      </c>
+      <c r="V114">
+        <v>3.4</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>10</v>
+      </c>
+      <c r="Y114">
+        <v>1.06</v>
+      </c>
+      <c r="Z114">
+        <v>2.06</v>
+      </c>
+      <c r="AA114">
+        <v>3.2</v>
+      </c>
+      <c r="AB114">
+        <v>3.5</v>
+      </c>
+      <c r="AC114">
+        <v>1.07</v>
+      </c>
+      <c r="AD114">
+        <v>7.61</v>
+      </c>
+      <c r="AE114">
+        <v>1.43</v>
+      </c>
+      <c r="AF114">
+        <v>2.76</v>
+      </c>
+      <c r="AG114">
+        <v>2.25</v>
+      </c>
+      <c r="AH114">
+        <v>1.57</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.32</v>
+      </c>
+      <c r="AL114">
+        <v>1.32</v>
+      </c>
+      <c r="AM114">
+        <v>1.65</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>0.5</v>
+      </c>
+      <c r="AP114">
+        <v>1.14</v>
+      </c>
+      <c r="AQ114">
+        <v>0.57</v>
+      </c>
+      <c r="AR114">
+        <v>1.02</v>
+      </c>
+      <c r="AS114">
+        <v>0.88</v>
+      </c>
+      <c r="AT114">
+        <v>1.9</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>16</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>1.62</v>
+      </c>
+      <c r="BE114">
+        <v>6.1</v>
+      </c>
+      <c r="BF114">
+        <v>2.82</v>
+      </c>
+      <c r="BG114">
+        <v>1.21</v>
+      </c>
+      <c r="BH114">
+        <v>3.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.43</v>
+      </c>
+      <c r="BJ114">
+        <v>2.58</v>
+      </c>
+      <c r="BK114">
+        <v>1.75</v>
+      </c>
+      <c r="BL114">
+        <v>1.92</v>
+      </c>
+      <c r="BM114">
+        <v>2.32</v>
+      </c>
+      <c r="BN114">
+        <v>1.52</v>
+      </c>
+      <c r="BO114">
+        <v>3.2</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7466169</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45620.53125</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>173</v>
+      </c>
+      <c r="P115" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q115">
+        <v>1.5</v>
+      </c>
+      <c r="R115">
+        <v>3.1</v>
+      </c>
+      <c r="S115">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>1.2</v>
+      </c>
+      <c r="U115">
+        <v>4.33</v>
+      </c>
+      <c r="V115">
+        <v>1.91</v>
+      </c>
+      <c r="W115">
+        <v>1.8</v>
+      </c>
+      <c r="X115">
+        <v>4</v>
+      </c>
+      <c r="Y115">
+        <v>1.22</v>
+      </c>
+      <c r="Z115">
+        <v>1.15</v>
+      </c>
+      <c r="AA115">
+        <v>6.7</v>
+      </c>
+      <c r="AB115">
+        <v>11</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.08</v>
+      </c>
+      <c r="AF115">
+        <v>7.29</v>
+      </c>
+      <c r="AG115">
         <v>1.41</v>
       </c>
-      <c r="BJ113">
-        <v>2.65</v>
-      </c>
-      <c r="BK113">
-        <v>1.66</v>
-      </c>
-      <c r="BL113">
-        <v>2.06</v>
-      </c>
-      <c r="BM113">
-        <v>2.05</v>
-      </c>
-      <c r="BN113">
-        <v>1.67</v>
-      </c>
-      <c r="BO113">
-        <v>2.55</v>
-      </c>
-      <c r="BP113">
-        <v>1.43</v>
+      <c r="AH115">
+        <v>2.78</v>
+      </c>
+      <c r="AI115">
+        <v>2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.75</v>
+      </c>
+      <c r="AK115">
+        <v>1.02</v>
+      </c>
+      <c r="AL115">
+        <v>1.06</v>
+      </c>
+      <c r="AM115">
+        <v>5.75</v>
+      </c>
+      <c r="AN115">
+        <v>3</v>
+      </c>
+      <c r="AO115">
+        <v>0.5</v>
+      </c>
+      <c r="AP115">
+        <v>3</v>
+      </c>
+      <c r="AQ115">
+        <v>0.43</v>
+      </c>
+      <c r="AR115">
+        <v>2.01</v>
+      </c>
+      <c r="AS115">
+        <v>0.84</v>
+      </c>
+      <c r="AT115">
+        <v>2.85</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>14</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>7</v>
+      </c>
+      <c r="BD115">
+        <v>1.01</v>
+      </c>
+      <c r="BE115">
+        <v>14</v>
+      </c>
+      <c r="BF115">
+        <v>14.5</v>
+      </c>
+      <c r="BG115">
+        <v>1.17</v>
+      </c>
+      <c r="BH115">
+        <v>4.3</v>
+      </c>
+      <c r="BI115">
+        <v>1.33</v>
+      </c>
+      <c r="BJ115">
+        <v>2.98</v>
+      </c>
+      <c r="BK115">
+        <v>1.6</v>
+      </c>
+      <c r="BL115">
+        <v>2.18</v>
+      </c>
+      <c r="BM115">
+        <v>2.02</v>
+      </c>
+      <c r="BN115">
+        <v>1.68</v>
+      </c>
+      <c r="BO115">
+        <v>2.75</v>
+      </c>
+      <c r="BP115">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,16 +478,16 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['43', '66', '74']</t>
+  </si>
+  <si>
     <t>['39', '63']</t>
   </si>
   <si>
-    <t>['43', '66', '74']</t>
+    <t>['61', '63', '82']</t>
   </si>
   <si>
     <t>['10', '67', '73']</t>
-  </si>
-  <si>
-    <t>['61', '63', '82']</t>
   </si>
   <si>
     <t>['47', '67']</t>
@@ -517,7 +517,7 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['14', '37', '52', '64', '78']</t>
+    <t>['14', '32', '50']</t>
   </si>
   <si>
     <t>['24', '34', '78']</t>
@@ -526,16 +526,16 @@
     <t>['29', '80']</t>
   </si>
   <si>
+    <t>['14', '37', '52', '64', '78']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
-    <t>['14', '32', '50']</t>
+    <t>['27', '63']</t>
   </si>
   <si>
     <t>['61', '90+8']</t>
-  </si>
-  <si>
-    <t>['27', '63']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>['35', '66']</t>
+  </si>
+  <si>
+    <t>['9', '73']</t>
   </si>
   <si>
     <t>['31', '53']</t>
@@ -1065,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2026,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2432,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -5731,7 +5734,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6140,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ25">
         <v>2.14</v>
@@ -6555,7 +6558,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -9230,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -10263,7 +10266,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -12732,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ57">
         <v>0.83</v>
@@ -15619,7 +15622,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
         <v>1.43</v>
@@ -15822,7 +15825,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ72">
         <v>0.33</v>
@@ -19822,7 +19825,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7466144</v>
+        <v>7466146</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19837,190 +19840,190 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O92" t="s">
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R92">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S92">
+        <v>2.6</v>
+      </c>
+      <c r="T92">
+        <v>1.29</v>
+      </c>
+      <c r="U92">
         <v>3.5</v>
       </c>
-      <c r="T92">
+      <c r="V92">
+        <v>2.25</v>
+      </c>
+      <c r="W92">
+        <v>1.57</v>
+      </c>
+      <c r="X92">
+        <v>5.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.14</v>
+      </c>
+      <c r="Z92">
+        <v>2.75</v>
+      </c>
+      <c r="AA92">
+        <v>3.52</v>
+      </c>
+      <c r="AB92">
+        <v>2.21</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>19</v>
+      </c>
+      <c r="AE92">
+        <v>1.16</v>
+      </c>
+      <c r="AF92">
+        <v>4.87</v>
+      </c>
+      <c r="AG92">
+        <v>1.5</v>
+      </c>
+      <c r="AH92">
+        <v>2.4</v>
+      </c>
+      <c r="AI92">
+        <v>1.5</v>
+      </c>
+      <c r="AJ92">
+        <v>2.5</v>
+      </c>
+      <c r="AK92">
+        <v>1.75</v>
+      </c>
+      <c r="AL92">
+        <v>1.22</v>
+      </c>
+      <c r="AM92">
         <v>1.36</v>
       </c>
-      <c r="U92">
-        <v>3</v>
-      </c>
-      <c r="V92">
-        <v>2.75</v>
-      </c>
-      <c r="W92">
-        <v>1.4</v>
-      </c>
-      <c r="X92">
-        <v>8</v>
-      </c>
-      <c r="Y92">
-        <v>1.08</v>
-      </c>
-      <c r="Z92">
-        <v>2.08</v>
-      </c>
-      <c r="AA92">
-        <v>3.35</v>
-      </c>
-      <c r="AB92">
-        <v>3.12</v>
-      </c>
-      <c r="AC92">
-        <v>1.04</v>
-      </c>
-      <c r="AD92">
-        <v>13</v>
-      </c>
-      <c r="AE92">
-        <v>1.24</v>
-      </c>
-      <c r="AF92">
-        <v>3.89</v>
-      </c>
-      <c r="AG92">
-        <v>1.83</v>
-      </c>
-      <c r="AH92">
-        <v>1.98</v>
-      </c>
-      <c r="AI92">
-        <v>1.7</v>
-      </c>
-      <c r="AJ92">
-        <v>2.05</v>
-      </c>
-      <c r="AK92">
-        <v>1.42</v>
-      </c>
-      <c r="AL92">
-        <v>1.26</v>
-      </c>
-      <c r="AM92">
-        <v>1.63</v>
-      </c>
       <c r="AN92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO92">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>2.57</v>
       </c>
       <c r="AR92">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="AS92">
-        <v>0.8</v>
+        <v>1.99</v>
       </c>
       <c r="AT92">
-        <v>2.19</v>
+        <v>4.03</v>
       </c>
       <c r="AU92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV92">
         <v>5</v>
       </c>
       <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
         <v>6</v>
       </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
-        <v>12</v>
-      </c>
-      <c r="AZ92">
-        <v>12</v>
-      </c>
-      <c r="BA92">
-        <v>2</v>
-      </c>
       <c r="BB92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC92">
         <v>7</v>
       </c>
       <c r="BD92">
-        <v>1.74</v>
+        <v>2.43</v>
       </c>
       <c r="BE92">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF92">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH92">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI92">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BJ92">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="BK92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="BL92">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="BM92">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BN92">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO92">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP92">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20028,7 +20031,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7466146</v>
+        <v>7466144</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20043,190 +20046,190 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="Q93">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R93">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S93">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="T93">
+        <v>1.36</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.75</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>2.08</v>
+      </c>
+      <c r="AA93">
+        <v>3.35</v>
+      </c>
+      <c r="AB93">
+        <v>3.12</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>13</v>
+      </c>
+      <c r="AE93">
+        <v>1.24</v>
+      </c>
+      <c r="AF93">
+        <v>3.89</v>
+      </c>
+      <c r="AG93">
+        <v>1.83</v>
+      </c>
+      <c r="AH93">
+        <v>1.98</v>
+      </c>
+      <c r="AI93">
+        <v>1.7</v>
+      </c>
+      <c r="AJ93">
+        <v>2.05</v>
+      </c>
+      <c r="AK93">
+        <v>1.42</v>
+      </c>
+      <c r="AL93">
+        <v>1.26</v>
+      </c>
+      <c r="AM93">
+        <v>1.63</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>0.6</v>
+      </c>
+      <c r="AP93">
         <v>1.29</v>
       </c>
-      <c r="U93">
-        <v>3.5</v>
-      </c>
-      <c r="V93">
-        <v>2.25</v>
-      </c>
-      <c r="W93">
-        <v>1.57</v>
-      </c>
-      <c r="X93">
-        <v>5.5</v>
-      </c>
-      <c r="Y93">
-        <v>1.14</v>
-      </c>
-      <c r="Z93">
-        <v>2.75</v>
-      </c>
-      <c r="AA93">
-        <v>3.52</v>
-      </c>
-      <c r="AB93">
-        <v>2.21</v>
-      </c>
-      <c r="AC93">
-        <v>1.02</v>
-      </c>
-      <c r="AD93">
-        <v>19</v>
-      </c>
-      <c r="AE93">
-        <v>1.16</v>
-      </c>
-      <c r="AF93">
-        <v>4.87</v>
-      </c>
-      <c r="AG93">
-        <v>1.5</v>
-      </c>
-      <c r="AH93">
-        <v>2.4</v>
-      </c>
-      <c r="AI93">
-        <v>1.5</v>
-      </c>
-      <c r="AJ93">
-        <v>2.5</v>
-      </c>
-      <c r="AK93">
-        <v>1.75</v>
-      </c>
-      <c r="AL93">
-        <v>1.22</v>
-      </c>
-      <c r="AM93">
-        <v>1.36</v>
-      </c>
-      <c r="AN93">
-        <v>3</v>
-      </c>
-      <c r="AO93">
-        <v>3</v>
-      </c>
-      <c r="AP93">
-        <v>3</v>
-      </c>
       <c r="AQ93">
-        <v>2.57</v>
+        <v>0.57</v>
       </c>
       <c r="AR93">
-        <v>2.04</v>
+        <v>1.39</v>
       </c>
       <c r="AS93">
-        <v>1.99</v>
+        <v>0.8</v>
       </c>
       <c r="AT93">
-        <v>4.03</v>
+        <v>2.19</v>
       </c>
       <c r="AU93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV93">
         <v>5</v>
       </c>
       <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>12</v>
+      </c>
+      <c r="AZ93">
+        <v>12</v>
+      </c>
+      <c r="BA93">
+        <v>2</v>
+      </c>
+      <c r="BB93">
         <v>5</v>
-      </c>
-      <c r="AX93">
-        <v>5</v>
-      </c>
-      <c r="AY93">
-        <v>22</v>
-      </c>
-      <c r="AZ93">
-        <v>13</v>
-      </c>
-      <c r="BA93">
-        <v>6</v>
-      </c>
-      <c r="BB93">
-        <v>1</v>
       </c>
       <c r="BC93">
         <v>7</v>
       </c>
       <c r="BD93">
+        <v>1.74</v>
+      </c>
+      <c r="BE93">
+        <v>6.75</v>
+      </c>
+      <c r="BF93">
+        <v>2.32</v>
+      </c>
+      <c r="BG93">
+        <v>1.27</v>
+      </c>
+      <c r="BH93">
+        <v>3.3</v>
+      </c>
+      <c r="BI93">
+        <v>1.48</v>
+      </c>
+      <c r="BJ93">
         <v>2.43</v>
       </c>
-      <c r="BE93">
-        <v>6.4</v>
-      </c>
-      <c r="BF93">
-        <v>1.68</v>
-      </c>
-      <c r="BG93">
-        <v>1.32</v>
-      </c>
-      <c r="BH93">
-        <v>3.05</v>
-      </c>
-      <c r="BI93">
-        <v>1.55</v>
-      </c>
-      <c r="BJ93">
-        <v>2.25</v>
-      </c>
       <c r="BK93">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="BL93">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="BM93">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BN93">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO93">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP93">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20234,7 +20237,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7466147</v>
+        <v>7466143</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20246,19 +20249,19 @@
         <v>45598.70833333334</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -20267,172 +20270,172 @@
         <v>3</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O94" t="s">
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="Q94">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R94">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S94">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T94">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U94">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W94">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X94">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y94">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z94">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="AA94">
-        <v>3.33</v>
+        <v>3.77</v>
       </c>
       <c r="AB94">
-        <v>3.05</v>
+        <v>5.84</v>
       </c>
       <c r="AC94">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD94">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE94">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF94">
-        <v>3.92</v>
+        <v>4.65</v>
       </c>
       <c r="AG94">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AH94">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="AI94">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ94">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK94">
+        <v>1.14</v>
+      </c>
+      <c r="AL94">
+        <v>1.18</v>
+      </c>
+      <c r="AM94">
+        <v>2.5</v>
+      </c>
+      <c r="AN94">
+        <v>1.75</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>2.17</v>
+      </c>
+      <c r="AQ94">
+        <v>1.86</v>
+      </c>
+      <c r="AR94">
+        <v>1.67</v>
+      </c>
+      <c r="AS94">
+        <v>1.56</v>
+      </c>
+      <c r="AT94">
+        <v>3.23</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>17</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>10</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
         <v>1.38</v>
       </c>
-      <c r="AL94">
-        <v>1.25</v>
-      </c>
-      <c r="AM94">
-        <v>1.7</v>
-      </c>
-      <c r="AN94">
-        <v>1.8</v>
-      </c>
-      <c r="AO94">
-        <v>0</v>
-      </c>
-      <c r="AP94">
-        <v>1.71</v>
-      </c>
-      <c r="AQ94">
-        <v>0</v>
-      </c>
-      <c r="AR94">
-        <v>1.29</v>
-      </c>
-      <c r="AS94">
-        <v>1.21</v>
-      </c>
-      <c r="AT94">
-        <v>2.5</v>
-      </c>
-      <c r="AU94">
-        <v>4</v>
-      </c>
-      <c r="AV94">
-        <v>3</v>
-      </c>
-      <c r="AW94">
-        <v>2</v>
-      </c>
-      <c r="AX94">
-        <v>4</v>
-      </c>
-      <c r="AY94">
+      <c r="BE94">
         <v>7</v>
       </c>
-      <c r="AZ94">
-        <v>12</v>
-      </c>
-      <c r="BA94">
-        <v>1</v>
-      </c>
-      <c r="BB94">
-        <v>8</v>
-      </c>
-      <c r="BC94">
-        <v>9</v>
-      </c>
-      <c r="BD94">
+      <c r="BF94">
+        <v>3.4</v>
+      </c>
+      <c r="BG94">
+        <v>1.23</v>
+      </c>
+      <c r="BH94">
+        <v>3.65</v>
+      </c>
+      <c r="BI94">
+        <v>1.41</v>
+      </c>
+      <c r="BJ94">
+        <v>2.65</v>
+      </c>
+      <c r="BK94">
+        <v>1.66</v>
+      </c>
+      <c r="BL94">
+        <v>2.06</v>
+      </c>
+      <c r="BM94">
+        <v>2.04</v>
+      </c>
+      <c r="BN94">
         <v>1.67</v>
       </c>
-      <c r="BE94">
-        <v>6.75</v>
-      </c>
-      <c r="BF94">
-        <v>2.4</v>
-      </c>
-      <c r="BG94">
-        <v>1.15</v>
-      </c>
-      <c r="BH94">
-        <v>4.6</v>
-      </c>
-      <c r="BI94">
-        <v>1.26</v>
-      </c>
-      <c r="BJ94">
-        <v>3.4</v>
-      </c>
-      <c r="BK94">
-        <v>1.46</v>
-      </c>
-      <c r="BL94">
-        <v>2.5</v>
-      </c>
-      <c r="BM94">
-        <v>1.72</v>
-      </c>
-      <c r="BN94">
-        <v>1.98</v>
-      </c>
       <c r="BO94">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BP94">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20440,7 +20443,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7466143</v>
+        <v>7466147</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20452,19 +20455,19 @@
         <v>45598.70833333334</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -20473,172 +20476,172 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O95" t="s">
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="Q95">
+        <v>2.75</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>3.75</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.12</v>
+      </c>
+      <c r="AA95">
+        <v>3.33</v>
+      </c>
+      <c r="AB95">
+        <v>3.05</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.24</v>
+      </c>
+      <c r="AF95">
+        <v>3.92</v>
+      </c>
+      <c r="AG95">
+        <v>1.89</v>
+      </c>
+      <c r="AH95">
+        <v>1.92</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
         <v>2.05</v>
       </c>
-      <c r="R95">
+      <c r="AK95">
+        <v>1.38</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.7</v>
+      </c>
+      <c r="AN95">
+        <v>1.8</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>1.71</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>1.29</v>
+      </c>
+      <c r="AS95">
+        <v>1.21</v>
+      </c>
+      <c r="AT95">
         <v>2.5</v>
       </c>
-      <c r="S95">
-        <v>5.5</v>
-      </c>
-      <c r="T95">
-        <v>1.29</v>
-      </c>
-      <c r="U95">
-        <v>3.5</v>
-      </c>
-      <c r="V95">
-        <v>2.25</v>
-      </c>
-      <c r="W95">
-        <v>1.57</v>
-      </c>
-      <c r="X95">
-        <v>5.5</v>
-      </c>
-      <c r="Y95">
-        <v>1.14</v>
-      </c>
-      <c r="Z95">
-        <v>1.51</v>
-      </c>
-      <c r="AA95">
-        <v>3.77</v>
-      </c>
-      <c r="AB95">
-        <v>5.84</v>
-      </c>
-      <c r="AC95">
-        <v>1.03</v>
-      </c>
-      <c r="AD95">
-        <v>17</v>
-      </c>
-      <c r="AE95">
-        <v>1.18</v>
-      </c>
-      <c r="AF95">
-        <v>4.65</v>
-      </c>
-      <c r="AG95">
-        <v>1.56</v>
-      </c>
-      <c r="AH95">
-        <v>2.22</v>
-      </c>
-      <c r="AI95">
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>2</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>7</v>
+      </c>
+      <c r="AZ95">
+        <v>12</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>8</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
         <v>1.67</v>
       </c>
-      <c r="AJ95">
-        <v>2.1</v>
-      </c>
-      <c r="AK95">
-        <v>1.14</v>
-      </c>
-      <c r="AL95">
-        <v>1.18</v>
-      </c>
-      <c r="AM95">
+      <c r="BE95">
+        <v>6.75</v>
+      </c>
+      <c r="BF95">
+        <v>2.4</v>
+      </c>
+      <c r="BG95">
+        <v>1.15</v>
+      </c>
+      <c r="BH95">
+        <v>4.6</v>
+      </c>
+      <c r="BI95">
+        <v>1.26</v>
+      </c>
+      <c r="BJ95">
+        <v>3.4</v>
+      </c>
+      <c r="BK95">
+        <v>1.46</v>
+      </c>
+      <c r="BL95">
         <v>2.5</v>
       </c>
-      <c r="AN95">
-        <v>1.75</v>
-      </c>
-      <c r="AO95">
-        <v>2</v>
-      </c>
-      <c r="AP95">
-        <v>2.17</v>
-      </c>
-      <c r="AQ95">
-        <v>1.67</v>
-      </c>
-      <c r="AR95">
-        <v>1.67</v>
-      </c>
-      <c r="AS95">
-        <v>1.56</v>
-      </c>
-      <c r="AT95">
-        <v>3.23</v>
-      </c>
-      <c r="AU95">
-        <v>5</v>
-      </c>
-      <c r="AV95">
-        <v>6</v>
-      </c>
-      <c r="AW95">
-        <v>7</v>
-      </c>
-      <c r="AX95">
-        <v>3</v>
-      </c>
-      <c r="AY95">
-        <v>17</v>
-      </c>
-      <c r="AZ95">
-        <v>10</v>
-      </c>
-      <c r="BA95">
-        <v>10</v>
-      </c>
-      <c r="BB95">
-        <v>0</v>
-      </c>
-      <c r="BC95">
-        <v>10</v>
-      </c>
-      <c r="BD95">
-        <v>1.38</v>
-      </c>
-      <c r="BE95">
-        <v>7</v>
-      </c>
-      <c r="BF95">
-        <v>3.4</v>
-      </c>
-      <c r="BG95">
-        <v>1.23</v>
-      </c>
-      <c r="BH95">
-        <v>3.65</v>
-      </c>
-      <c r="BI95">
-        <v>1.41</v>
-      </c>
-      <c r="BJ95">
-        <v>2.65</v>
-      </c>
-      <c r="BK95">
-        <v>1.66</v>
-      </c>
-      <c r="BL95">
-        <v>2.06</v>
-      </c>
       <c r="BM95">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="BN95">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BO95">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="BP95">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -21178,7 +21181,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ98">
         <v>2.6</v>
@@ -23324,7 +23327,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7466161</v>
+        <v>7466162</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23339,10 +23342,10 @@
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -23354,13 +23357,13 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O109" t="s">
         <v>167</v>
@@ -23369,160 +23372,160 @@
         <v>91</v>
       </c>
       <c r="Q109">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="R109">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="S109">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T109">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U109">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W109">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="X109">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Z109">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AA109">
-        <v>6.7</v>
+        <v>3.89</v>
       </c>
       <c r="AB109">
-        <v>11</v>
+        <v>5.94</v>
       </c>
       <c r="AC109">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE109">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AF109">
-        <v>7.29</v>
+        <v>3.67</v>
       </c>
       <c r="AG109">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AH109">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="AI109">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ109">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK109">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="AL109">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AM109">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="AN109">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO109">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AR109">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS109">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT109">
-        <v>3.52</v>
+        <v>2.76</v>
       </c>
       <c r="AU109">
         <v>11</v>
       </c>
       <c r="AV109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW109">
         <v>6</v>
       </c>
       <c r="AX109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY109">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
         <v>5</v>
       </c>
-      <c r="BA109">
-        <v>14</v>
-      </c>
       <c r="BB109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC109">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BD109">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="BE109">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF109">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="BG109">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH109">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BI109">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BJ109">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BK109">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="BL109">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BM109">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="BN109">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BO109">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BP109">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23539,7 +23542,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45618.875</v>
+        <v>45619.61458333334</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -23665,7 +23668,7 @@
         <v>2.82</v>
       </c>
       <c r="AU110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV110">
         <v>4</v>
@@ -23677,10 +23680,10 @@
         <v>0</v>
       </c>
       <c r="AY110">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA110">
         <v>7</v>
@@ -23745,7 +23748,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45618.875</v>
+        <v>45619.61458333334</v>
       </c>
       <c r="F111">
         <v>13</v>
@@ -23871,22 +23874,22 @@
         <v>2.18</v>
       </c>
       <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
         <v>6</v>
       </c>
-      <c r="AV111">
-        <v>6</v>
-      </c>
-      <c r="AW111">
-        <v>8</v>
-      </c>
       <c r="AX111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY111">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA111">
         <v>9</v>
@@ -23942,7 +23945,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7466165</v>
+        <v>7466161</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23951,196 +23954,196 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45618.875</v>
+        <v>45619.70833333334</v>
       </c>
       <c r="F112">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H112" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O112" t="s">
         <v>170</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="Q112">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="S112">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="T112">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="U112">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="V112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="X112">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="Y112">
+        <v>1.2</v>
+      </c>
+      <c r="Z112">
+        <v>1.16</v>
+      </c>
+      <c r="AA112">
+        <v>6.7</v>
+      </c>
+      <c r="AB112">
+        <v>11</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
         <v>1.08</v>
       </c>
-      <c r="Z112">
-        <v>3.87</v>
-      </c>
-      <c r="AA112">
-        <v>3.32</v>
-      </c>
-      <c r="AB112">
-        <v>1.85</v>
-      </c>
-      <c r="AC112">
-        <v>1.05</v>
-      </c>
-      <c r="AD112">
-        <v>11</v>
-      </c>
-      <c r="AE112">
-        <v>1.31</v>
-      </c>
       <c r="AF112">
-        <v>3.35</v>
+        <v>7.29</v>
       </c>
       <c r="AG112">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="AH112">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="AI112">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AJ112">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK112">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="AL112">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AM112">
-        <v>1.22</v>
+        <v>5.5</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO112">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AP112">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.86</v>
+        <v>0.57</v>
       </c>
       <c r="AR112">
-        <v>1.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS112">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="AT112">
-        <v>2.93</v>
+        <v>3.52</v>
       </c>
       <c r="AU112">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW112">
         <v>4</v>
       </c>
       <c r="AX112">
+        <v>1</v>
+      </c>
+      <c r="AY112">
+        <v>11</v>
+      </c>
+      <c r="AZ112">
         <v>4</v>
       </c>
-      <c r="AY112">
-        <v>9</v>
-      </c>
-      <c r="AZ112">
-        <v>12</v>
-      </c>
       <c r="BA112">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BB112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC112">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BD112">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="BE112">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF112">
-        <v>1.61</v>
+        <v>4.9</v>
       </c>
       <c r="BG112">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH112">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI112">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BJ112">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BK112">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BL112">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="BM112">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BN112">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BO112">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BP112">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24148,7 +24151,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7466162</v>
+        <v>7466165</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24157,31 +24160,31 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.52083333334</v>
+        <v>45619.70833333334</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H113" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <v>3</v>
@@ -24190,100 +24193,100 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="Q113">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="R113">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S113">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
         <v>1.36</v>
       </c>
-      <c r="U113">
-        <v>3</v>
-      </c>
-      <c r="V113">
-        <v>2.63</v>
-      </c>
-      <c r="W113">
-        <v>1.44</v>
-      </c>
       <c r="X113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y113">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z113">
-        <v>1.46</v>
+        <v>3.87</v>
       </c>
       <c r="AA113">
-        <v>3.89</v>
+        <v>3.32</v>
       </c>
       <c r="AB113">
-        <v>5.94</v>
+        <v>1.85</v>
       </c>
       <c r="AC113">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD113">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE113">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AF113">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="AG113">
+        <v>1.96</v>
+      </c>
+      <c r="AH113">
+        <v>1.88</v>
+      </c>
+      <c r="AI113">
         <v>1.8</v>
       </c>
-      <c r="AH113">
-        <v>1.9</v>
-      </c>
-      <c r="AI113">
-        <v>1.91</v>
-      </c>
       <c r="AJ113">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK113">
-        <v>1.12</v>
+        <v>2</v>
       </c>
       <c r="AL113">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AM113">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO113">
-        <v>0.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ113">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="AR113">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="AS113">
-        <v>1.15</v>
+        <v>1.72</v>
       </c>
       <c r="AT113">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="AU113">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV113">
         <v>2</v>
@@ -24292,61 +24295,61 @@
         <v>6</v>
       </c>
       <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>6</v>
+      </c>
+      <c r="AZ113">
+        <v>5</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
         <v>4</v>
       </c>
-      <c r="AY113">
-        <v>22</v>
-      </c>
-      <c r="AZ113">
-        <v>9</v>
-      </c>
-      <c r="BA113">
-        <v>5</v>
-      </c>
-      <c r="BB113">
-        <v>4</v>
-      </c>
-      <c r="BC113">
-        <v>9</v>
-      </c>
       <c r="BD113">
-        <v>1.52</v>
+        <v>2.55</v>
       </c>
       <c r="BE113">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF113">
-        <v>2.8</v>
+        <v>1.61</v>
       </c>
       <c r="BG113">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH113">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI113">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="BJ113">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BK113">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="BL113">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="BM113">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="BN113">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BO113">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BP113">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24354,7 +24357,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7466168</v>
+        <v>7466169</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24363,22 +24366,22 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45620.4375</v>
+        <v>45619.875</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H114" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -24387,70 +24390,70 @@
         <v>2</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="Q114">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="S114">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="T114">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="U114">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="V114">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="W114">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="X114">
+        <v>4</v>
+      </c>
+      <c r="Y114">
+        <v>1.22</v>
+      </c>
+      <c r="Z114">
+        <v>1.15</v>
+      </c>
+      <c r="AA114">
+        <v>6.7</v>
+      </c>
+      <c r="AB114">
+        <v>11</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
         <v>10</v>
       </c>
-      <c r="Y114">
-        <v>1.06</v>
-      </c>
-      <c r="Z114">
-        <v>2.06</v>
-      </c>
-      <c r="AA114">
-        <v>3.2</v>
-      </c>
-      <c r="AB114">
-        <v>3.5</v>
-      </c>
-      <c r="AC114">
-        <v>1.07</v>
-      </c>
-      <c r="AD114">
-        <v>7.61</v>
-      </c>
       <c r="AE114">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AF114">
-        <v>2.76</v>
+        <v>7.29</v>
       </c>
       <c r="AG114">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="AH114">
-        <v>1.57</v>
+        <v>2.78</v>
       </c>
       <c r="AI114">
         <v>2</v>
@@ -24459,100 +24462,100 @@
         <v>1.75</v>
       </c>
       <c r="AK114">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="AL114">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AM114">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="AN114">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="AO114">
         <v>0.5</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="AQ114">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AR114">
-        <v>1.02</v>
+        <v>2.01</v>
       </c>
       <c r="AS114">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AT114">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX114">
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ114">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB114">
         <v>0</v>
       </c>
       <c r="BC114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD114">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="BE114">
-        <v>6.1</v>
+        <v>14</v>
       </c>
       <c r="BF114">
-        <v>2.82</v>
+        <v>14.5</v>
       </c>
       <c r="BG114">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BH114">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BI114">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BJ114">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="BK114">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="BL114">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="BM114">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="BN114">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="BO114">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="BP114">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24560,7 +24563,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7466169</v>
+        <v>7466167</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24569,196 +24572,402 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45620.53125</v>
+        <v>45620.4375</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H115" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="Q115">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R115">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="S115">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U115">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="V115">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W115">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X115">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y115">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Z115">
-        <v>1.15</v>
+        <v>3.2</v>
       </c>
       <c r="AA115">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="AB115">
-        <v>11</v>
+        <v>2.03</v>
       </c>
       <c r="AC115">
         <v>1.04</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE115">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AF115">
-        <v>7.29</v>
+        <v>3.89</v>
       </c>
       <c r="AG115">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="AH115">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="AI115">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AJ115">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AK115">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="AL115">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AM115">
-        <v>5.75</v>
+        <v>1.33</v>
       </c>
       <c r="AN115">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AO115">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>3</v>
+        <v>0.57</v>
       </c>
       <c r="AQ115">
-        <v>0.43</v>
+        <v>1.86</v>
       </c>
       <c r="AR115">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="AS115">
-        <v>0.84</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AU115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>6</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
         <v>7</v>
       </c>
-      <c r="AW115">
-        <v>3</v>
-      </c>
-      <c r="AX115">
+      <c r="BA115">
         <v>5</v>
       </c>
-      <c r="AY115">
-        <v>7</v>
-      </c>
-      <c r="AZ115">
-        <v>14</v>
-      </c>
-      <c r="BA115">
-        <v>7</v>
-      </c>
       <c r="BB115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC115">
         <v>7</v>
       </c>
       <c r="BD115">
-        <v>1.01</v>
+        <v>2.55</v>
       </c>
       <c r="BE115">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BF115">
-        <v>14.5</v>
+        <v>1.68</v>
       </c>
       <c r="BG115">
+        <v>1.2</v>
+      </c>
+      <c r="BH115">
+        <v>4</v>
+      </c>
+      <c r="BI115">
+        <v>1.42</v>
+      </c>
+      <c r="BJ115">
+        <v>2.65</v>
+      </c>
+      <c r="BK115">
+        <v>1.72</v>
+      </c>
+      <c r="BL115">
+        <v>1.95</v>
+      </c>
+      <c r="BM115">
+        <v>2.25</v>
+      </c>
+      <c r="BN115">
+        <v>1.55</v>
+      </c>
+      <c r="BO115">
+        <v>3.05</v>
+      </c>
+      <c r="BP115">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7466168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45620.4375</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>173</v>
+      </c>
+      <c r="P116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>4.5</v>
+      </c>
+      <c r="T116">
+        <v>1.5</v>
+      </c>
+      <c r="U116">
+        <v>2.5</v>
+      </c>
+      <c r="V116">
+        <v>3.4</v>
+      </c>
+      <c r="W116">
+        <v>1.3</v>
+      </c>
+      <c r="X116">
+        <v>10</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>2.06</v>
+      </c>
+      <c r="AA116">
+        <v>3.2</v>
+      </c>
+      <c r="AB116">
+        <v>3.5</v>
+      </c>
+      <c r="AC116">
+        <v>1.07</v>
+      </c>
+      <c r="AD116">
+        <v>7.61</v>
+      </c>
+      <c r="AE116">
+        <v>1.43</v>
+      </c>
+      <c r="AF116">
+        <v>2.76</v>
+      </c>
+      <c r="AG116">
+        <v>2.25</v>
+      </c>
+      <c r="AH116">
+        <v>1.57</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.32</v>
+      </c>
+      <c r="AL116">
+        <v>1.32</v>
+      </c>
+      <c r="AM116">
+        <v>1.65</v>
+      </c>
+      <c r="AN116">
         <v>1.17</v>
       </c>
-      <c r="BH115">
-        <v>4.3</v>
-      </c>
-      <c r="BI115">
-        <v>1.33</v>
-      </c>
-      <c r="BJ115">
-        <v>2.98</v>
-      </c>
-      <c r="BK115">
-        <v>1.6</v>
-      </c>
-      <c r="BL115">
-        <v>2.18</v>
-      </c>
-      <c r="BM115">
-        <v>2.02</v>
-      </c>
-      <c r="BN115">
-        <v>1.68</v>
-      </c>
-      <c r="BO115">
-        <v>2.75</v>
-      </c>
-      <c r="BP115">
-        <v>1.39</v>
+      <c r="AO116">
+        <v>0.5</v>
+      </c>
+      <c r="AP116">
+        <v>1.14</v>
+      </c>
+      <c r="AQ116">
+        <v>0.57</v>
+      </c>
+      <c r="AR116">
+        <v>1.02</v>
+      </c>
+      <c r="AS116">
+        <v>0.88</v>
+      </c>
+      <c r="AT116">
+        <v>1.9</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>16</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>8</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>1.62</v>
+      </c>
+      <c r="BE116">
+        <v>6.1</v>
+      </c>
+      <c r="BF116">
+        <v>2.82</v>
+      </c>
+      <c r="BG116">
+        <v>1.21</v>
+      </c>
+      <c r="BH116">
+        <v>3.9</v>
+      </c>
+      <c r="BI116">
+        <v>1.43</v>
+      </c>
+      <c r="BJ116">
+        <v>2.58</v>
+      </c>
+      <c r="BK116">
+        <v>1.75</v>
+      </c>
+      <c r="BL116">
+        <v>1.92</v>
+      </c>
+      <c r="BM116">
+        <v>2.32</v>
+      </c>
+      <c r="BN116">
+        <v>1.52</v>
+      </c>
+      <c r="BO116">
+        <v>3.2</v>
+      </c>
+      <c r="BP116">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,10 +535,10 @@
     <t>['27', '63']</t>
   </si>
   <si>
-    <t>['61', '90+8']</t>
+    <t>['48']</t>
   </si>
   <si>
-    <t>['48']</t>
+    <t>['61', '90+8']</t>
   </si>
   <si>
     <t>['8', '54']</t>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>['35', '66']</t>
+  </si>
+  <si>
+    <t>['35', '62']</t>
   </si>
   <si>
     <t>['9', '73']</t>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1330,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>1.86</v>
@@ -3468,7 +3471,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20">
         <v>0.43</v>
@@ -5528,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -11087,7 +11090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -12529,7 +12532,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>2.14</v>
@@ -13768,7 +13771,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -16237,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ74">
         <v>0</v>
@@ -17270,7 +17273,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -20975,7 +20978,7 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
         <v>0.57</v>
@@ -21184,7 +21187,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ98">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR98">
         <v>1.7</v>
@@ -24563,7 +24566,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7466167</v>
+        <v>7466166</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24572,25 +24575,25 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45620.4375</v>
+        <v>45620.34375</v>
       </c>
       <c r="F115">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -24602,25 +24605,25 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="P115" t="s">
         <v>229</v>
       </c>
       <c r="Q115">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="R115">
         <v>2.2</v>
       </c>
       <c r="S115">
+        <v>3.25</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
         <v>2.75</v>
-      </c>
-      <c r="T115">
-        <v>1.36</v>
-      </c>
-      <c r="U115">
-        <v>3</v>
       </c>
       <c r="V115">
         <v>2.75</v>
@@ -24629,37 +24632,37 @@
         <v>1.4</v>
       </c>
       <c r="X115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y115">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z115">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="AA115">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AB115">
-        <v>2.03</v>
+        <v>2.68</v>
       </c>
       <c r="AC115">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD115">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE115">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AF115">
-        <v>3.89</v>
+        <v>3.52</v>
       </c>
       <c r="AG115">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AH115">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AI115">
         <v>1.67</v>
@@ -24668,82 +24671,82 @@
         <v>2.1</v>
       </c>
       <c r="AK115">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="AL115">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM115">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AN115">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AO115">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="AP115">
-        <v>0.57</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="AR115">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AT115">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="AU115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW115">
         <v>6</v>
       </c>
       <c r="AX115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY115">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ115">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
         <v>5</v>
       </c>
-      <c r="BB115">
-        <v>2</v>
-      </c>
       <c r="BC115">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD115">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BE115">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="BF115">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="BG115">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH115">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="BI115">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BJ115">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK115">
         <v>1.72</v>
@@ -24758,7 +24761,7 @@
         <v>1.55</v>
       </c>
       <c r="BO115">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BP115">
         <v>1.32</v>
@@ -24769,7 +24772,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7466168</v>
+        <v>7466167</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24781,192 +24784,398 @@
         <v>45620.4375</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>2</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="P116" t="s">
         <v>230</v>
       </c>
       <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
         <v>2.75</v>
       </c>
-      <c r="R116">
-        <v>2.05</v>
-      </c>
-      <c r="S116">
-        <v>4.5</v>
-      </c>
       <c r="T116">
+        <v>1.36</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>2.75</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>3.2</v>
+      </c>
+      <c r="AA116">
+        <v>3.5</v>
+      </c>
+      <c r="AB116">
+        <v>2.03</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>13</v>
+      </c>
+      <c r="AE116">
+        <v>1.24</v>
+      </c>
+      <c r="AF116">
+        <v>3.89</v>
+      </c>
+      <c r="AG116">
+        <v>1.8</v>
+      </c>
+      <c r="AH116">
+        <v>1.91</v>
+      </c>
+      <c r="AI116">
+        <v>1.67</v>
+      </c>
+      <c r="AJ116">
+        <v>2.1</v>
+      </c>
+      <c r="AK116">
+        <v>1.78</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.33</v>
+      </c>
+      <c r="AN116">
+        <v>0.67</v>
+      </c>
+      <c r="AO116">
+        <v>1.67</v>
+      </c>
+      <c r="AP116">
+        <v>0.57</v>
+      </c>
+      <c r="AQ116">
+        <v>1.86</v>
+      </c>
+      <c r="AR116">
+        <v>1.6</v>
+      </c>
+      <c r="AS116">
         <v>1.5</v>
       </c>
-      <c r="U116">
-        <v>2.5</v>
-      </c>
-      <c r="V116">
-        <v>3.4</v>
-      </c>
-      <c r="W116">
-        <v>1.3</v>
-      </c>
-      <c r="X116">
-        <v>10</v>
-      </c>
-      <c r="Y116">
-        <v>1.06</v>
-      </c>
-      <c r="Z116">
-        <v>2.06</v>
-      </c>
-      <c r="AA116">
-        <v>3.2</v>
-      </c>
-      <c r="AB116">
-        <v>3.5</v>
-      </c>
-      <c r="AC116">
-        <v>1.07</v>
-      </c>
-      <c r="AD116">
-        <v>7.61</v>
-      </c>
-      <c r="AE116">
-        <v>1.43</v>
-      </c>
-      <c r="AF116">
-        <v>2.76</v>
-      </c>
-      <c r="AG116">
-        <v>2.25</v>
-      </c>
-      <c r="AH116">
-        <v>1.57</v>
-      </c>
-      <c r="AI116">
-        <v>2</v>
-      </c>
-      <c r="AJ116">
-        <v>1.75</v>
-      </c>
-      <c r="AK116">
-        <v>1.32</v>
-      </c>
-      <c r="AL116">
-        <v>1.32</v>
-      </c>
-      <c r="AM116">
-        <v>1.65</v>
-      </c>
-      <c r="AN116">
-        <v>1.17</v>
-      </c>
-      <c r="AO116">
-        <v>0.5</v>
-      </c>
-      <c r="AP116">
-        <v>1.14</v>
-      </c>
-      <c r="AQ116">
-        <v>0.57</v>
-      </c>
-      <c r="AR116">
-        <v>1.02</v>
-      </c>
-      <c r="AS116">
-        <v>0.88</v>
-      </c>
       <c r="AT116">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU116">
         <v>5</v>
       </c>
       <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>7</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>2.55</v>
+      </c>
+      <c r="BE116">
+        <v>7</v>
+      </c>
+      <c r="BF116">
+        <v>1.68</v>
+      </c>
+      <c r="BG116">
+        <v>1.2</v>
+      </c>
+      <c r="BH116">
         <v>4</v>
       </c>
-      <c r="AW116">
+      <c r="BI116">
+        <v>1.42</v>
+      </c>
+      <c r="BJ116">
+        <v>2.65</v>
+      </c>
+      <c r="BK116">
+        <v>1.72</v>
+      </c>
+      <c r="BL116">
+        <v>1.95</v>
+      </c>
+      <c r="BM116">
+        <v>2.25</v>
+      </c>
+      <c r="BN116">
+        <v>1.55</v>
+      </c>
+      <c r="BO116">
+        <v>3.05</v>
+      </c>
+      <c r="BP116">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7466168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45620.4375</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s">
+        <v>87</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>174</v>
+      </c>
+      <c r="P117" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>4.5</v>
+      </c>
+      <c r="T117">
+        <v>1.5</v>
+      </c>
+      <c r="U117">
+        <v>2.5</v>
+      </c>
+      <c r="V117">
+        <v>3.4</v>
+      </c>
+      <c r="W117">
+        <v>1.3</v>
+      </c>
+      <c r="X117">
+        <v>10</v>
+      </c>
+      <c r="Y117">
+        <v>1.06</v>
+      </c>
+      <c r="Z117">
+        <v>2.06</v>
+      </c>
+      <c r="AA117">
+        <v>3.2</v>
+      </c>
+      <c r="AB117">
+        <v>3.5</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>7.61</v>
+      </c>
+      <c r="AE117">
+        <v>1.43</v>
+      </c>
+      <c r="AF117">
+        <v>2.76</v>
+      </c>
+      <c r="AG117">
+        <v>2.25</v>
+      </c>
+      <c r="AH117">
+        <v>1.57</v>
+      </c>
+      <c r="AI117">
+        <v>2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.75</v>
+      </c>
+      <c r="AK117">
+        <v>1.32</v>
+      </c>
+      <c r="AL117">
+        <v>1.32</v>
+      </c>
+      <c r="AM117">
+        <v>1.65</v>
+      </c>
+      <c r="AN117">
+        <v>1.17</v>
+      </c>
+      <c r="AO117">
+        <v>0.5</v>
+      </c>
+      <c r="AP117">
+        <v>1.14</v>
+      </c>
+      <c r="AQ117">
+        <v>0.57</v>
+      </c>
+      <c r="AR117">
+        <v>1.02</v>
+      </c>
+      <c r="AS117">
+        <v>0.88</v>
+      </c>
+      <c r="AT117">
+        <v>1.9</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
         <v>8</v>
       </c>
-      <c r="AX116">
+      <c r="AX117">
         <v>5</v>
       </c>
-      <c r="AY116">
+      <c r="AY117">
         <v>16</v>
       </c>
-      <c r="AZ116">
+      <c r="AZ117">
         <v>11</v>
       </c>
-      <c r="BA116">
+      <c r="BA117">
         <v>8</v>
       </c>
-      <c r="BB116">
-        <v>0</v>
-      </c>
-      <c r="BC116">
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
         <v>8</v>
       </c>
-      <c r="BD116">
+      <c r="BD117">
         <v>1.62</v>
       </c>
-      <c r="BE116">
+      <c r="BE117">
         <v>6.1</v>
       </c>
-      <c r="BF116">
+      <c r="BF117">
         <v>2.82</v>
       </c>
-      <c r="BG116">
+      <c r="BG117">
         <v>1.21</v>
       </c>
-      <c r="BH116">
+      <c r="BH117">
         <v>3.9</v>
       </c>
-      <c r="BI116">
+      <c r="BI117">
         <v>1.43</v>
       </c>
-      <c r="BJ116">
+      <c r="BJ117">
         <v>2.58</v>
       </c>
-      <c r="BK116">
+      <c r="BK117">
         <v>1.75</v>
       </c>
-      <c r="BL116">
+      <c r="BL117">
         <v>1.92</v>
       </c>
-      <c r="BM116">
+      <c r="BM117">
         <v>2.32</v>
       </c>
-      <c r="BN116">
+      <c r="BN117">
         <v>1.52</v>
       </c>
-      <c r="BO116">
+      <c r="BO117">
         <v>3.2</v>
       </c>
-      <c r="BP116">
+      <c r="BP117">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -478,16 +478,16 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['39', '63']</t>
+  </si>
+  <si>
     <t>['43', '66', '74']</t>
   </si>
   <si>
-    <t>['39', '63']</t>
+    <t>['10', '67', '73']</t>
   </si>
   <si>
     <t>['61', '63', '82']</t>
-  </si>
-  <si>
-    <t>['10', '67', '73']</t>
   </si>
   <si>
     <t>['47', '67']</t>
@@ -532,13 +532,13 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['27', '63']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
     <t>['61', '90+8']</t>
+  </si>
+  <si>
+    <t>['27', '63']</t>
   </si>
   <si>
     <t>['8', '54']</t>
@@ -1330,7 +1330,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -19828,7 +19828,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7466146</v>
+        <v>7466144</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19843,190 +19843,190 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H92" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R92">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S92">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.08</v>
+      </c>
+      <c r="AA92">
+        <v>3.35</v>
+      </c>
+      <c r="AB92">
+        <v>3.12</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>13</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.89</v>
+      </c>
+      <c r="AG92">
+        <v>1.83</v>
+      </c>
+      <c r="AH92">
+        <v>1.98</v>
+      </c>
+      <c r="AI92">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92">
+        <v>2.05</v>
+      </c>
+      <c r="AK92">
+        <v>1.42</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>1.63</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>0.6</v>
+      </c>
+      <c r="AP92">
         <v>1.29</v>
       </c>
-      <c r="U92">
-        <v>3.5</v>
-      </c>
-      <c r="V92">
-        <v>2.25</v>
-      </c>
-      <c r="W92">
-        <v>1.57</v>
-      </c>
-      <c r="X92">
-        <v>5.5</v>
-      </c>
-      <c r="Y92">
-        <v>1.14</v>
-      </c>
-      <c r="Z92">
-        <v>2.75</v>
-      </c>
-      <c r="AA92">
-        <v>3.52</v>
-      </c>
-      <c r="AB92">
-        <v>2.21</v>
-      </c>
-      <c r="AC92">
-        <v>1.02</v>
-      </c>
-      <c r="AD92">
-        <v>19</v>
-      </c>
-      <c r="AE92">
-        <v>1.16</v>
-      </c>
-      <c r="AF92">
-        <v>4.87</v>
-      </c>
-      <c r="AG92">
-        <v>1.5</v>
-      </c>
-      <c r="AH92">
-        <v>2.4</v>
-      </c>
-      <c r="AI92">
-        <v>1.5</v>
-      </c>
-      <c r="AJ92">
-        <v>2.5</v>
-      </c>
-      <c r="AK92">
-        <v>1.75</v>
-      </c>
-      <c r="AL92">
-        <v>1.22</v>
-      </c>
-      <c r="AM92">
-        <v>1.36</v>
-      </c>
-      <c r="AN92">
-        <v>3</v>
-      </c>
-      <c r="AO92">
-        <v>3</v>
-      </c>
-      <c r="AP92">
-        <v>3</v>
-      </c>
       <c r="AQ92">
-        <v>2.57</v>
+        <v>0.57</v>
       </c>
       <c r="AR92">
-        <v>2.04</v>
+        <v>1.39</v>
       </c>
       <c r="AS92">
-        <v>1.99</v>
+        <v>0.8</v>
       </c>
       <c r="AT92">
-        <v>4.03</v>
+        <v>2.19</v>
       </c>
       <c r="AU92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV92">
         <v>5</v>
       </c>
       <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
         <v>5</v>
-      </c>
-      <c r="AX92">
-        <v>5</v>
-      </c>
-      <c r="AY92">
-        <v>22</v>
-      </c>
-      <c r="AZ92">
-        <v>13</v>
-      </c>
-      <c r="BA92">
-        <v>6</v>
-      </c>
-      <c r="BB92">
-        <v>1</v>
       </c>
       <c r="BC92">
         <v>7</v>
       </c>
       <c r="BD92">
+        <v>1.74</v>
+      </c>
+      <c r="BE92">
+        <v>6.75</v>
+      </c>
+      <c r="BF92">
+        <v>2.32</v>
+      </c>
+      <c r="BG92">
+        <v>1.27</v>
+      </c>
+      <c r="BH92">
+        <v>3.3</v>
+      </c>
+      <c r="BI92">
+        <v>1.48</v>
+      </c>
+      <c r="BJ92">
         <v>2.43</v>
       </c>
-      <c r="BE92">
-        <v>6.4</v>
-      </c>
-      <c r="BF92">
-        <v>1.68</v>
-      </c>
-      <c r="BG92">
-        <v>1.32</v>
-      </c>
-      <c r="BH92">
-        <v>3.05</v>
-      </c>
-      <c r="BI92">
-        <v>1.55</v>
-      </c>
-      <c r="BJ92">
-        <v>2.25</v>
-      </c>
       <c r="BK92">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="BL92">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="BM92">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BN92">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO92">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP92">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20034,7 +20034,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7466144</v>
+        <v>7466146</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20049,190 +20049,190 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O93" t="s">
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R93">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S93">
+        <v>2.6</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
         <v>3.5</v>
       </c>
-      <c r="T93">
+      <c r="V93">
+        <v>2.25</v>
+      </c>
+      <c r="W93">
+        <v>1.57</v>
+      </c>
+      <c r="X93">
+        <v>5.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.14</v>
+      </c>
+      <c r="Z93">
+        <v>2.75</v>
+      </c>
+      <c r="AA93">
+        <v>3.52</v>
+      </c>
+      <c r="AB93">
+        <v>2.21</v>
+      </c>
+      <c r="AC93">
+        <v>1.02</v>
+      </c>
+      <c r="AD93">
+        <v>19</v>
+      </c>
+      <c r="AE93">
+        <v>1.16</v>
+      </c>
+      <c r="AF93">
+        <v>4.87</v>
+      </c>
+      <c r="AG93">
+        <v>1.5</v>
+      </c>
+      <c r="AH93">
+        <v>2.4</v>
+      </c>
+      <c r="AI93">
+        <v>1.5</v>
+      </c>
+      <c r="AJ93">
+        <v>2.5</v>
+      </c>
+      <c r="AK93">
+        <v>1.75</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
         <v>1.36</v>
       </c>
-      <c r="U93">
-        <v>3</v>
-      </c>
-      <c r="V93">
-        <v>2.75</v>
-      </c>
-      <c r="W93">
-        <v>1.4</v>
-      </c>
-      <c r="X93">
-        <v>8</v>
-      </c>
-      <c r="Y93">
-        <v>1.08</v>
-      </c>
-      <c r="Z93">
-        <v>2.08</v>
-      </c>
-      <c r="AA93">
-        <v>3.35</v>
-      </c>
-      <c r="AB93">
-        <v>3.12</v>
-      </c>
-      <c r="AC93">
-        <v>1.04</v>
-      </c>
-      <c r="AD93">
-        <v>13</v>
-      </c>
-      <c r="AE93">
-        <v>1.24</v>
-      </c>
-      <c r="AF93">
-        <v>3.89</v>
-      </c>
-      <c r="AG93">
-        <v>1.83</v>
-      </c>
-      <c r="AH93">
-        <v>1.98</v>
-      </c>
-      <c r="AI93">
-        <v>1.7</v>
-      </c>
-      <c r="AJ93">
-        <v>2.05</v>
-      </c>
-      <c r="AK93">
-        <v>1.42</v>
-      </c>
-      <c r="AL93">
-        <v>1.26</v>
-      </c>
-      <c r="AM93">
-        <v>1.63</v>
-      </c>
       <c r="AN93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO93">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>2.57</v>
       </c>
       <c r="AR93">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="AS93">
-        <v>0.8</v>
+        <v>1.99</v>
       </c>
       <c r="AT93">
-        <v>2.19</v>
+        <v>4.03</v>
       </c>
       <c r="AU93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV93">
         <v>5</v>
       </c>
       <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>13</v>
+      </c>
+      <c r="BA93">
         <v>6</v>
       </c>
-      <c r="AX93">
-        <v>4</v>
-      </c>
-      <c r="AY93">
-        <v>12</v>
-      </c>
-      <c r="AZ93">
-        <v>12</v>
-      </c>
-      <c r="BA93">
-        <v>2</v>
-      </c>
       <c r="BB93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC93">
         <v>7</v>
       </c>
       <c r="BD93">
-        <v>1.74</v>
+        <v>2.43</v>
       </c>
       <c r="BE93">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF93">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="BG93">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BH93">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI93">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BJ93">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="BK93">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="BL93">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="BM93">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BN93">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO93">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP93">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20240,7 +20240,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7466143</v>
+        <v>7466147</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20252,19 +20252,19 @@
         <v>45598.70833333334</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -20273,172 +20273,172 @@
         <v>3</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="Q94">
+        <v>2.75</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.12</v>
+      </c>
+      <c r="AA94">
+        <v>3.33</v>
+      </c>
+      <c r="AB94">
+        <v>3.05</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>13</v>
+      </c>
+      <c r="AE94">
+        <v>1.24</v>
+      </c>
+      <c r="AF94">
+        <v>3.92</v>
+      </c>
+      <c r="AG94">
+        <v>1.89</v>
+      </c>
+      <c r="AH94">
+        <v>1.92</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
         <v>2.05</v>
       </c>
-      <c r="R94">
+      <c r="AK94">
+        <v>1.38</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.7</v>
+      </c>
+      <c r="AN94">
+        <v>1.8</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>1.71</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>1.29</v>
+      </c>
+      <c r="AS94">
+        <v>1.21</v>
+      </c>
+      <c r="AT94">
         <v>2.5</v>
       </c>
-      <c r="S94">
-        <v>5.5</v>
-      </c>
-      <c r="T94">
-        <v>1.29</v>
-      </c>
-      <c r="U94">
-        <v>3.5</v>
-      </c>
-      <c r="V94">
-        <v>2.25</v>
-      </c>
-      <c r="W94">
-        <v>1.57</v>
-      </c>
-      <c r="X94">
-        <v>5.5</v>
-      </c>
-      <c r="Y94">
-        <v>1.14</v>
-      </c>
-      <c r="Z94">
-        <v>1.51</v>
-      </c>
-      <c r="AA94">
-        <v>3.77</v>
-      </c>
-      <c r="AB94">
-        <v>5.84</v>
-      </c>
-      <c r="AC94">
-        <v>1.03</v>
-      </c>
-      <c r="AD94">
-        <v>17</v>
-      </c>
-      <c r="AE94">
-        <v>1.18</v>
-      </c>
-      <c r="AF94">
-        <v>4.65</v>
-      </c>
-      <c r="AG94">
-        <v>1.56</v>
-      </c>
-      <c r="AH94">
-        <v>2.22</v>
-      </c>
-      <c r="AI94">
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>9</v>
+      </c>
+      <c r="BD94">
         <v>1.67</v>
       </c>
-      <c r="AJ94">
-        <v>2.1</v>
-      </c>
-      <c r="AK94">
-        <v>1.14</v>
-      </c>
-      <c r="AL94">
-        <v>1.18</v>
-      </c>
-      <c r="AM94">
+      <c r="BE94">
+        <v>6.75</v>
+      </c>
+      <c r="BF94">
+        <v>2.4</v>
+      </c>
+      <c r="BG94">
+        <v>1.15</v>
+      </c>
+      <c r="BH94">
+        <v>4.6</v>
+      </c>
+      <c r="BI94">
+        <v>1.26</v>
+      </c>
+      <c r="BJ94">
+        <v>3.4</v>
+      </c>
+      <c r="BK94">
+        <v>1.46</v>
+      </c>
+      <c r="BL94">
         <v>2.5</v>
       </c>
-      <c r="AN94">
-        <v>1.75</v>
-      </c>
-      <c r="AO94">
-        <v>2</v>
-      </c>
-      <c r="AP94">
-        <v>2.17</v>
-      </c>
-      <c r="AQ94">
-        <v>1.86</v>
-      </c>
-      <c r="AR94">
-        <v>1.67</v>
-      </c>
-      <c r="AS94">
-        <v>1.56</v>
-      </c>
-      <c r="AT94">
-        <v>3.23</v>
-      </c>
-      <c r="AU94">
-        <v>5</v>
-      </c>
-      <c r="AV94">
-        <v>6</v>
-      </c>
-      <c r="AW94">
-        <v>7</v>
-      </c>
-      <c r="AX94">
-        <v>3</v>
-      </c>
-      <c r="AY94">
-        <v>17</v>
-      </c>
-      <c r="AZ94">
-        <v>10</v>
-      </c>
-      <c r="BA94">
-        <v>10</v>
-      </c>
-      <c r="BB94">
-        <v>0</v>
-      </c>
-      <c r="BC94">
-        <v>10</v>
-      </c>
-      <c r="BD94">
-        <v>1.38</v>
-      </c>
-      <c r="BE94">
-        <v>7</v>
-      </c>
-      <c r="BF94">
-        <v>3.4</v>
-      </c>
-      <c r="BG94">
-        <v>1.23</v>
-      </c>
-      <c r="BH94">
-        <v>3.65</v>
-      </c>
-      <c r="BI94">
-        <v>1.41</v>
-      </c>
-      <c r="BJ94">
-        <v>2.65</v>
-      </c>
-      <c r="BK94">
-        <v>1.66</v>
-      </c>
-      <c r="BL94">
-        <v>2.06</v>
-      </c>
       <c r="BM94">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="BN94">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BO94">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="BP94">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20446,7 +20446,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7466147</v>
+        <v>7466143</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20458,19 +20458,19 @@
         <v>45598.70833333334</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -20479,172 +20479,172 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O95" t="s">
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="Q95">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R95">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S95">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T95">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U95">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W95">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X95">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y95">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z95">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="AA95">
-        <v>3.33</v>
+        <v>3.77</v>
       </c>
       <c r="AB95">
-        <v>3.05</v>
+        <v>5.84</v>
       </c>
       <c r="AC95">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD95">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE95">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF95">
-        <v>3.92</v>
+        <v>4.65</v>
       </c>
       <c r="AG95">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AH95">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="AI95">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ95">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK95">
+        <v>1.14</v>
+      </c>
+      <c r="AL95">
+        <v>1.18</v>
+      </c>
+      <c r="AM95">
+        <v>2.5</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>2</v>
+      </c>
+      <c r="AP95">
+        <v>2.17</v>
+      </c>
+      <c r="AQ95">
+        <v>1.86</v>
+      </c>
+      <c r="AR95">
+        <v>1.67</v>
+      </c>
+      <c r="AS95">
+        <v>1.56</v>
+      </c>
+      <c r="AT95">
+        <v>3.23</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>10</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
         <v>1.38</v>
       </c>
-      <c r="AL95">
-        <v>1.25</v>
-      </c>
-      <c r="AM95">
-        <v>1.7</v>
-      </c>
-      <c r="AN95">
-        <v>1.8</v>
-      </c>
-      <c r="AO95">
-        <v>0</v>
-      </c>
-      <c r="AP95">
-        <v>1.71</v>
-      </c>
-      <c r="AQ95">
-        <v>0</v>
-      </c>
-      <c r="AR95">
-        <v>1.29</v>
-      </c>
-      <c r="AS95">
-        <v>1.21</v>
-      </c>
-      <c r="AT95">
-        <v>2.5</v>
-      </c>
-      <c r="AU95">
-        <v>4</v>
-      </c>
-      <c r="AV95">
-        <v>3</v>
-      </c>
-      <c r="AW95">
-        <v>2</v>
-      </c>
-      <c r="AX95">
-        <v>4</v>
-      </c>
-      <c r="AY95">
+      <c r="BE95">
         <v>7</v>
       </c>
-      <c r="AZ95">
-        <v>12</v>
-      </c>
-      <c r="BA95">
-        <v>1</v>
-      </c>
-      <c r="BB95">
-        <v>8</v>
-      </c>
-      <c r="BC95">
-        <v>9</v>
-      </c>
-      <c r="BD95">
+      <c r="BF95">
+        <v>3.4</v>
+      </c>
+      <c r="BG95">
+        <v>1.23</v>
+      </c>
+      <c r="BH95">
+        <v>3.65</v>
+      </c>
+      <c r="BI95">
+        <v>1.41</v>
+      </c>
+      <c r="BJ95">
+        <v>2.65</v>
+      </c>
+      <c r="BK95">
+        <v>1.66</v>
+      </c>
+      <c r="BL95">
+        <v>2.06</v>
+      </c>
+      <c r="BM95">
+        <v>2.04</v>
+      </c>
+      <c r="BN95">
         <v>1.67</v>
       </c>
-      <c r="BE95">
-        <v>6.75</v>
-      </c>
-      <c r="BF95">
-        <v>2.4</v>
-      </c>
-      <c r="BG95">
-        <v>1.15</v>
-      </c>
-      <c r="BH95">
-        <v>4.6</v>
-      </c>
-      <c r="BI95">
-        <v>1.26</v>
-      </c>
-      <c r="BJ95">
-        <v>3.4</v>
-      </c>
-      <c r="BK95">
-        <v>1.46</v>
-      </c>
-      <c r="BL95">
-        <v>2.5</v>
-      </c>
-      <c r="BM95">
-        <v>1.72</v>
-      </c>
-      <c r="BN95">
-        <v>1.98</v>
-      </c>
       <c r="BO95">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BP95">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -23339,7 +23339,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45618.875</v>
+        <v>45619.52083333334</v>
       </c>
       <c r="F109">
         <v>13</v>
@@ -23465,22 +23465,22 @@
         <v>2.76</v>
       </c>
       <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>15</v>
+      </c>
+      <c r="AX109">
         <v>11</v>
       </c>
-      <c r="AV109">
-        <v>2</v>
-      </c>
-      <c r="AW109">
-        <v>6</v>
-      </c>
-      <c r="AX109">
-        <v>4</v>
-      </c>
       <c r="AY109">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ109">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA109">
         <v>5</v>
@@ -24360,7 +24360,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7466169</v>
+        <v>7466166</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24369,196 +24369,196 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45619.875</v>
+        <v>45620.34375</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H114" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="Q114">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="R114">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="S114">
+        <v>3.25</v>
+      </c>
+      <c r="T114">
+        <v>1.4</v>
+      </c>
+      <c r="U114">
+        <v>2.75</v>
+      </c>
+      <c r="V114">
+        <v>2.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>1.08</v>
+      </c>
+      <c r="Z114">
+        <v>2.44</v>
+      </c>
+      <c r="AA114">
+        <v>3.35</v>
+      </c>
+      <c r="AB114">
+        <v>2.68</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
         <v>11</v>
       </c>
-      <c r="T114">
-        <v>1.2</v>
-      </c>
-      <c r="U114">
-        <v>4.33</v>
-      </c>
-      <c r="V114">
+      <c r="AE114">
+        <v>1.28</v>
+      </c>
+      <c r="AF114">
+        <v>3.52</v>
+      </c>
+      <c r="AG114">
         <v>1.91</v>
       </c>
-      <c r="W114">
-        <v>1.8</v>
-      </c>
-      <c r="X114">
-        <v>4</v>
-      </c>
-      <c r="Y114">
-        <v>1.22</v>
-      </c>
-      <c r="Z114">
-        <v>1.15</v>
-      </c>
-      <c r="AA114">
-        <v>6.7</v>
-      </c>
-      <c r="AB114">
-        <v>11</v>
-      </c>
-      <c r="AC114">
-        <v>1.04</v>
-      </c>
-      <c r="AD114">
-        <v>10</v>
-      </c>
-      <c r="AE114">
-        <v>1.08</v>
-      </c>
-      <c r="AF114">
-        <v>7.29</v>
-      </c>
-      <c r="AG114">
-        <v>1.41</v>
-      </c>
       <c r="AH114">
-        <v>2.78</v>
+        <v>1.95</v>
       </c>
       <c r="AI114">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AJ114">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AK114">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="AL114">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AM114">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="AN114">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO114">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="AQ114">
-        <v>0.43</v>
+        <v>2.67</v>
       </c>
       <c r="AR114">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="AS114">
-        <v>0.84</v>
+        <v>1.21</v>
       </c>
       <c r="AT114">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AU114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV114">
         <v>7</v>
       </c>
       <c r="AW114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>20</v>
+      </c>
+      <c r="AZ114">
+        <v>12</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
         <v>5</v>
       </c>
-      <c r="AY114">
-        <v>7</v>
-      </c>
-      <c r="AZ114">
-        <v>14</v>
-      </c>
-      <c r="BA114">
-        <v>7</v>
-      </c>
-      <c r="BB114">
-        <v>0</v>
-      </c>
       <c r="BC114">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD114">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="BE114">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="BF114">
-        <v>14.5</v>
+        <v>2.15</v>
       </c>
       <c r="BG114">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="BH114">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BI114">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="BJ114">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="BK114">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="BL114">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BM114">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="BN114">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="BO114">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BP114">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24566,7 +24566,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7466166</v>
+        <v>7466167</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24575,25 +24575,25 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45620.34375</v>
+        <v>45620.4375</v>
       </c>
       <c r="F115">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H115" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -24605,25 +24605,25 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q115">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R115">
         <v>2.2</v>
       </c>
       <c r="S115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V115">
         <v>2.75</v>
@@ -24632,37 +24632,37 @@
         <v>1.4</v>
       </c>
       <c r="X115">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y115">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z115">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="AA115">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AB115">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="AC115">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD115">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE115">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AF115">
-        <v>3.52</v>
+        <v>3.89</v>
       </c>
       <c r="AG115">
+        <v>1.8</v>
+      </c>
+      <c r="AH115">
         <v>1.91</v>
-      </c>
-      <c r="AH115">
-        <v>1.95</v>
       </c>
       <c r="AI115">
         <v>1.67</v>
@@ -24671,82 +24671,82 @@
         <v>2.1</v>
       </c>
       <c r="AK115">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="AL115">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM115">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AN115">
+        <v>0.67</v>
+      </c>
+      <c r="AO115">
         <v>1.67</v>
       </c>
-      <c r="AO115">
-        <v>2.6</v>
-      </c>
       <c r="AP115">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="AQ115">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS115">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="AU115">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW115">
         <v>6</v>
       </c>
       <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>7</v>
+      </c>
+      <c r="BD115">
+        <v>2.55</v>
+      </c>
+      <c r="BE115">
+        <v>7</v>
+      </c>
+      <c r="BF115">
+        <v>1.68</v>
+      </c>
+      <c r="BG115">
+        <v>1.2</v>
+      </c>
+      <c r="BH115">
         <v>4</v>
       </c>
-      <c r="AY115">
-        <v>20</v>
-      </c>
-      <c r="AZ115">
-        <v>12</v>
-      </c>
-      <c r="BA115">
-        <v>8</v>
-      </c>
-      <c r="BB115">
-        <v>5</v>
-      </c>
-      <c r="BC115">
-        <v>13</v>
-      </c>
-      <c r="BD115">
-        <v>2.02</v>
-      </c>
-      <c r="BE115">
-        <v>5.9</v>
-      </c>
-      <c r="BF115">
-        <v>2.15</v>
-      </c>
-      <c r="BG115">
-        <v>1.21</v>
-      </c>
-      <c r="BH115">
-        <v>3.9</v>
-      </c>
       <c r="BI115">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BJ115">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK115">
         <v>1.72</v>
@@ -24761,7 +24761,7 @@
         <v>1.55</v>
       </c>
       <c r="BO115">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BP115">
         <v>1.32</v>
@@ -24772,7 +24772,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7466167</v>
+        <v>7466168</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24784,193 +24784,193 @@
         <v>45620.4375</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116">
         <v>2</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O116" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R116">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="T116">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U116">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V116">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W116">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y116">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z116">
+        <v>2.06</v>
+      </c>
+      <c r="AA116">
         <v>3.2</v>
       </c>
-      <c r="AA116">
+      <c r="AB116">
         <v>3.5</v>
       </c>
-      <c r="AB116">
-        <v>2.03</v>
-      </c>
       <c r="AC116">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD116">
-        <v>13</v>
+        <v>7.61</v>
       </c>
       <c r="AE116">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AF116">
-        <v>3.89</v>
+        <v>2.76</v>
       </c>
       <c r="AG116">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AH116">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AI116">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AJ116">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AK116">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AL116">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AM116">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AN116">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO116">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP116">
+        <v>1.14</v>
+      </c>
+      <c r="AQ116">
         <v>0.57</v>
       </c>
-      <c r="AQ116">
-        <v>1.86</v>
-      </c>
       <c r="AR116">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AT116">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AU116">
         <v>5</v>
       </c>
       <c r="AV116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY116">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA116">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD116">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="BE116">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="BF116">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="BG116">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH116">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="BI116">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BJ116">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="BK116">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="BL116">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BM116">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="BN116">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BO116">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP116">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -24978,7 +24978,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7466168</v>
+        <v>7466169</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24987,22 +24987,22 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45620.4375</v>
+        <v>45620.53125</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H117" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -25011,70 +25011,70 @@
         <v>2</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O117" t="s">
         <v>174</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="Q117">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="S117">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="T117">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="U117">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="V117">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="W117">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="X117">
+        <v>4</v>
+      </c>
+      <c r="Y117">
+        <v>1.22</v>
+      </c>
+      <c r="Z117">
+        <v>1.15</v>
+      </c>
+      <c r="AA117">
+        <v>6.7</v>
+      </c>
+      <c r="AB117">
+        <v>11</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
         <v>10</v>
       </c>
-      <c r="Y117">
-        <v>1.06</v>
-      </c>
-      <c r="Z117">
-        <v>2.06</v>
-      </c>
-      <c r="AA117">
-        <v>3.2</v>
-      </c>
-      <c r="AB117">
-        <v>3.5</v>
-      </c>
-      <c r="AC117">
-        <v>1.07</v>
-      </c>
-      <c r="AD117">
-        <v>7.61</v>
-      </c>
       <c r="AE117">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AF117">
-        <v>2.76</v>
+        <v>7.29</v>
       </c>
       <c r="AG117">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="AH117">
-        <v>1.57</v>
+        <v>2.78</v>
       </c>
       <c r="AI117">
         <v>2</v>
@@ -25083,100 +25083,100 @@
         <v>1.75</v>
       </c>
       <c r="AK117">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="AL117">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AM117">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="AN117">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="AO117">
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="AQ117">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AR117">
-        <v>1.02</v>
+        <v>2.01</v>
       </c>
       <c r="AS117">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AT117">
-        <v>1.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
         <v>8</v>
       </c>
-      <c r="AX117">
-        <v>5</v>
-      </c>
       <c r="AY117">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AZ117">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB117">
         <v>0</v>
       </c>
       <c r="BC117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD117">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="BE117">
-        <v>6.1</v>
+        <v>14</v>
       </c>
       <c r="BF117">
-        <v>2.82</v>
+        <v>14.5</v>
       </c>
       <c r="BG117">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BH117">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BI117">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BJ117">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="BK117">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="BL117">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="BM117">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="BN117">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="BO117">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="BP117">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>['27', '63']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['32', '59']</t>
   </si>
   <si>
     <t>['8', '54']</t>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>0.57</v>
@@ -1614,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1751,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1948,7 +1957,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2154,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2235,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2853,7 +2862,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3265,7 +3274,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3468,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12">
         <v>2.67</v>
@@ -3677,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4008,7 +4017,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4214,7 +4223,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4420,7 +4429,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4498,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>2.14</v>
@@ -4910,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ19">
         <v>1.83</v>
@@ -5244,7 +5253,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5450,7 +5459,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5528,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22">
         <v>2.67</v>
@@ -5734,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -5943,7 +5952,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6068,7 +6077,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6355,7 +6364,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6480,7 +6489,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6892,7 +6901,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7176,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
         <v>0.57</v>
@@ -7304,7 +7313,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7385,7 +7394,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -7510,7 +7519,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7794,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8540,7 +8549,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8618,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -8824,10 +8833,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -8952,7 +8961,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9158,7 +9167,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9445,7 +9454,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9651,7 +9660,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10063,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR44">
         <v>1.45</v>
@@ -10188,7 +10197,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10266,7 +10275,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10394,7 +10403,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10475,7 +10484,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -10600,7 +10609,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10681,7 +10690,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10806,7 +10815,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11012,7 +11021,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11218,7 +11227,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11296,7 +11305,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>0.57</v>
@@ -11424,7 +11433,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11708,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -11836,7 +11845,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12042,7 +12051,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12248,7 +12257,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12454,7 +12463,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12741,7 +12750,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -12944,10 +12953,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13356,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
         <v>1.17</v>
@@ -13484,7 +13493,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13690,7 +13699,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13977,7 +13986,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -14180,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14389,7 +14398,7 @@
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -14514,7 +14523,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14595,7 +14604,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR66">
         <v>1.08</v>
@@ -14720,7 +14729,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15004,7 +15013,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.86</v>
@@ -15210,7 +15219,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
         <v>0.43</v>
@@ -15338,7 +15347,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15750,7 +15759,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15831,7 +15840,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ72">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -15956,7 +15965,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16368,7 +16377,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16574,7 +16583,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16861,7 +16870,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -16986,7 +16995,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17192,7 +17201,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17270,7 +17279,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
         <v>2.67</v>
@@ -17398,7 +17407,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17476,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
         <v>0.57</v>
@@ -18222,7 +18231,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18300,10 +18309,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ84">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18506,10 +18515,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.93</v>
@@ -18634,7 +18643,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19127,7 +19136,7 @@
         <v>3</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -19252,7 +19261,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19458,7 +19467,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19536,7 +19545,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.83</v>
@@ -19664,7 +19673,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20076,7 +20085,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20488,7 +20497,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20566,7 +20575,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.86</v>
@@ -20694,7 +20703,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21106,7 +21115,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21393,7 +21402,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21802,10 +21811,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22008,10 +22017,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22136,7 +22145,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22214,7 +22223,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ103">
         <v>2.57</v>
@@ -22342,7 +22351,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22548,7 +22557,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22754,7 +22763,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23038,7 +23047,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ107">
         <v>1.17</v>
@@ -23166,7 +23175,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23247,7 +23256,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -23453,7 +23462,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ109">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23656,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>0</v>
@@ -23784,7 +23793,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23865,7 +23874,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24196,7 +24205,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24402,7 +24411,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24608,7 +24617,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24814,7 +24823,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25177,6 +25186,1036 @@
       </c>
       <c r="BP117">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7466170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45625.66666666666</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s">
+        <v>83</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>175</v>
+      </c>
+      <c r="P118" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q118">
+        <v>2.05</v>
+      </c>
+      <c r="R118">
+        <v>2.5</v>
+      </c>
+      <c r="S118">
+        <v>5.5</v>
+      </c>
+      <c r="T118">
+        <v>1.29</v>
+      </c>
+      <c r="U118">
+        <v>3.5</v>
+      </c>
+      <c r="V118">
+        <v>2.38</v>
+      </c>
+      <c r="W118">
+        <v>1.53</v>
+      </c>
+      <c r="X118">
+        <v>6</v>
+      </c>
+      <c r="Y118">
+        <v>1.13</v>
+      </c>
+      <c r="Z118">
+        <v>1.68</v>
+      </c>
+      <c r="AA118">
+        <v>3.53</v>
+      </c>
+      <c r="AB118">
+        <v>4.52</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>17</v>
+      </c>
+      <c r="AE118">
+        <v>1.18</v>
+      </c>
+      <c r="AF118">
+        <v>4.65</v>
+      </c>
+      <c r="AG118">
+        <v>1.62</v>
+      </c>
+      <c r="AH118">
+        <v>2.07</v>
+      </c>
+      <c r="AI118">
+        <v>1.67</v>
+      </c>
+      <c r="AJ118">
+        <v>2.1</v>
+      </c>
+      <c r="AK118">
+        <v>1.14</v>
+      </c>
+      <c r="AL118">
+        <v>1.18</v>
+      </c>
+      <c r="AM118">
+        <v>2.5</v>
+      </c>
+      <c r="AN118">
+        <v>2.33</v>
+      </c>
+      <c r="AO118">
+        <v>0.17</v>
+      </c>
+      <c r="AP118">
+        <v>2.14</v>
+      </c>
+      <c r="AQ118">
+        <v>0.29</v>
+      </c>
+      <c r="AR118">
+        <v>1.65</v>
+      </c>
+      <c r="AS118">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT118">
+        <v>2.46</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
+        <v>5</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+      <c r="AY118">
+        <v>14</v>
+      </c>
+      <c r="AZ118">
+        <v>14</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>6</v>
+      </c>
+      <c r="BD118">
+        <v>1.16</v>
+      </c>
+      <c r="BE118">
+        <v>9.5</v>
+      </c>
+      <c r="BF118">
+        <v>5.4</v>
+      </c>
+      <c r="BG118">
+        <v>1.23</v>
+      </c>
+      <c r="BH118">
+        <v>3.65</v>
+      </c>
+      <c r="BI118">
+        <v>1.41</v>
+      </c>
+      <c r="BJ118">
+        <v>2.65</v>
+      </c>
+      <c r="BK118">
+        <v>1.66</v>
+      </c>
+      <c r="BL118">
+        <v>2.06</v>
+      </c>
+      <c r="BM118">
+        <v>2</v>
+      </c>
+      <c r="BN118">
+        <v>1.8</v>
+      </c>
+      <c r="BO118">
+        <v>2.55</v>
+      </c>
+      <c r="BP118">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7466171</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>87</v>
+      </c>
+      <c r="H119" t="s">
+        <v>73</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>176</v>
+      </c>
+      <c r="P119" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q119">
+        <v>2.63</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>4.33</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.37</v>
+      </c>
+      <c r="AA119">
+        <v>3.5</v>
+      </c>
+      <c r="AB119">
+        <v>2.87</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE119">
+        <v>1.31</v>
+      </c>
+      <c r="AF119">
+        <v>3.32</v>
+      </c>
+      <c r="AG119">
+        <v>1.9</v>
+      </c>
+      <c r="AH119">
+        <v>1.78</v>
+      </c>
+      <c r="AI119">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>1.28</v>
+      </c>
+      <c r="AL119">
+        <v>1.26</v>
+      </c>
+      <c r="AM119">
+        <v>1.83</v>
+      </c>
+      <c r="AN119">
+        <v>2</v>
+      </c>
+      <c r="AO119">
+        <v>0.33</v>
+      </c>
+      <c r="AP119">
+        <v>2.14</v>
+      </c>
+      <c r="AQ119">
+        <v>0.29</v>
+      </c>
+      <c r="AR119">
+        <v>1.34</v>
+      </c>
+      <c r="AS119">
+        <v>1.18</v>
+      </c>
+      <c r="AT119">
+        <v>2.52</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>4</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>1.65</v>
+      </c>
+      <c r="BE119">
+        <v>6.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.48</v>
+      </c>
+      <c r="BG119">
+        <v>1.2</v>
+      </c>
+      <c r="BH119">
+        <v>4.2</v>
+      </c>
+      <c r="BI119">
+        <v>1.37</v>
+      </c>
+      <c r="BJ119">
+        <v>2.93</v>
+      </c>
+      <c r="BK119">
+        <v>1.63</v>
+      </c>
+      <c r="BL119">
+        <v>2.19</v>
+      </c>
+      <c r="BM119">
+        <v>2.02</v>
+      </c>
+      <c r="BN119">
+        <v>1.74</v>
+      </c>
+      <c r="BO119">
+        <v>2.6</v>
+      </c>
+      <c r="BP119">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7466172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45626.61458333334</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>86</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>177</v>
+      </c>
+      <c r="P120" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q120">
+        <v>2.88</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>4.33</v>
+      </c>
+      <c r="T120">
+        <v>1.5</v>
+      </c>
+      <c r="U120">
+        <v>2.5</v>
+      </c>
+      <c r="V120">
+        <v>3.5</v>
+      </c>
+      <c r="W120">
+        <v>1.29</v>
+      </c>
+      <c r="X120">
+        <v>11</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>2.08</v>
+      </c>
+      <c r="AA120">
+        <v>3</v>
+      </c>
+      <c r="AB120">
+        <v>3.19</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8.91</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3.04</v>
+      </c>
+      <c r="AG120">
+        <v>2</v>
+      </c>
+      <c r="AH120">
+        <v>1.7</v>
+      </c>
+      <c r="AI120">
+        <v>2.05</v>
+      </c>
+      <c r="AJ120">
+        <v>1.7</v>
+      </c>
+      <c r="AK120">
+        <v>1.3</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.75</v>
+      </c>
+      <c r="AN120">
+        <v>1.33</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.57</v>
+      </c>
+      <c r="AQ120">
+        <v>1.14</v>
+      </c>
+      <c r="AR120">
+        <v>1.14</v>
+      </c>
+      <c r="AS120">
+        <v>0.77</v>
+      </c>
+      <c r="AT120">
+        <v>1.91</v>
+      </c>
+      <c r="AU120">
+        <v>8</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>15</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>4</v>
+      </c>
+      <c r="BD120">
+        <v>1.55</v>
+      </c>
+      <c r="BE120">
+        <v>7</v>
+      </c>
+      <c r="BF120">
+        <v>2.65</v>
+      </c>
+      <c r="BG120">
+        <v>1.2</v>
+      </c>
+      <c r="BH120">
+        <v>4.2</v>
+      </c>
+      <c r="BI120">
+        <v>1.37</v>
+      </c>
+      <c r="BJ120">
+        <v>2.93</v>
+      </c>
+      <c r="BK120">
+        <v>1.63</v>
+      </c>
+      <c r="BL120">
+        <v>2.19</v>
+      </c>
+      <c r="BM120">
+        <v>2.02</v>
+      </c>
+      <c r="BN120">
+        <v>1.74</v>
+      </c>
+      <c r="BO120">
+        <v>2.6</v>
+      </c>
+      <c r="BP120">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7466173</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45626.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>134</v>
+      </c>
+      <c r="P121" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q121">
+        <v>1.73</v>
+      </c>
+      <c r="R121">
+        <v>2.6</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.4</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.13</v>
+      </c>
+      <c r="Z121">
+        <v>1.28</v>
+      </c>
+      <c r="AA121">
+        <v>5</v>
+      </c>
+      <c r="AB121">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>17</v>
+      </c>
+      <c r="AE121">
+        <v>1.19</v>
+      </c>
+      <c r="AF121">
+        <v>4.45</v>
+      </c>
+      <c r="AG121">
+        <v>1.62</v>
+      </c>
+      <c r="AH121">
+        <v>2.15</v>
+      </c>
+      <c r="AI121">
+        <v>2.1</v>
+      </c>
+      <c r="AJ121">
+        <v>1.67</v>
+      </c>
+      <c r="AK121">
+        <v>1.02</v>
+      </c>
+      <c r="AL121">
+        <v>1.11</v>
+      </c>
+      <c r="AM121">
+        <v>3.75</v>
+      </c>
+      <c r="AN121">
+        <v>2.17</v>
+      </c>
+      <c r="AO121">
+        <v>0.83</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>0.86</v>
+      </c>
+      <c r="AR121">
+        <v>1.62</v>
+      </c>
+      <c r="AS121">
+        <v>1.15</v>
+      </c>
+      <c r="AT121">
+        <v>2.77</v>
+      </c>
+      <c r="AU121">
+        <v>11</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>9</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>24</v>
+      </c>
+      <c r="AZ121">
+        <v>9</v>
+      </c>
+      <c r="BA121">
+        <v>9</v>
+      </c>
+      <c r="BB121">
+        <v>1</v>
+      </c>
+      <c r="BC121">
+        <v>10</v>
+      </c>
+      <c r="BD121">
+        <v>1.21</v>
+      </c>
+      <c r="BE121">
+        <v>9</v>
+      </c>
+      <c r="BF121">
+        <v>4.8</v>
+      </c>
+      <c r="BG121">
+        <v>1.22</v>
+      </c>
+      <c r="BH121">
+        <v>3.7</v>
+      </c>
+      <c r="BI121">
+        <v>1.38</v>
+      </c>
+      <c r="BJ121">
+        <v>2.7</v>
+      </c>
+      <c r="BK121">
+        <v>1.7</v>
+      </c>
+      <c r="BL121">
+        <v>2.05</v>
+      </c>
+      <c r="BM121">
+        <v>1.98</v>
+      </c>
+      <c r="BN121">
+        <v>1.72</v>
+      </c>
+      <c r="BO121">
+        <v>2.48</v>
+      </c>
+      <c r="BP121">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7466174</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>85</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>103</v>
+      </c>
+      <c r="P122" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q122">
+        <v>3.4</v>
+      </c>
+      <c r="R122">
+        <v>2.2</v>
+      </c>
+      <c r="S122">
+        <v>3.1</v>
+      </c>
+      <c r="T122">
+        <v>1.36</v>
+      </c>
+      <c r="U122">
+        <v>3</v>
+      </c>
+      <c r="V122">
+        <v>2.75</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>7</v>
+      </c>
+      <c r="Y122">
+        <v>1.1</v>
+      </c>
+      <c r="Z122">
+        <v>2.64</v>
+      </c>
+      <c r="AA122">
+        <v>3.22</v>
+      </c>
+      <c r="AB122">
+        <v>2.43</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>13</v>
+      </c>
+      <c r="AE122">
+        <v>1.26</v>
+      </c>
+      <c r="AF122">
+        <v>3.67</v>
+      </c>
+      <c r="AG122">
+        <v>1.88</v>
+      </c>
+      <c r="AH122">
+        <v>2</v>
+      </c>
+      <c r="AI122">
+        <v>1.67</v>
+      </c>
+      <c r="AJ122">
+        <v>2.1</v>
+      </c>
+      <c r="AK122">
+        <v>1.58</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.48</v>
+      </c>
+      <c r="AN122">
+        <v>1.5</v>
+      </c>
+      <c r="AO122">
+        <v>1.17</v>
+      </c>
+      <c r="AP122">
+        <v>1.71</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.18</v>
+      </c>
+      <c r="AS122">
+        <v>1.26</v>
+      </c>
+      <c r="AT122">
+        <v>2.44</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>11</v>
+      </c>
+      <c r="AZ122">
+        <v>14</v>
+      </c>
+      <c r="BA122">
+        <v>3</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>10</v>
+      </c>
+      <c r="BD122">
+        <v>2.05</v>
+      </c>
+      <c r="BE122">
+        <v>6.4</v>
+      </c>
+      <c r="BF122">
+        <v>1.95</v>
+      </c>
+      <c r="BG122">
+        <v>1.2</v>
+      </c>
+      <c r="BH122">
+        <v>4.2</v>
+      </c>
+      <c r="BI122">
+        <v>1.37</v>
+      </c>
+      <c r="BJ122">
+        <v>2.93</v>
+      </c>
+      <c r="BK122">
+        <v>1.63</v>
+      </c>
+      <c r="BL122">
+        <v>2.19</v>
+      </c>
+      <c r="BM122">
+        <v>2.02</v>
+      </c>
+      <c r="BN122">
+        <v>1.74</v>
+      </c>
+      <c r="BO122">
+        <v>2.6</v>
+      </c>
+      <c r="BP122">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,15 @@
     <t>['32', '59']</t>
   </si>
   <si>
+    <t>['34', '88']</t>
+  </si>
+  <si>
+    <t>['44', '72', '81']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -719,6 +728,15 @@
   </si>
   <si>
     <t>['31', '53']</t>
+  </si>
+  <si>
+    <t>['12', '54', '70', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['24', '33']</t>
+  </si>
+  <si>
+    <t>['15', '48']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1751,7 +1769,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1829,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
         <v>1.86</v>
@@ -1957,7 +1975,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2163,7 +2181,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2450,7 +2468,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2653,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ8">
         <v>0.43</v>
@@ -2781,7 +2799,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3683,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3889,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4017,7 +4035,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4223,7 +4241,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4304,7 +4322,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4429,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4716,7 +4734,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4922,7 +4940,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5125,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>0.43</v>
@@ -5253,7 +5271,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5334,7 +5352,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR21">
         <v>0.96</v>
@@ -5459,7 +5477,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6077,7 +6095,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6489,7 +6507,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6901,7 +6919,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7313,7 +7331,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7519,7 +7537,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7597,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ32">
         <v>1.86</v>
@@ -7806,7 +7824,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -8012,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -8421,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>0.43</v>
@@ -8549,7 +8567,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8961,7 +8979,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9039,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9167,7 +9185,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9248,7 +9266,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.21</v>
@@ -9863,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -10197,7 +10215,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10403,7 +10421,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10481,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10609,7 +10627,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10815,7 +10833,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10896,7 +10914,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11021,7 +11039,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11099,10 +11117,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11227,7 +11245,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11433,7 +11451,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11845,7 +11863,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11926,7 +11944,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12051,7 +12069,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12257,7 +12275,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12338,7 +12356,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR55">
         <v>1.25</v>
@@ -12463,7 +12481,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12541,7 +12559,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>2.14</v>
@@ -13159,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ59">
         <v>0.57</v>
@@ -13368,7 +13386,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -13493,7 +13511,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13574,7 +13592,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13699,7 +13717,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13777,7 +13795,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ62">
         <v>2.67</v>
@@ -14523,7 +14541,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14601,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66">
         <v>0.29</v>
@@ -14729,7 +14747,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14810,7 +14828,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15347,7 +15365,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15759,7 +15777,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15965,7 +15983,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16043,10 +16061,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR73">
         <v>2.44</v>
@@ -16249,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ74">
         <v>0</v>
@@ -16377,7 +16395,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16583,7 +16601,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16995,7 +17013,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17076,7 +17094,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17201,7 +17219,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17407,7 +17425,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18231,7 +18249,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18643,7 +18661,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18721,7 +18739,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ86">
         <v>2.14</v>
@@ -18927,10 +18945,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19261,7 +19279,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19339,10 +19357,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>2.01</v>
@@ -19467,7 +19485,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19548,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -19673,7 +19691,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20085,7 +20103,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20166,7 +20184,7 @@
         <v>3</v>
       </c>
       <c r="AQ93">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR93">
         <v>2.04</v>
@@ -20497,7 +20515,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20703,7 +20721,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20987,7 +21005,7 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>0.57</v>
@@ -21115,7 +21133,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21605,10 +21623,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22145,7 +22163,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22226,7 +22244,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR103">
         <v>1.38</v>
@@ -22351,7 +22369,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22557,7 +22575,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22763,7 +22781,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -22841,10 +22859,10 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ106">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>2.03</v>
@@ -23050,7 +23068,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ107">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.85</v>
@@ -23175,7 +23193,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23253,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ108">
         <v>1.14</v>
@@ -23793,7 +23811,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24205,7 +24223,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24411,7 +24429,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24489,7 +24507,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
         <v>2.67</v>
@@ -24617,7 +24635,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24823,7 +24841,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -26216,6 +26234,830 @@
       </c>
       <c r="BP122">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7466175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45627.34375</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s">
+        <v>74</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+      <c r="O123" t="s">
+        <v>178</v>
+      </c>
+      <c r="P123" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>2.5</v>
+      </c>
+      <c r="S123">
+        <v>2.05</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.25</v>
+      </c>
+      <c r="W123">
+        <v>1.57</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>5.23</v>
+      </c>
+      <c r="AA123">
+        <v>4.46</v>
+      </c>
+      <c r="AB123">
+        <v>1.53</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>19</v>
+      </c>
+      <c r="AE123">
+        <v>1.16</v>
+      </c>
+      <c r="AF123">
+        <v>4.87</v>
+      </c>
+      <c r="AG123">
+        <v>1.5</v>
+      </c>
+      <c r="AH123">
+        <v>2.6</v>
+      </c>
+      <c r="AI123">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>2.45</v>
+      </c>
+      <c r="AL123">
+        <v>1.17</v>
+      </c>
+      <c r="AM123">
+        <v>1.16</v>
+      </c>
+      <c r="AN123">
+        <v>2.5</v>
+      </c>
+      <c r="AO123">
+        <v>2.57</v>
+      </c>
+      <c r="AP123">
+        <v>2.14</v>
+      </c>
+      <c r="AQ123">
+        <v>2.63</v>
+      </c>
+      <c r="AR123">
+        <v>1.43</v>
+      </c>
+      <c r="AS123">
+        <v>1.89</v>
+      </c>
+      <c r="AT123">
+        <v>3.32</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>9</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
+        <v>14</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>2.8</v>
+      </c>
+      <c r="BE123">
+        <v>7</v>
+      </c>
+      <c r="BF123">
+        <v>1.49</v>
+      </c>
+      <c r="BG123">
+        <v>1.2</v>
+      </c>
+      <c r="BH123">
+        <v>3.9</v>
+      </c>
+      <c r="BI123">
+        <v>1.37</v>
+      </c>
+      <c r="BJ123">
+        <v>2.8</v>
+      </c>
+      <c r="BK123">
+        <v>1.61</v>
+      </c>
+      <c r="BL123">
+        <v>2.15</v>
+      </c>
+      <c r="BM123">
+        <v>1.95</v>
+      </c>
+      <c r="BN123">
+        <v>1.77</v>
+      </c>
+      <c r="BO123">
+        <v>2.48</v>
+      </c>
+      <c r="BP123">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7466177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>179</v>
+      </c>
+      <c r="P124" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q124">
+        <v>2.2</v>
+      </c>
+      <c r="R124">
+        <v>2.38</v>
+      </c>
+      <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.33</v>
+      </c>
+      <c r="U124">
+        <v>3.25</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>6.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.11</v>
+      </c>
+      <c r="Z124">
+        <v>1.57</v>
+      </c>
+      <c r="AA124">
+        <v>4.11</v>
+      </c>
+      <c r="AB124">
+        <v>5.36</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>15</v>
+      </c>
+      <c r="AE124">
+        <v>1.21</v>
+      </c>
+      <c r="AF124">
+        <v>4.25</v>
+      </c>
+      <c r="AG124">
+        <v>1.7</v>
+      </c>
+      <c r="AH124">
+        <v>2.05</v>
+      </c>
+      <c r="AI124">
+        <v>1.75</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>1.15</v>
+      </c>
+      <c r="AL124">
+        <v>1.19</v>
+      </c>
+      <c r="AM124">
+        <v>2.4</v>
+      </c>
+      <c r="AN124">
+        <v>2</v>
+      </c>
+      <c r="AO124">
+        <v>1.17</v>
+      </c>
+      <c r="AP124">
+        <v>2.14</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.98</v>
+      </c>
+      <c r="AS124">
+        <v>1.11</v>
+      </c>
+      <c r="AT124">
+        <v>3.09</v>
+      </c>
+      <c r="AU124">
+        <v>9</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>27</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
+        <v>12</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>12</v>
+      </c>
+      <c r="BD124">
+        <v>1.42</v>
+      </c>
+      <c r="BE124">
+        <v>7</v>
+      </c>
+      <c r="BF124">
+        <v>3.15</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>4.2</v>
+      </c>
+      <c r="BI124">
+        <v>1.37</v>
+      </c>
+      <c r="BJ124">
+        <v>2.93</v>
+      </c>
+      <c r="BK124">
+        <v>1.63</v>
+      </c>
+      <c r="BL124">
+        <v>2.19</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.74</v>
+      </c>
+      <c r="BO124">
+        <v>2.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7466176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45627.4375</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>98</v>
+      </c>
+      <c r="P125" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2.6</v>
+      </c>
+      <c r="S125">
+        <v>7.5</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
+        <v>2.38</v>
+      </c>
+      <c r="W125">
+        <v>1.53</v>
+      </c>
+      <c r="X125">
+        <v>5.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>1.31</v>
+      </c>
+      <c r="AA125">
+        <v>5.43</v>
+      </c>
+      <c r="AB125">
+        <v>8.19</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>19</v>
+      </c>
+      <c r="AE125">
+        <v>1.16</v>
+      </c>
+      <c r="AF125">
+        <v>4.87</v>
+      </c>
+      <c r="AG125">
+        <v>1.57</v>
+      </c>
+      <c r="AH125">
+        <v>2.25</v>
+      </c>
+      <c r="AI125">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.06</v>
+      </c>
+      <c r="AL125">
+        <v>1.12</v>
+      </c>
+      <c r="AM125">
+        <v>3.3</v>
+      </c>
+      <c r="AN125">
+        <v>1.17</v>
+      </c>
+      <c r="AO125">
+        <v>0.67</v>
+      </c>
+      <c r="AP125">
+        <v>1.43</v>
+      </c>
+      <c r="AQ125">
+        <v>0.57</v>
+      </c>
+      <c r="AR125">
+        <v>1.92</v>
+      </c>
+      <c r="AS125">
+        <v>0.96</v>
+      </c>
+      <c r="AT125">
+        <v>2.88</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>21</v>
+      </c>
+      <c r="AZ125">
+        <v>8</v>
+      </c>
+      <c r="BA125">
+        <v>8</v>
+      </c>
+      <c r="BB125">
+        <v>1</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.16</v>
+      </c>
+      <c r="BE125">
+        <v>9.5</v>
+      </c>
+      <c r="BF125">
+        <v>5.6</v>
+      </c>
+      <c r="BG125">
+        <v>1.21</v>
+      </c>
+      <c r="BH125">
+        <v>3.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.36</v>
+      </c>
+      <c r="BJ125">
+        <v>2.8</v>
+      </c>
+      <c r="BK125">
+        <v>1.58</v>
+      </c>
+      <c r="BL125">
+        <v>2.17</v>
+      </c>
+      <c r="BM125">
+        <v>2</v>
+      </c>
+      <c r="BN125">
+        <v>1.8</v>
+      </c>
+      <c r="BO125">
+        <v>2.4</v>
+      </c>
+      <c r="BP125">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7466178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45627.53125</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>78</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>180</v>
+      </c>
+      <c r="P126" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q126">
+        <v>4.75</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>2.3</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.5</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>4.33</v>
+      </c>
+      <c r="AA126">
+        <v>4</v>
+      </c>
+      <c r="AB126">
+        <v>1.7</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>15</v>
+      </c>
+      <c r="AE126">
+        <v>1.21</v>
+      </c>
+      <c r="AF126">
+        <v>4.25</v>
+      </c>
+      <c r="AG126">
+        <v>1.57</v>
+      </c>
+      <c r="AH126">
+        <v>2.25</v>
+      </c>
+      <c r="AI126">
+        <v>1.7</v>
+      </c>
+      <c r="AJ126">
+        <v>2.05</v>
+      </c>
+      <c r="AK126">
+        <v>2.15</v>
+      </c>
+      <c r="AL126">
+        <v>1.2</v>
+      </c>
+      <c r="AM126">
+        <v>1.22</v>
+      </c>
+      <c r="AN126">
+        <v>1.43</v>
+      </c>
+      <c r="AO126">
+        <v>1.83</v>
+      </c>
+      <c r="AP126">
+        <v>1.25</v>
+      </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>1.45</v>
+      </c>
+      <c r="AS126">
+        <v>1.41</v>
+      </c>
+      <c r="AT126">
+        <v>2.86</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>7</v>
+      </c>
+      <c r="AW126">
+        <v>8</v>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
+        <v>22</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>1</v>
+      </c>
+      <c r="BC126">
+        <v>8</v>
+      </c>
+      <c r="BD126">
+        <v>2.8</v>
+      </c>
+      <c r="BE126">
+        <v>6.75</v>
+      </c>
+      <c r="BF126">
+        <v>1.5</v>
+      </c>
+      <c r="BG126">
+        <v>1.22</v>
+      </c>
+      <c r="BH126">
+        <v>3.95</v>
+      </c>
+      <c r="BI126">
+        <v>1.41</v>
+      </c>
+      <c r="BJ126">
+        <v>2.78</v>
+      </c>
+      <c r="BK126">
+        <v>1.68</v>
+      </c>
+      <c r="BL126">
+        <v>2.1</v>
+      </c>
+      <c r="BM126">
+        <v>2.1</v>
+      </c>
+      <c r="BN126">
+        <v>1.68</v>
+      </c>
+      <c r="BO126">
+        <v>2.73</v>
+      </c>
+      <c r="BP126">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -550,10 +550,10 @@
     <t>['32', '59']</t>
   </si>
   <si>
-    <t>['34', '88']</t>
+    <t>['44', '72', '81']</t>
   </si>
   <si>
-    <t>['44', '72', '81']</t>
+    <t>['34', '88']</t>
   </si>
   <si>
     <t>['13']</t>
@@ -730,10 +730,10 @@
     <t>['31', '53']</t>
   </si>
   <si>
-    <t>['12', '54', '70', '74', '90+1']</t>
+    <t>['24', '33']</t>
   </si>
   <si>
-    <t>['24', '33']</t>
+    <t>['12', '54', '70', '74', '90+1']</t>
   </si>
   <si>
     <t>['15', '48']</t>
@@ -26241,7 +26241,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7466175</v>
+        <v>7466177</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26250,34 +26250,34 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45627.34375</v>
+        <v>45626.875</v>
       </c>
       <c r="F123">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
         <v>5</v>
-      </c>
-      <c r="N123">
-        <v>7</v>
       </c>
       <c r="O123" t="s">
         <v>178</v>
@@ -26286,160 +26286,160 @@
         <v>238</v>
       </c>
       <c r="Q123">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="R123">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S123">
+        <v>5.5</v>
+      </c>
+      <c r="T123">
+        <v>1.33</v>
+      </c>
+      <c r="U123">
+        <v>3.25</v>
+      </c>
+      <c r="V123">
+        <v>2.63</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>6.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.11</v>
+      </c>
+      <c r="Z123">
+        <v>1.57</v>
+      </c>
+      <c r="AA123">
+        <v>4.11</v>
+      </c>
+      <c r="AB123">
+        <v>5.36</v>
+      </c>
+      <c r="AC123">
+        <v>1.03</v>
+      </c>
+      <c r="AD123">
+        <v>15</v>
+      </c>
+      <c r="AE123">
+        <v>1.21</v>
+      </c>
+      <c r="AF123">
+        <v>4.25</v>
+      </c>
+      <c r="AG123">
+        <v>1.7</v>
+      </c>
+      <c r="AH123">
         <v>2.05</v>
       </c>
-      <c r="T123">
-        <v>1.29</v>
-      </c>
-      <c r="U123">
-        <v>3.5</v>
-      </c>
-      <c r="V123">
-        <v>2.25</v>
-      </c>
-      <c r="W123">
-        <v>1.57</v>
-      </c>
-      <c r="X123">
-        <v>5.5</v>
-      </c>
-      <c r="Y123">
-        <v>1.14</v>
-      </c>
-      <c r="Z123">
-        <v>5.23</v>
-      </c>
-      <c r="AA123">
-        <v>4.46</v>
-      </c>
-      <c r="AB123">
-        <v>1.53</v>
-      </c>
-      <c r="AC123">
-        <v>1.02</v>
-      </c>
-      <c r="AD123">
-        <v>19</v>
-      </c>
-      <c r="AE123">
-        <v>1.16</v>
-      </c>
-      <c r="AF123">
-        <v>4.87</v>
-      </c>
-      <c r="AG123">
-        <v>1.5</v>
-      </c>
-      <c r="AH123">
-        <v>2.6</v>
-      </c>
       <c r="AI123">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AJ123">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK123">
-        <v>2.45</v>
+        <v>1.15</v>
       </c>
       <c r="AL123">
+        <v>1.19</v>
+      </c>
+      <c r="AM123">
+        <v>2.4</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+      <c r="AO123">
         <v>1.17</v>
-      </c>
-      <c r="AM123">
-        <v>1.16</v>
-      </c>
-      <c r="AN123">
-        <v>2.5</v>
-      </c>
-      <c r="AO123">
-        <v>2.57</v>
       </c>
       <c r="AP123">
         <v>2.14</v>
       </c>
       <c r="AQ123">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="AR123">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AS123">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="AU123">
+        <v>9</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
         <v>4</v>
       </c>
-      <c r="AV123">
-        <v>9</v>
-      </c>
-      <c r="AW123">
-        <v>3</v>
-      </c>
-      <c r="AX123">
-        <v>3</v>
-      </c>
       <c r="AY123">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AZ123">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA123">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD123">
-        <v>2.8</v>
+        <v>1.42</v>
       </c>
       <c r="BE123">
         <v>7</v>
       </c>
       <c r="BF123">
-        <v>1.49</v>
+        <v>3.15</v>
       </c>
       <c r="BG123">
         <v>1.2</v>
       </c>
       <c r="BH123">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI123">
         <v>1.37</v>
       </c>
       <c r="BJ123">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="BK123">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BL123">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="BM123">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BN123">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BO123">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="BP123">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26447,7 +26447,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7466177</v>
+        <v>7466175</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26456,34 +26456,34 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45627.4375</v>
+        <v>45627.34375</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H124" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O124" t="s">
         <v>179</v>
@@ -26492,160 +26492,160 @@
         <v>239</v>
       </c>
       <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>2.5</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>1.29</v>
+      </c>
+      <c r="U124">
+        <v>3.5</v>
+      </c>
+      <c r="V124">
+        <v>2.25</v>
+      </c>
+      <c r="W124">
+        <v>1.57</v>
+      </c>
+      <c r="X124">
+        <v>5.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.14</v>
+      </c>
+      <c r="Z124">
+        <v>5.23</v>
+      </c>
+      <c r="AA124">
+        <v>4.46</v>
+      </c>
+      <c r="AB124">
+        <v>1.53</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>19</v>
+      </c>
+      <c r="AE124">
+        <v>1.16</v>
+      </c>
+      <c r="AF124">
+        <v>4.87</v>
+      </c>
+      <c r="AG124">
+        <v>1.5</v>
+      </c>
+      <c r="AH124">
+        <v>2.6</v>
+      </c>
+      <c r="AI124">
+        <v>1.62</v>
+      </c>
+      <c r="AJ124">
         <v>2.2</v>
       </c>
-      <c r="R124">
-        <v>2.38</v>
-      </c>
-      <c r="S124">
-        <v>5.5</v>
-      </c>
-      <c r="T124">
-        <v>1.33</v>
-      </c>
-      <c r="U124">
-        <v>3.25</v>
-      </c>
-      <c r="V124">
-        <v>2.63</v>
-      </c>
-      <c r="W124">
-        <v>1.44</v>
-      </c>
-      <c r="X124">
-        <v>6.5</v>
-      </c>
-      <c r="Y124">
-        <v>1.11</v>
-      </c>
-      <c r="Z124">
-        <v>1.57</v>
-      </c>
-      <c r="AA124">
-        <v>4.11</v>
-      </c>
-      <c r="AB124">
-        <v>5.36</v>
-      </c>
-      <c r="AC124">
-        <v>1.03</v>
-      </c>
-      <c r="AD124">
-        <v>15</v>
-      </c>
-      <c r="AE124">
-        <v>1.21</v>
-      </c>
-      <c r="AF124">
-        <v>4.25</v>
-      </c>
-      <c r="AG124">
-        <v>1.7</v>
-      </c>
-      <c r="AH124">
-        <v>2.05</v>
-      </c>
-      <c r="AI124">
-        <v>1.75</v>
-      </c>
-      <c r="AJ124">
-        <v>2</v>
-      </c>
       <c r="AK124">
-        <v>1.15</v>
+        <v>2.45</v>
       </c>
       <c r="AL124">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AM124">
-        <v>2.4</v>
+        <v>1.16</v>
       </c>
       <c r="AN124">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO124">
-        <v>1.17</v>
+        <v>2.57</v>
       </c>
       <c r="AP124">
         <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AR124">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
       <c r="AT124">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
         <v>9</v>
       </c>
-      <c r="AV124">
-        <v>5</v>
-      </c>
       <c r="AW124">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>14</v>
+      </c>
+      <c r="BA124">
         <v>4</v>
       </c>
-      <c r="AY124">
-        <v>27</v>
-      </c>
-      <c r="AZ124">
+      <c r="BB124">
+        <v>7</v>
+      </c>
+      <c r="BC124">
         <v>11</v>
       </c>
-      <c r="BA124">
-        <v>12</v>
-      </c>
-      <c r="BB124">
-        <v>0</v>
-      </c>
-      <c r="BC124">
-        <v>12</v>
-      </c>
       <c r="BD124">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="BE124">
         <v>7</v>
       </c>
       <c r="BF124">
-        <v>3.15</v>
+        <v>1.49</v>
       </c>
       <c r="BG124">
         <v>1.2</v>
       </c>
       <c r="BH124">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI124">
         <v>1.37</v>
       </c>
       <c r="BJ124">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="BK124">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BL124">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="BM124">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BN124">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BO124">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BP124">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="125" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,13 +550,16 @@
     <t>['32', '59']</t>
   </si>
   <si>
+    <t>['34', '88']</t>
+  </si>
+  <si>
     <t>['44', '72', '81']</t>
   </si>
   <si>
-    <t>['34', '88']</t>
+    <t>['13']</t>
   </si>
   <si>
-    <t>['13']</t>
+    <t>['25', '29']</t>
   </si>
   <si>
     <t>['8', '54']</t>
@@ -730,13 +733,16 @@
     <t>['31', '53']</t>
   </si>
   <si>
+    <t>['12', '54', '70', '74', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '33']</t>
   </si>
   <si>
-    <t>['12', '54', '70', '74', '90+1']</t>
+    <t>['15', '48']</t>
   </si>
   <si>
-    <t>['15', '48']</t>
+    <t>['16', '80']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1769,7 +1775,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1975,7 +1981,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2181,7 +2187,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2799,7 +2805,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3083,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3498,7 +3504,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ12">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4035,7 +4041,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4241,7 +4247,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4447,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5271,7 +5277,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5477,7 +5483,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5558,7 +5564,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -6095,7 +6101,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6507,7 +6513,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6919,7 +6925,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7331,7 +7337,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7537,7 +7543,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8567,7 +8573,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8979,7 +8985,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9185,7 +9191,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10087,7 +10093,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ44">
         <v>0.86</v>
@@ -10215,7 +10221,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10421,7 +10427,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10627,7 +10633,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10833,7 +10839,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11039,7 +11045,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11245,7 +11251,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11451,7 +11457,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11863,7 +11869,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12069,7 +12075,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12275,7 +12281,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12481,7 +12487,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13511,7 +13517,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13717,7 +13723,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13798,7 +13804,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -14541,7 +14547,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14747,7 +14753,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15365,7 +15371,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15443,7 +15449,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -15777,7 +15783,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15983,7 +15989,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16395,7 +16401,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16601,7 +16607,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17013,7 +17019,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17219,7 +17225,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17300,7 +17306,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17425,7 +17431,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18249,7 +18255,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18661,7 +18667,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19151,7 +19157,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ88">
         <v>1.14</v>
@@ -19279,7 +19285,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19485,7 +19491,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19691,7 +19697,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20103,7 +20109,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20181,7 +20187,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ93">
         <v>2.63</v>
@@ -20515,7 +20521,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20721,7 +20727,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21133,7 +21139,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21214,7 +21220,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ98">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR98">
         <v>1.7</v>
@@ -22163,7 +22169,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22369,7 +22375,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22575,7 +22581,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22781,7 +22787,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23193,7 +23199,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23811,7 +23817,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24223,7 +24229,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24429,7 +24435,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24510,7 +24516,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR114">
         <v>1.43</v>
@@ -24635,7 +24641,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24841,7 +24847,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25125,7 +25131,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ117">
         <v>0.43</v>
@@ -26241,7 +26247,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7466177</v>
+        <v>7466175</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26250,196 +26256,196 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45626.875</v>
+        <v>45627.34375</v>
       </c>
       <c r="F123">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O123" t="s">
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>2.5</v>
+      </c>
+      <c r="S123">
+        <v>2.05</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.25</v>
+      </c>
+      <c r="W123">
+        <v>1.57</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>5.23</v>
+      </c>
+      <c r="AA123">
+        <v>4.46</v>
+      </c>
+      <c r="AB123">
+        <v>1.53</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>19</v>
+      </c>
+      <c r="AE123">
+        <v>1.16</v>
+      </c>
+      <c r="AF123">
+        <v>4.87</v>
+      </c>
+      <c r="AG123">
+        <v>1.5</v>
+      </c>
+      <c r="AH123">
+        <v>2.6</v>
+      </c>
+      <c r="AI123">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123">
         <v>2.2</v>
       </c>
-      <c r="R123">
-        <v>2.38</v>
-      </c>
-      <c r="S123">
-        <v>5.5</v>
-      </c>
-      <c r="T123">
-        <v>1.33</v>
-      </c>
-      <c r="U123">
-        <v>3.25</v>
-      </c>
-      <c r="V123">
-        <v>2.63</v>
-      </c>
-      <c r="W123">
-        <v>1.44</v>
-      </c>
-      <c r="X123">
-        <v>6.5</v>
-      </c>
-      <c r="Y123">
-        <v>1.11</v>
-      </c>
-      <c r="Z123">
-        <v>1.57</v>
-      </c>
-      <c r="AA123">
-        <v>4.11</v>
-      </c>
-      <c r="AB123">
-        <v>5.36</v>
-      </c>
-      <c r="AC123">
-        <v>1.03</v>
-      </c>
-      <c r="AD123">
-        <v>15</v>
-      </c>
-      <c r="AE123">
-        <v>1.21</v>
-      </c>
-      <c r="AF123">
-        <v>4.25</v>
-      </c>
-      <c r="AG123">
-        <v>1.7</v>
-      </c>
-      <c r="AH123">
-        <v>2.05</v>
-      </c>
-      <c r="AI123">
-        <v>1.75</v>
-      </c>
-      <c r="AJ123">
-        <v>2</v>
-      </c>
       <c r="AK123">
-        <v>1.15</v>
+        <v>2.45</v>
       </c>
       <c r="AL123">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AM123">
-        <v>2.4</v>
+        <v>1.16</v>
       </c>
       <c r="AN123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO123">
-        <v>1.17</v>
+        <v>2.57</v>
       </c>
       <c r="AP123">
         <v>2.14</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AR123">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="AS123">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
       <c r="AT123">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
         <v>9</v>
       </c>
-      <c r="AV123">
-        <v>6</v>
-      </c>
       <c r="AW123">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
+        <v>14</v>
+      </c>
+      <c r="BA123">
         <v>4</v>
       </c>
-      <c r="AY123">
-        <v>27</v>
-      </c>
-      <c r="AZ123">
-        <v>12</v>
-      </c>
-      <c r="BA123">
-        <v>12</v>
-      </c>
       <c r="BB123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD123">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="BE123">
         <v>7</v>
       </c>
       <c r="BF123">
-        <v>3.15</v>
+        <v>1.49</v>
       </c>
       <c r="BG123">
         <v>1.2</v>
       </c>
       <c r="BH123">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI123">
         <v>1.37</v>
       </c>
       <c r="BJ123">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="BK123">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BL123">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="BM123">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BN123">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BO123">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BP123">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26447,7 +26453,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7466175</v>
+        <v>7466177</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26456,196 +26462,196 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45627.34375</v>
+        <v>45627.4375</v>
       </c>
       <c r="F124">
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
         <v>5</v>
-      </c>
-      <c r="N124">
-        <v>7</v>
       </c>
       <c r="O124" t="s">
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q124">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="R124">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.33</v>
+      </c>
+      <c r="U124">
+        <v>3.25</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>6.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.11</v>
+      </c>
+      <c r="Z124">
+        <v>1.57</v>
+      </c>
+      <c r="AA124">
+        <v>4.11</v>
+      </c>
+      <c r="AB124">
+        <v>5.36</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>15</v>
+      </c>
+      <c r="AE124">
+        <v>1.21</v>
+      </c>
+      <c r="AF124">
+        <v>4.25</v>
+      </c>
+      <c r="AG124">
+        <v>1.7</v>
+      </c>
+      <c r="AH124">
         <v>2.05</v>
       </c>
-      <c r="T124">
-        <v>1.29</v>
-      </c>
-      <c r="U124">
-        <v>3.5</v>
-      </c>
-      <c r="V124">
-        <v>2.25</v>
-      </c>
-      <c r="W124">
-        <v>1.57</v>
-      </c>
-      <c r="X124">
-        <v>5.5</v>
-      </c>
-      <c r="Y124">
-        <v>1.14</v>
-      </c>
-      <c r="Z124">
-        <v>5.23</v>
-      </c>
-      <c r="AA124">
-        <v>4.46</v>
-      </c>
-      <c r="AB124">
-        <v>1.53</v>
-      </c>
-      <c r="AC124">
-        <v>1.02</v>
-      </c>
-      <c r="AD124">
-        <v>19</v>
-      </c>
-      <c r="AE124">
-        <v>1.16</v>
-      </c>
-      <c r="AF124">
-        <v>4.87</v>
-      </c>
-      <c r="AG124">
-        <v>1.5</v>
-      </c>
-      <c r="AH124">
-        <v>2.6</v>
-      </c>
       <c r="AI124">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AJ124">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK124">
-        <v>2.45</v>
+        <v>1.15</v>
       </c>
       <c r="AL124">
+        <v>1.19</v>
+      </c>
+      <c r="AM124">
+        <v>2.4</v>
+      </c>
+      <c r="AN124">
+        <v>2</v>
+      </c>
+      <c r="AO124">
         <v>1.17</v>
-      </c>
-      <c r="AM124">
-        <v>1.16</v>
-      </c>
-      <c r="AN124">
-        <v>2.5</v>
-      </c>
-      <c r="AO124">
-        <v>2.57</v>
       </c>
       <c r="AP124">
         <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="AR124">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AS124">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="AT124">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="AU124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV124">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW124">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AX124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AZ124">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA124">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD124">
-        <v>2.8</v>
+        <v>1.42</v>
       </c>
       <c r="BE124">
         <v>7</v>
       </c>
       <c r="BF124">
-        <v>1.49</v>
+        <v>3.15</v>
       </c>
       <c r="BG124">
         <v>1.2</v>
       </c>
       <c r="BH124">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI124">
         <v>1.37</v>
       </c>
       <c r="BJ124">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="BK124">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BL124">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="BM124">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BN124">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BO124">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="BP124">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26901,7 +26907,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27058,6 +27064,212 @@
       </c>
       <c r="BP126">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7466096</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45630.66666666666</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>181</v>
+      </c>
+      <c r="P127" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q127">
+        <v>2.2</v>
+      </c>
+      <c r="R127">
+        <v>2.4</v>
+      </c>
+      <c r="S127">
+        <v>4.75</v>
+      </c>
+      <c r="T127">
+        <v>1.3</v>
+      </c>
+      <c r="U127">
+        <v>3.4</v>
+      </c>
+      <c r="V127">
+        <v>2.38</v>
+      </c>
+      <c r="W127">
+        <v>1.53</v>
+      </c>
+      <c r="X127">
+        <v>6</v>
+      </c>
+      <c r="Y127">
+        <v>1.13</v>
+      </c>
+      <c r="Z127">
+        <v>2.41</v>
+      </c>
+      <c r="AA127">
+        <v>1.73</v>
+      </c>
+      <c r="AB127">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>16.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.16</v>
+      </c>
+      <c r="AF127">
+        <v>4.3</v>
+      </c>
+      <c r="AG127">
+        <v>1.63</v>
+      </c>
+      <c r="AH127">
+        <v>2.1</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.18</v>
+      </c>
+      <c r="AL127">
+        <v>1.23</v>
+      </c>
+      <c r="AM127">
+        <v>2.24</v>
+      </c>
+      <c r="AN127">
+        <v>3</v>
+      </c>
+      <c r="AO127">
+        <v>2.67</v>
+      </c>
+      <c r="AP127">
+        <v>2.71</v>
+      </c>
+      <c r="AQ127">
+        <v>2.43</v>
+      </c>
+      <c r="AR127">
+        <v>1.82</v>
+      </c>
+      <c r="AS127">
+        <v>1.25</v>
+      </c>
+      <c r="AT127">
+        <v>3.07</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>8</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>19</v>
+      </c>
+      <c r="BA127">
+        <v>7</v>
+      </c>
+      <c r="BB127">
+        <v>7</v>
+      </c>
+      <c r="BC127">
+        <v>14</v>
+      </c>
+      <c r="BD127">
+        <v>1.53</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.8</v>
+      </c>
+      <c r="BG127">
+        <v>1.25</v>
+      </c>
+      <c r="BH127">
+        <v>3.4</v>
+      </c>
+      <c r="BI127">
+        <v>1.44</v>
+      </c>
+      <c r="BJ127">
+        <v>2.55</v>
+      </c>
+      <c r="BK127">
+        <v>1.73</v>
+      </c>
+      <c r="BL127">
+        <v>1.97</v>
+      </c>
+      <c r="BM127">
+        <v>2.14</v>
+      </c>
+      <c r="BN127">
+        <v>1.61</v>
+      </c>
+      <c r="BO127">
+        <v>2.7</v>
+      </c>
+      <c r="BP127">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['25', '29']</t>
   </si>
   <si>
+    <t>['20', '34', '45+2', '54', '63', '85']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1778,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1856,7 +1859,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1981,7 +1984,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2187,7 +2190,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2805,7 +2808,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -4041,7 +4044,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4247,7 +4250,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4453,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5277,7 +5280,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5483,7 +5486,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6101,7 +6104,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6513,7 +6516,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6925,7 +6928,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7337,7 +7340,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7543,7 +7546,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7624,7 +7627,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8573,7 +8576,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8985,7 +8988,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9191,7 +9194,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10221,7 +10224,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10427,7 +10430,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10633,7 +10636,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10839,7 +10842,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11045,7 +11048,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11251,7 +11254,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11457,7 +11460,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11538,7 +11541,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ51">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11869,7 +11872,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12075,7 +12078,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12281,7 +12284,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12487,7 +12490,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13517,7 +13520,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13723,7 +13726,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14547,7 +14550,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14753,7 +14756,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15040,7 +15043,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15371,7 +15374,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15783,7 +15786,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15989,7 +15992,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16401,7 +16404,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16482,7 +16485,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -16607,7 +16610,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17019,7 +17022,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17225,7 +17228,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17431,7 +17434,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18255,7 +18258,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18667,7 +18670,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19285,7 +19288,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19491,7 +19494,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19697,7 +19700,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19778,7 +19781,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20109,7 +20112,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20521,7 +20524,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20727,7 +20730,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21139,7 +21142,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22169,7 +22172,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22375,7 +22378,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22581,7 +22584,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22787,7 +22790,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23199,7 +23202,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23817,7 +23820,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24229,7 +24232,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24310,7 +24313,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ113">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.21</v>
@@ -24435,7 +24438,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24641,7 +24644,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24847,7 +24850,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -26289,7 +26292,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26495,7 +26498,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26907,7 +26910,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27113,7 +27116,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27270,6 +27273,212 @@
       </c>
       <c r="BP127">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7466184</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>6</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>7</v>
+      </c>
+      <c r="O128" t="s">
+        <v>182</v>
+      </c>
+      <c r="P128" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q128">
+        <v>1.91</v>
+      </c>
+      <c r="R128">
+        <v>2.63</v>
+      </c>
+      <c r="S128">
+        <v>5.5</v>
+      </c>
+      <c r="T128">
+        <v>1.22</v>
+      </c>
+      <c r="U128">
+        <v>4</v>
+      </c>
+      <c r="V128">
+        <v>2.1</v>
+      </c>
+      <c r="W128">
+        <v>1.67</v>
+      </c>
+      <c r="X128">
+        <v>4.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.18</v>
+      </c>
+      <c r="Z128">
+        <v>1.43</v>
+      </c>
+      <c r="AA128">
+        <v>4.94</v>
+      </c>
+      <c r="AB128">
+        <v>6.6</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>21</v>
+      </c>
+      <c r="AE128">
+        <v>1.14</v>
+      </c>
+      <c r="AF128">
+        <v>5.31</v>
+      </c>
+      <c r="AG128">
+        <v>1.5</v>
+      </c>
+      <c r="AH128">
+        <v>2.4</v>
+      </c>
+      <c r="AI128">
+        <v>1.57</v>
+      </c>
+      <c r="AJ128">
+        <v>2.25</v>
+      </c>
+      <c r="AK128">
+        <v>1.1</v>
+      </c>
+      <c r="AL128">
+        <v>1.15</v>
+      </c>
+      <c r="AM128">
+        <v>2.8</v>
+      </c>
+      <c r="AN128">
+        <v>3</v>
+      </c>
+      <c r="AO128">
+        <v>1.86</v>
+      </c>
+      <c r="AP128">
+        <v>3</v>
+      </c>
+      <c r="AQ128">
+        <v>1.63</v>
+      </c>
+      <c r="AR128">
+        <v>2.46</v>
+      </c>
+      <c r="AS128">
+        <v>1.72</v>
+      </c>
+      <c r="AT128">
+        <v>4.18</v>
+      </c>
+      <c r="AU128">
+        <v>13</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>21</v>
+      </c>
+      <c r="AZ128">
+        <v>9</v>
+      </c>
+      <c r="BA128">
+        <v>9</v>
+      </c>
+      <c r="BB128">
+        <v>2</v>
+      </c>
+      <c r="BC128">
+        <v>11</v>
+      </c>
+      <c r="BD128">
+        <v>1.41</v>
+      </c>
+      <c r="BE128">
+        <v>9.5</v>
+      </c>
+      <c r="BF128">
+        <v>3.56</v>
+      </c>
+      <c r="BG128">
+        <v>1.19</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>1.35</v>
+      </c>
+      <c r="BJ128">
+        <v>2.9</v>
+      </c>
+      <c r="BK128">
+        <v>1.57</v>
+      </c>
+      <c r="BL128">
+        <v>2.2</v>
+      </c>
+      <c r="BM128">
+        <v>2</v>
+      </c>
+      <c r="BN128">
+        <v>1.73</v>
+      </c>
+      <c r="BO128">
+        <v>2.38</v>
+      </c>
+      <c r="BP128">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,15 @@
     <t>['20', '34', '45+2', '54', '63', '85']</t>
   </si>
   <si>
+    <t>['5', '6', '10', '25', '58']</t>
+  </si>
+  <si>
+    <t>['12', '72']</t>
+  </si>
+  <si>
+    <t>['15', '59']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -746,6 +755,15 @@
   </si>
   <si>
     <t>['16', '80']</t>
+  </si>
+  <si>
+    <t>['45+4', '75']</t>
+  </si>
+  <si>
+    <t>['24', '49', '74']</t>
+  </si>
+  <si>
+    <t>['21', '30']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1465,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1778,7 +1796,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1984,7 +2002,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2190,7 +2208,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2474,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>0.57</v>
@@ -2808,7 +2826,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2886,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3919,7 +3937,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4044,7 +4062,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4122,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4250,7 +4268,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4328,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>2.63</v>
@@ -4456,7 +4474,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4537,7 +4555,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ17">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5280,7 +5298,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5486,7 +5504,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5976,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6104,7 +6122,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6182,10 +6200,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6388,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0.29</v>
@@ -6516,7 +6534,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6594,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27">
         <v>1.86</v>
@@ -6928,7 +6946,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7009,7 +7027,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7215,7 +7233,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7340,7 +7358,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7546,7 +7564,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8245,7 +8263,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8576,7 +8594,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8657,7 +8675,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8863,7 +8881,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -8988,7 +9006,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9194,7 +9212,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9272,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9684,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.29</v>
@@ -10099,7 +10117,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ44">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.45</v>
@@ -10224,7 +10242,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10430,7 +10448,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10636,7 +10654,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10714,7 +10732,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10842,7 +10860,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10920,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11048,7 +11066,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11254,7 +11272,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11460,7 +11478,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11747,7 +11765,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -11872,7 +11890,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12078,7 +12096,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12156,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12284,7 +12302,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12490,7 +12508,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12571,7 +12589,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -12774,10 +12792,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13189,7 +13207,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ59">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13520,7 +13538,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13598,7 +13616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13726,7 +13744,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14219,7 +14237,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14550,7 +14568,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14756,7 +14774,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14834,7 +14852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>0.57</v>
@@ -15374,7 +15392,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15786,7 +15804,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15864,7 +15882,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ72">
         <v>0.29</v>
@@ -15992,7 +16010,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16404,7 +16422,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16482,7 +16500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75">
         <v>1.63</v>
@@ -16610,7 +16628,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16688,10 +16706,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR76">
         <v>1.77</v>
@@ -16897,7 +16915,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17022,7 +17040,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17100,7 +17118,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17228,7 +17246,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17434,7 +17452,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17515,7 +17533,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17721,7 +17739,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18258,7 +18276,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18670,7 +18688,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18751,7 +18769,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ86">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19288,7 +19306,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19494,7 +19512,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19700,7 +19718,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19984,10 +20002,10 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.39</v>
@@ -20112,7 +20130,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20524,7 +20542,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20730,7 +20748,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20808,7 +20826,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>0.43</v>
@@ -21142,7 +21160,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21220,7 +21238,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ98">
         <v>2.43</v>
@@ -21426,7 +21444,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ99">
         <v>0.29</v>
@@ -22047,7 +22065,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22172,7 +22190,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22378,7 +22396,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22456,10 +22474,10 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22584,7 +22602,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22665,7 +22683,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ105">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR105">
         <v>1.24</v>
@@ -22790,7 +22808,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23202,7 +23220,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23486,7 +23504,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>0.29</v>
@@ -23820,7 +23838,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23898,7 +23916,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
         <v>0.29</v>
@@ -24232,7 +24250,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24438,7 +24456,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24644,7 +24662,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24722,7 +24740,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
         <v>1.86</v>
@@ -24850,7 +24868,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24931,7 +24949,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.02</v>
@@ -25961,7 +25979,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.62</v>
@@ -26292,7 +26310,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26498,7 +26516,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26910,7 +26928,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27116,7 +27134,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27289,7 +27307,7 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45632.66666666666</v>
+        <v>45631.875</v>
       </c>
       <c r="F128">
         <v>15</v>
@@ -27479,6 +27497,830 @@
       </c>
       <c r="BP128">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7466182</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45633.52083333334</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>183</v>
+      </c>
+      <c r="P129" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q129">
+        <v>2.63</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>2.1</v>
+      </c>
+      <c r="AA129">
+        <v>3.4</v>
+      </c>
+      <c r="AB129">
+        <v>3.3</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <v>1.26</v>
+      </c>
+      <c r="AF129">
+        <v>3.67</v>
+      </c>
+      <c r="AG129">
+        <v>1.72</v>
+      </c>
+      <c r="AH129">
+        <v>2.05</v>
+      </c>
+      <c r="AI129">
+        <v>1.67</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.33</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.78</v>
+      </c>
+      <c r="AN129">
+        <v>1.57</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>1.75</v>
+      </c>
+      <c r="AQ129">
+        <v>0.86</v>
+      </c>
+      <c r="AR129">
+        <v>1.64</v>
+      </c>
+      <c r="AS129">
+        <v>1.16</v>
+      </c>
+      <c r="AT129">
+        <v>2.8</v>
+      </c>
+      <c r="AU129">
+        <v>10</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>19</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>6</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.51</v>
+      </c>
+      <c r="BE129">
+        <v>9</v>
+      </c>
+      <c r="BF129">
+        <v>3.06</v>
+      </c>
+      <c r="BG129">
+        <v>1.13</v>
+      </c>
+      <c r="BH129">
+        <v>4.9</v>
+      </c>
+      <c r="BI129">
+        <v>1.24</v>
+      </c>
+      <c r="BJ129">
+        <v>3.55</v>
+      </c>
+      <c r="BK129">
+        <v>1.41</v>
+      </c>
+      <c r="BL129">
+        <v>2.65</v>
+      </c>
+      <c r="BM129">
+        <v>1.92</v>
+      </c>
+      <c r="BN129">
+        <v>1.88</v>
+      </c>
+      <c r="BO129">
+        <v>2.02</v>
+      </c>
+      <c r="BP129">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7466186</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45633.61458333334</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>87</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>91</v>
+      </c>
+      <c r="P130" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q130">
+        <v>2.6</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>4.33</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>1.69</v>
+      </c>
+      <c r="AA130">
+        <v>4.1</v>
+      </c>
+      <c r="AB130">
+        <v>5.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.52</v>
+      </c>
+      <c r="AG130">
+        <v>1.81</v>
+      </c>
+      <c r="AH130">
+        <v>2.01</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.22</v>
+      </c>
+      <c r="AL130">
+        <v>1.24</v>
+      </c>
+      <c r="AM130">
+        <v>2</v>
+      </c>
+      <c r="AN130">
+        <v>0.57</v>
+      </c>
+      <c r="AO130">
+        <v>0.57</v>
+      </c>
+      <c r="AP130">
+        <v>0.5</v>
+      </c>
+      <c r="AQ130">
+        <v>0.88</v>
+      </c>
+      <c r="AR130">
+        <v>1.55</v>
+      </c>
+      <c r="AS130">
+        <v>0.9</v>
+      </c>
+      <c r="AT130">
+        <v>2.45</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>11</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>23</v>
+      </c>
+      <c r="AZ130">
+        <v>16</v>
+      </c>
+      <c r="BA130">
+        <v>9</v>
+      </c>
+      <c r="BB130">
+        <v>5</v>
+      </c>
+      <c r="BC130">
+        <v>14</v>
+      </c>
+      <c r="BD130">
+        <v>1.64</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.64</v>
+      </c>
+      <c r="BG130">
+        <v>1.28</v>
+      </c>
+      <c r="BH130">
+        <v>3.25</v>
+      </c>
+      <c r="BI130">
+        <v>1.5</v>
+      </c>
+      <c r="BJ130">
+        <v>2.38</v>
+      </c>
+      <c r="BK130">
+        <v>1.7</v>
+      </c>
+      <c r="BL130">
+        <v>2.05</v>
+      </c>
+      <c r="BM130">
+        <v>2.05</v>
+      </c>
+      <c r="BN130">
+        <v>1.7</v>
+      </c>
+      <c r="BO130">
+        <v>2.9</v>
+      </c>
+      <c r="BP130">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7466185</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45633.66666666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" t="s">
+        <v>71</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>184</v>
+      </c>
+      <c r="P131" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q131">
+        <v>8</v>
+      </c>
+      <c r="R131">
+        <v>2.75</v>
+      </c>
+      <c r="S131">
+        <v>1.67</v>
+      </c>
+      <c r="T131">
+        <v>1.25</v>
+      </c>
+      <c r="U131">
+        <v>3.75</v>
+      </c>
+      <c r="V131">
+        <v>2.1</v>
+      </c>
+      <c r="W131">
+        <v>1.67</v>
+      </c>
+      <c r="X131">
+        <v>4.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.18</v>
+      </c>
+      <c r="Z131">
+        <v>10</v>
+      </c>
+      <c r="AA131">
+        <v>6.7</v>
+      </c>
+      <c r="AB131">
+        <v>1.27</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>26</v>
+      </c>
+      <c r="AE131">
+        <v>1.12</v>
+      </c>
+      <c r="AF131">
+        <v>5.87</v>
+      </c>
+      <c r="AG131">
+        <v>1.42</v>
+      </c>
+      <c r="AH131">
+        <v>2.72</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>4</v>
+      </c>
+      <c r="AL131">
+        <v>1.09</v>
+      </c>
+      <c r="AM131">
+        <v>1.02</v>
+      </c>
+      <c r="AN131">
+        <v>0.57</v>
+      </c>
+      <c r="AO131">
+        <v>2.14</v>
+      </c>
+      <c r="AP131">
+        <v>0.5</v>
+      </c>
+      <c r="AQ131">
+        <v>2.25</v>
+      </c>
+      <c r="AR131">
+        <v>1.18</v>
+      </c>
+      <c r="AS131">
+        <v>1.95</v>
+      </c>
+      <c r="AT131">
+        <v>3.13</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>10</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>18</v>
+      </c>
+      <c r="BA131">
+        <v>2</v>
+      </c>
+      <c r="BB131">
+        <v>15</v>
+      </c>
+      <c r="BC131">
+        <v>17</v>
+      </c>
+      <c r="BD131">
+        <v>7.01</v>
+      </c>
+      <c r="BE131">
+        <v>12</v>
+      </c>
+      <c r="BF131">
+        <v>1.14</v>
+      </c>
+      <c r="BG131">
+        <v>1.23</v>
+      </c>
+      <c r="BH131">
+        <v>3.65</v>
+      </c>
+      <c r="BI131">
+        <v>1.41</v>
+      </c>
+      <c r="BJ131">
+        <v>2.65</v>
+      </c>
+      <c r="BK131">
+        <v>1.67</v>
+      </c>
+      <c r="BL131">
+        <v>2.05</v>
+      </c>
+      <c r="BM131">
+        <v>2.05</v>
+      </c>
+      <c r="BN131">
+        <v>1.7</v>
+      </c>
+      <c r="BO131">
+        <v>2.55</v>
+      </c>
+      <c r="BP131">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7466183</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45633.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>84</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>185</v>
+      </c>
+      <c r="P132" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q132">
+        <v>3.25</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>3.4</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>9</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.57</v>
+      </c>
+      <c r="AA132">
+        <v>3.51</v>
+      </c>
+      <c r="AB132">
+        <v>2.78</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.28</v>
+      </c>
+      <c r="AF132">
+        <v>3.52</v>
+      </c>
+      <c r="AG132">
+        <v>1.77</v>
+      </c>
+      <c r="AH132">
+        <v>1.93</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.95</v>
+      </c>
+      <c r="AK132">
+        <v>1.52</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>1.5</v>
+      </c>
+      <c r="AN132">
+        <v>1.29</v>
+      </c>
+      <c r="AO132">
+        <v>0.86</v>
+      </c>
+      <c r="AP132">
+        <v>1.25</v>
+      </c>
+      <c r="AQ132">
+        <v>0.88</v>
+      </c>
+      <c r="AR132">
+        <v>1.37</v>
+      </c>
+      <c r="AS132">
+        <v>1.08</v>
+      </c>
+      <c r="AT132">
+        <v>2.45</v>
+      </c>
+      <c r="AU132">
+        <v>9</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132">
+        <v>17</v>
+      </c>
+      <c r="AZ132">
+        <v>8</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.05</v>
+      </c>
+      <c r="BG132">
+        <v>1.21</v>
+      </c>
+      <c r="BH132">
+        <v>3.7</v>
+      </c>
+      <c r="BI132">
+        <v>1.4</v>
+      </c>
+      <c r="BJ132">
+        <v>2.65</v>
+      </c>
+      <c r="BK132">
+        <v>1.66</v>
+      </c>
+      <c r="BL132">
+        <v>2.07</v>
+      </c>
+      <c r="BM132">
+        <v>2</v>
+      </c>
+      <c r="BN132">
+        <v>1.73</v>
+      </c>
+      <c r="BO132">
+        <v>2.55</v>
+      </c>
+      <c r="BP132">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['15', '59']</t>
   </si>
   <si>
+    <t>['65', '76']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -764,6 +767,12 @@
   </si>
   <si>
     <t>['21', '30']</t>
+  </si>
+  <si>
+    <t>['85', '90+3']</t>
+  </si>
+  <si>
+    <t>['35', '41', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -1796,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2002,7 +2011,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2080,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <v>1.86</v>
@@ -2208,7 +2217,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2701,7 +2710,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2826,7 +2835,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3113,7 +3122,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3525,7 +3534,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ12">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3934,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4062,7 +4071,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4268,7 +4277,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4474,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4758,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4967,7 +4976,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5173,7 +5182,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5298,7 +5307,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5376,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>2.63</v>
@@ -5504,7 +5513,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5585,7 +5594,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -5788,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -6122,7 +6131,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6534,7 +6543,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6818,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>0.57</v>
@@ -6946,7 +6955,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7358,7 +7367,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7436,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7564,7 +7573,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8469,7 +8478,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8594,7 +8603,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8672,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>2.25</v>
@@ -9006,7 +9015,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9084,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR39">
         <v>1.82</v>
@@ -9212,7 +9221,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9496,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0.29</v>
@@ -9911,7 +9920,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR43">
         <v>2.19</v>
@@ -10242,7 +10251,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10448,7 +10457,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10654,7 +10663,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10860,7 +10869,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10941,7 +10950,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11066,7 +11075,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11272,7 +11281,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11478,7 +11487,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11556,7 +11565,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
         <v>1.63</v>
@@ -11890,7 +11899,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12096,7 +12105,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12177,7 +12186,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12302,7 +12311,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12380,7 +12389,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>2.63</v>
@@ -12508,7 +12517,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13410,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13538,7 +13547,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13619,7 +13628,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13744,7 +13753,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13822,10 +13831,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -14028,7 +14037,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>1.14</v>
@@ -14568,7 +14577,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14774,7 +14783,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15267,7 +15276,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ69">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15392,7 +15401,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15804,7 +15813,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16010,7 +16019,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16088,7 +16097,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ73">
         <v>2.63</v>
@@ -16297,7 +16306,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ74">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR74">
         <v>1.44</v>
@@ -16422,7 +16431,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16628,7 +16637,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16912,7 +16921,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>0.88</v>
@@ -17040,7 +17049,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17121,7 +17130,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17246,7 +17255,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17324,10 +17333,10 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17452,7 +17461,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17736,7 +17745,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18151,7 +18160,7 @@
         <v>3</v>
       </c>
       <c r="AQ83">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18276,7 +18285,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18688,7 +18697,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19306,7 +19315,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19384,7 +19393,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19512,7 +19521,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19593,7 +19602,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -19718,7 +19727,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19796,7 +19805,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -20130,7 +20139,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20417,7 +20426,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20542,7 +20551,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20748,7 +20757,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20829,7 +20838,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21160,7 +21169,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21241,7 +21250,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ98">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR98">
         <v>1.7</v>
@@ -21856,7 +21865,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22190,7 +22199,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22396,7 +22405,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22602,7 +22611,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22680,7 +22689,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ105">
         <v>2.25</v>
@@ -22808,7 +22817,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -22889,7 +22898,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR106">
         <v>2.03</v>
@@ -23220,7 +23229,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23298,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
         <v>1.14</v>
@@ -23713,7 +23722,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -23838,7 +23847,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24250,7 +24259,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24456,7 +24465,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24537,7 +24546,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR114">
         <v>1.43</v>
@@ -24662,7 +24671,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24868,7 +24877,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24946,7 +24955,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>0.88</v>
@@ -25155,7 +25164,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ117">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25770,7 +25779,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.14</v>
@@ -26310,7 +26319,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26516,7 +26525,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26800,7 +26809,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125">
         <v>0.57</v>
@@ -26928,7 +26937,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27009,7 +27018,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27134,7 +27143,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27215,7 +27224,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ127">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -27307,7 +27316,7 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45631.875</v>
+        <v>45632.66666666666</v>
       </c>
       <c r="F128">
         <v>15</v>
@@ -27752,7 +27761,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -27851,13 +27860,13 @@
         <v>11</v>
       </c>
       <c r="AW130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX130">
         <v>3</v>
       </c>
       <c r="AY130">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ130">
         <v>16</v>
@@ -27958,7 +27967,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28060,13 +28069,13 @@
         <v>4</v>
       </c>
       <c r="AX131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY131">
         <v>12</v>
       </c>
       <c r="AZ131">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA131">
         <v>2</v>
@@ -28164,7 +28173,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28321,6 +28330,830 @@
       </c>
       <c r="BP132">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7466181</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45634.34375</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>91</v>
+      </c>
+      <c r="P133" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q133">
+        <v>2.63</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>4.33</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.75</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>1.86</v>
+      </c>
+      <c r="AA133">
+        <v>3.3</v>
+      </c>
+      <c r="AB133">
+        <v>3.4</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>8.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.3</v>
+      </c>
+      <c r="AF133">
+        <v>3.4</v>
+      </c>
+      <c r="AG133">
+        <v>1.86</v>
+      </c>
+      <c r="AH133">
+        <v>1.84</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.25</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.77</v>
+      </c>
+      <c r="AN133">
+        <v>1.57</v>
+      </c>
+      <c r="AO133">
+        <v>0.43</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>0.5</v>
+      </c>
+      <c r="AR133">
+        <v>1.23</v>
+      </c>
+      <c r="AS133">
+        <v>0.96</v>
+      </c>
+      <c r="AT133">
+        <v>2.19</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>16</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>4</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>1.28</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>3.95</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.65</v>
+      </c>
+      <c r="BI133">
+        <v>1.41</v>
+      </c>
+      <c r="BJ133">
+        <v>2.65</v>
+      </c>
+      <c r="BK133">
+        <v>1.66</v>
+      </c>
+      <c r="BL133">
+        <v>2.07</v>
+      </c>
+      <c r="BM133">
+        <v>2</v>
+      </c>
+      <c r="BN133">
+        <v>1.73</v>
+      </c>
+      <c r="BO133">
+        <v>2.55</v>
+      </c>
+      <c r="BP133">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7466180</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45634.4375</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>82</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q134">
+        <v>3.5</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>2.88</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2.8</v>
+      </c>
+      <c r="AA134">
+        <v>3.45</v>
+      </c>
+      <c r="AB134">
+        <v>2.4</v>
+      </c>
+      <c r="AC134">
+        <v>1.03</v>
+      </c>
+      <c r="AD134">
+        <v>15</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>4.08</v>
+      </c>
+      <c r="AG134">
+        <v>1.71</v>
+      </c>
+      <c r="AH134">
+        <v>2.14</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.68</v>
+      </c>
+      <c r="AL134">
+        <v>1.24</v>
+      </c>
+      <c r="AM134">
+        <v>1.4</v>
+      </c>
+      <c r="AN134">
+        <v>1.43</v>
+      </c>
+      <c r="AO134">
+        <v>2</v>
+      </c>
+      <c r="AP134">
+        <v>1.63</v>
+      </c>
+      <c r="AQ134">
+        <v>1.75</v>
+      </c>
+      <c r="AR134">
+        <v>1.92</v>
+      </c>
+      <c r="AS134">
+        <v>1.38</v>
+      </c>
+      <c r="AT134">
+        <v>3.3</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
+        <v>6</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>2.15</v>
+      </c>
+      <c r="BE134">
+        <v>6.6</v>
+      </c>
+      <c r="BF134">
+        <v>1.95</v>
+      </c>
+      <c r="BG134">
+        <v>1.33</v>
+      </c>
+      <c r="BH134">
+        <v>2.98</v>
+      </c>
+      <c r="BI134">
+        <v>1.62</v>
+      </c>
+      <c r="BJ134">
+        <v>2.12</v>
+      </c>
+      <c r="BK134">
+        <v>2.08</v>
+      </c>
+      <c r="BL134">
+        <v>1.65</v>
+      </c>
+      <c r="BM134">
+        <v>2.9</v>
+      </c>
+      <c r="BN134">
+        <v>1.35</v>
+      </c>
+      <c r="BO134">
+        <v>4.25</v>
+      </c>
+      <c r="BP134">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7466187</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45634.4375</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>86</v>
+      </c>
+      <c r="H135" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>98</v>
+      </c>
+      <c r="P135" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q135">
+        <v>3.2</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>3.6</v>
+      </c>
+      <c r="T135">
+        <v>1.44</v>
+      </c>
+      <c r="U135">
+        <v>2.63</v>
+      </c>
+      <c r="V135">
+        <v>3.4</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>2.3</v>
+      </c>
+      <c r="AA135">
+        <v>3.05</v>
+      </c>
+      <c r="AB135">
+        <v>2.7</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>9</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.35</v>
+      </c>
+      <c r="AG135">
+        <v>2.01</v>
+      </c>
+      <c r="AH135">
+        <v>1.71</v>
+      </c>
+      <c r="AI135">
+        <v>1.91</v>
+      </c>
+      <c r="AJ135">
+        <v>1.91</v>
+      </c>
+      <c r="AK135">
+        <v>1.42</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.53</v>
+      </c>
+      <c r="AN135">
+        <v>1.14</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>0.38</v>
+      </c>
+      <c r="AR135">
+        <v>1.12</v>
+      </c>
+      <c r="AS135">
+        <v>1.2</v>
+      </c>
+      <c r="AT135">
+        <v>2.32</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>6</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>10</v>
+      </c>
+      <c r="AZ135">
+        <v>21</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>5</v>
+      </c>
+      <c r="BD135">
+        <v>2.02</v>
+      </c>
+      <c r="BE135">
+        <v>6.4</v>
+      </c>
+      <c r="BF135">
+        <v>1.98</v>
+      </c>
+      <c r="BG135">
+        <v>1.25</v>
+      </c>
+      <c r="BH135">
+        <v>3.45</v>
+      </c>
+      <c r="BI135">
+        <v>1.44</v>
+      </c>
+      <c r="BJ135">
+        <v>2.55</v>
+      </c>
+      <c r="BK135">
+        <v>1.7</v>
+      </c>
+      <c r="BL135">
+        <v>2.05</v>
+      </c>
+      <c r="BM135">
+        <v>2.1</v>
+      </c>
+      <c r="BN135">
+        <v>1.64</v>
+      </c>
+      <c r="BO135">
+        <v>2.65</v>
+      </c>
+      <c r="BP135">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7466179</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45634.53125</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>147</v>
+      </c>
+      <c r="P136" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q136">
+        <v>4.75</v>
+      </c>
+      <c r="R136">
+        <v>2.25</v>
+      </c>
+      <c r="S136">
+        <v>2.38</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.63</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>4.9</v>
+      </c>
+      <c r="AA136">
+        <v>4</v>
+      </c>
+      <c r="AB136">
+        <v>1.67</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>13</v>
+      </c>
+      <c r="AE136">
+        <v>1.24</v>
+      </c>
+      <c r="AF136">
+        <v>3.92</v>
+      </c>
+      <c r="AG136">
+        <v>1.8</v>
+      </c>
+      <c r="AH136">
+        <v>1.9</v>
+      </c>
+      <c r="AI136">
+        <v>1.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>2.15</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.2</v>
+      </c>
+      <c r="AN136">
+        <v>0.57</v>
+      </c>
+      <c r="AO136">
+        <v>2.43</v>
+      </c>
+      <c r="AP136">
+        <v>0.5</v>
+      </c>
+      <c r="AQ136">
+        <v>2.5</v>
+      </c>
+      <c r="AR136">
+        <v>1.21</v>
+      </c>
+      <c r="AS136">
+        <v>1.27</v>
+      </c>
+      <c r="AT136">
+        <v>2.48</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>13</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>3.1</v>
+      </c>
+      <c r="BE136">
+        <v>7.7</v>
+      </c>
+      <c r="BF136">
+        <v>1.47</v>
+      </c>
+      <c r="BG136">
+        <v>1.13</v>
+      </c>
+      <c r="BH136">
+        <v>4.33</v>
+      </c>
+      <c r="BI136">
+        <v>1.28</v>
+      </c>
+      <c r="BJ136">
+        <v>3.3</v>
+      </c>
+      <c r="BK136">
+        <v>1.52</v>
+      </c>
+      <c r="BL136">
+        <v>2.3</v>
+      </c>
+      <c r="BM136">
+        <v>1.92</v>
+      </c>
+      <c r="BN136">
+        <v>1.75</v>
+      </c>
+      <c r="BO136">
+        <v>2.52</v>
+      </c>
+      <c r="BP136">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1134,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1680,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>2.25</v>
@@ -6006,7 +6006,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -7857,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -10329,7 +10329,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10538,7 +10538,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -13007,7 +13007,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.29</v>
@@ -14040,7 +14040,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -19190,7 +19190,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -22071,7 +22071,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>0.88</v>
@@ -23310,7 +23310,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -25782,7 +25782,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR120">
         <v>1.14</v>
@@ -26191,7 +26191,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -29154,6 +29154,212 @@
       </c>
       <c r="BP136">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7466195</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45638.875</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>86</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>91</v>
+      </c>
+      <c r="P137" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q137">
+        <v>2.88</v>
+      </c>
+      <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.4</v>
+      </c>
+      <c r="W137">
+        <v>1.3</v>
+      </c>
+      <c r="X137">
+        <v>10</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>2.6</v>
+      </c>
+      <c r="AA137">
+        <v>3.4</v>
+      </c>
+      <c r="AB137">
+        <v>2.7</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>8.91</v>
+      </c>
+      <c r="AE137">
+        <v>1.36</v>
+      </c>
+      <c r="AF137">
+        <v>3.04</v>
+      </c>
+      <c r="AG137">
+        <v>1.95</v>
+      </c>
+      <c r="AH137">
+        <v>1.75</v>
+      </c>
+      <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
+        <v>1.8</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.63</v>
+      </c>
+      <c r="AN137">
+        <v>1.71</v>
+      </c>
+      <c r="AO137">
+        <v>1.14</v>
+      </c>
+      <c r="AP137">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137">
+        <v>1.38</v>
+      </c>
+      <c r="AR137">
+        <v>1.19</v>
+      </c>
+      <c r="AS137">
+        <v>0.76</v>
+      </c>
+      <c r="AT137">
+        <v>1.95</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>7</v>
+      </c>
+      <c r="AW137">
+        <v>9</v>
+      </c>
+      <c r="AX137">
+        <v>4</v>
+      </c>
+      <c r="AY137">
+        <v>21</v>
+      </c>
+      <c r="AZ137">
+        <v>11</v>
+      </c>
+      <c r="BA137">
+        <v>9</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>14</v>
+      </c>
+      <c r="BD137">
+        <v>1.85</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>2.15</v>
+      </c>
+      <c r="BG137">
+        <v>1.24</v>
+      </c>
+      <c r="BH137">
+        <v>3.55</v>
+      </c>
+      <c r="BI137">
+        <v>1.41</v>
+      </c>
+      <c r="BJ137">
+        <v>2.63</v>
+      </c>
+      <c r="BK137">
+        <v>1.68</v>
+      </c>
+      <c r="BL137">
+        <v>2.02</v>
+      </c>
+      <c r="BM137">
+        <v>2.08</v>
+      </c>
+      <c r="BN137">
+        <v>1.65</v>
+      </c>
+      <c r="BO137">
+        <v>2.65</v>
+      </c>
+      <c r="BP137">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,15 @@
     <t>['65', '76']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['19', '30', '34']</t>
+  </si>
+  <si>
+    <t>['31', '36', '45+3', '49', '90']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -773,6 +782,12 @@
   </si>
   <si>
     <t>['35', '41', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '66']</t>
+  </si>
+  <si>
+    <t>['43', '73']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1677,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1805,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2011,7 +2026,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2217,7 +2232,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2298,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2504,7 +2519,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2835,7 +2850,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3325,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
         <v>0.29</v>
@@ -3531,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>2.5</v>
@@ -4071,7 +4086,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4277,7 +4292,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4358,7 +4373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4483,7 +4498,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5307,7 +5322,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5388,7 +5403,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>0.96</v>
@@ -5513,7 +5528,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6131,7 +6146,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6418,7 +6433,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6543,7 +6558,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6955,7 +6970,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7033,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7239,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7367,7 +7382,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7573,7 +7588,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7860,7 +7875,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -8603,7 +8618,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9015,7 +9030,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9221,7 +9236,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9508,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -10251,7 +10266,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10457,7 +10472,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10663,7 +10678,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10869,7 +10884,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11075,7 +11090,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11156,7 +11171,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11281,7 +11296,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11359,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>0.57</v>
@@ -11487,7 +11502,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11771,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -11899,7 +11914,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11977,10 +11992,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12105,7 +12120,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12311,7 +12326,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12392,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR55">
         <v>1.25</v>
@@ -12517,7 +12532,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13547,7 +13562,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13753,7 +13768,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14577,7 +14592,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14658,7 +14673,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR66">
         <v>1.08</v>
@@ -14783,7 +14798,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14864,7 +14879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15067,7 +15082,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1.63</v>
@@ -15273,7 +15288,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15401,7 +15416,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15685,7 +15700,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -15813,7 +15828,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16019,7 +16034,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16100,7 +16115,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ73">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR73">
         <v>2.44</v>
@@ -16431,7 +16446,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16637,7 +16652,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17049,7 +17064,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17255,7 +17270,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17461,7 +17476,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17951,7 +17966,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82">
         <v>0.57</v>
@@ -18285,7 +18300,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18366,7 +18381,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ84">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18569,7 +18584,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18697,7 +18712,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18984,7 +18999,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ87">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19315,7 +19330,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19521,7 +19536,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19599,7 +19614,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
         <v>1.75</v>
@@ -19727,7 +19742,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20139,7 +20154,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20220,7 +20235,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ93">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR93">
         <v>2.04</v>
@@ -20423,7 +20438,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>0.38</v>
@@ -20551,7 +20566,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20629,7 +20644,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95">
         <v>1.86</v>
@@ -20757,7 +20772,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21169,7 +21184,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21662,7 +21677,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22199,7 +22214,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22280,7 +22295,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR103">
         <v>1.38</v>
@@ -22405,7 +22420,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22611,7 +22626,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22817,7 +22832,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23101,7 +23116,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23229,7 +23244,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23719,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>0.38</v>
@@ -23847,7 +23862,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23928,7 +23943,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24259,7 +24274,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24337,7 +24352,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
         <v>1.63</v>
@@ -24465,7 +24480,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24671,7 +24686,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24877,7 +24892,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25367,10 +25382,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ118">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR118">
         <v>1.65</v>
@@ -25985,7 +26000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ121">
         <v>0.88</v>
@@ -26319,7 +26334,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26400,7 +26415,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ123">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26525,7 +26540,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26812,7 +26827,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.92</v>
@@ -26937,7 +26952,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27143,7 +27158,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27761,7 +27776,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -27967,7 +27982,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28173,7 +28188,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28791,7 +28806,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28997,7 +29012,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29203,7 +29218,7 @@
         <v>91</v>
       </c>
       <c r="P137" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q137">
         <v>2.88</v>
@@ -29360,6 +29375,624 @@
       </c>
       <c r="BP137">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7466196</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45640.61458333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>187</v>
+      </c>
+      <c r="P138" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q138">
+        <v>10</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138">
+        <v>1.53</v>
+      </c>
+      <c r="T138">
+        <v>1.22</v>
+      </c>
+      <c r="U138">
+        <v>4</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
+        <v>1.73</v>
+      </c>
+      <c r="X138">
+        <v>4.33</v>
+      </c>
+      <c r="Y138">
+        <v>1.2</v>
+      </c>
+      <c r="Z138">
+        <v>14</v>
+      </c>
+      <c r="AA138">
+        <v>6.9</v>
+      </c>
+      <c r="AB138">
+        <v>1.16</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>29</v>
+      </c>
+      <c r="AE138">
+        <v>1.11</v>
+      </c>
+      <c r="AF138">
+        <v>6.28</v>
+      </c>
+      <c r="AG138">
+        <v>1.54</v>
+      </c>
+      <c r="AH138">
+        <v>2.26</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>5</v>
+      </c>
+      <c r="AL138">
+        <v>1.05</v>
+      </c>
+      <c r="AM138">
+        <v>1.05</v>
+      </c>
+      <c r="AN138">
+        <v>2.14</v>
+      </c>
+      <c r="AO138">
+        <v>2.63</v>
+      </c>
+      <c r="AP138">
+        <v>2.25</v>
+      </c>
+      <c r="AQ138">
+        <v>2.33</v>
+      </c>
+      <c r="AR138">
+        <v>1.59</v>
+      </c>
+      <c r="AS138">
+        <v>1.89</v>
+      </c>
+      <c r="AT138">
+        <v>3.48</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>6</v>
+      </c>
+      <c r="AY138">
+        <v>13</v>
+      </c>
+      <c r="AZ138">
+        <v>15</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>7</v>
+      </c>
+      <c r="BC138">
+        <v>14</v>
+      </c>
+      <c r="BD138">
+        <v>4.3</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>1.25</v>
+      </c>
+      <c r="BG138">
+        <v>1.21</v>
+      </c>
+      <c r="BH138">
+        <v>3.8</v>
+      </c>
+      <c r="BI138">
+        <v>1.38</v>
+      </c>
+      <c r="BJ138">
+        <v>2.7</v>
+      </c>
+      <c r="BK138">
+        <v>1.64</v>
+      </c>
+      <c r="BL138">
+        <v>2.1</v>
+      </c>
+      <c r="BM138">
+        <v>2</v>
+      </c>
+      <c r="BN138">
+        <v>1.71</v>
+      </c>
+      <c r="BO138">
+        <v>2.48</v>
+      </c>
+      <c r="BP138">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7466192</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45640.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139" t="s">
+        <v>188</v>
+      </c>
+      <c r="P139" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q139">
+        <v>2.2</v>
+      </c>
+      <c r="R139">
+        <v>2.3</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.63</v>
+      </c>
+      <c r="AA139">
+        <v>3.8</v>
+      </c>
+      <c r="AB139">
+        <v>4.9</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>15</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>4.08</v>
+      </c>
+      <c r="AG139">
+        <v>1.67</v>
+      </c>
+      <c r="AH139">
+        <v>2.05</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.95</v>
+      </c>
+      <c r="AK139">
+        <v>1.16</v>
+      </c>
+      <c r="AL139">
+        <v>1.2</v>
+      </c>
+      <c r="AM139">
+        <v>2.35</v>
+      </c>
+      <c r="AN139">
+        <v>1.71</v>
+      </c>
+      <c r="AO139">
+        <v>0.29</v>
+      </c>
+      <c r="AP139">
+        <v>1.88</v>
+      </c>
+      <c r="AQ139">
+        <v>0.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.21</v>
+      </c>
+      <c r="AS139">
+        <v>0.82</v>
+      </c>
+      <c r="AT139">
+        <v>2.03</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>17</v>
+      </c>
+      <c r="AZ139">
+        <v>16</v>
+      </c>
+      <c r="BA139">
+        <v>12</v>
+      </c>
+      <c r="BB139">
+        <v>7</v>
+      </c>
+      <c r="BC139">
+        <v>19</v>
+      </c>
+      <c r="BD139">
+        <v>1.34</v>
+      </c>
+      <c r="BE139">
+        <v>7.5</v>
+      </c>
+      <c r="BF139">
+        <v>3.55</v>
+      </c>
+      <c r="BG139">
+        <v>1.16</v>
+      </c>
+      <c r="BH139">
+        <v>4.4</v>
+      </c>
+      <c r="BI139">
+        <v>1.29</v>
+      </c>
+      <c r="BJ139">
+        <v>3.15</v>
+      </c>
+      <c r="BK139">
+        <v>1.49</v>
+      </c>
+      <c r="BL139">
+        <v>2.4</v>
+      </c>
+      <c r="BM139">
+        <v>1.77</v>
+      </c>
+      <c r="BN139">
+        <v>1.92</v>
+      </c>
+      <c r="BO139">
+        <v>2.18</v>
+      </c>
+      <c r="BP139">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7466191</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45640.70833333334</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>5</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>7</v>
+      </c>
+      <c r="O140" t="s">
+        <v>189</v>
+      </c>
+      <c r="P140" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q140">
+        <v>1.57</v>
+      </c>
+      <c r="R140">
+        <v>2.88</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>1.22</v>
+      </c>
+      <c r="U140">
+        <v>4</v>
+      </c>
+      <c r="V140">
+        <v>2.1</v>
+      </c>
+      <c r="W140">
+        <v>1.67</v>
+      </c>
+      <c r="X140">
+        <v>4.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.18</v>
+      </c>
+      <c r="Z140">
+        <v>1.17</v>
+      </c>
+      <c r="AA140">
+        <v>6.8</v>
+      </c>
+      <c r="AB140">
+        <v>13</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>26</v>
+      </c>
+      <c r="AE140">
+        <v>1.12</v>
+      </c>
+      <c r="AF140">
+        <v>5.87</v>
+      </c>
+      <c r="AG140">
+        <v>1.54</v>
+      </c>
+      <c r="AH140">
+        <v>2.26</v>
+      </c>
+      <c r="AI140">
+        <v>2</v>
+      </c>
+      <c r="AJ140">
+        <v>1.75</v>
+      </c>
+      <c r="AK140">
+        <v>1.01</v>
+      </c>
+      <c r="AL140">
+        <v>1.07</v>
+      </c>
+      <c r="AM140">
+        <v>4.75</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>0.57</v>
+      </c>
+      <c r="AP140">
+        <v>2.13</v>
+      </c>
+      <c r="AQ140">
+        <v>0.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.81</v>
+      </c>
+      <c r="AS140">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT140">
+        <v>2.75</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>6</v>
+      </c>
+      <c r="BA140">
+        <v>10</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>10</v>
+      </c>
+      <c r="BD140">
+        <v>1.1</v>
+      </c>
+      <c r="BE140">
+        <v>11.5</v>
+      </c>
+      <c r="BF140">
+        <v>7</v>
+      </c>
+      <c r="BG140">
+        <v>1.15</v>
+      </c>
+      <c r="BH140">
+        <v>4.4</v>
+      </c>
+      <c r="BI140">
+        <v>1.29</v>
+      </c>
+      <c r="BJ140">
+        <v>3.2</v>
+      </c>
+      <c r="BK140">
+        <v>1.47</v>
+      </c>
+      <c r="BL140">
+        <v>2.43</v>
+      </c>
+      <c r="BM140">
+        <v>1.74</v>
+      </c>
+      <c r="BN140">
+        <v>1.95</v>
+      </c>
+      <c r="BO140">
+        <v>2.12</v>
+      </c>
+      <c r="BP140">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,15 @@
     <t>['31', '36', '45+3', '49', '90']</t>
   </si>
   <si>
+    <t>['12', '88', '90+7']</t>
+  </si>
+  <si>
+    <t>['24', '57']</t>
+  </si>
+  <si>
+    <t>['12', '40', '55']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -788,6 +797,12 @@
   </si>
   <si>
     <t>['43', '73']</t>
+  </si>
+  <si>
+    <t>['5', '63', '73']</t>
+  </si>
+  <si>
+    <t>['76', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1820,7 +1835,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
         <v>1.63</v>
@@ -2026,7 +2041,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2107,7 +2122,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2232,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2722,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2850,7 +2865,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3134,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ10">
         <v>0.38</v>
@@ -3343,7 +3358,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3752,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4086,7 +4101,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4167,7 +4182,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4292,7 +4307,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4498,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4988,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ19">
         <v>1.75</v>
@@ -5194,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5322,7 +5337,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5528,7 +5543,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5606,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>2.5</v>
@@ -5815,7 +5830,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6146,7 +6161,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6558,7 +6573,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6639,7 +6654,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ27">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -6845,7 +6860,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6970,7 +6985,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7382,7 +7397,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7588,7 +7603,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7666,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.63</v>
@@ -8490,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8618,7 +8633,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8902,7 +8917,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9030,7 +9045,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9236,7 +9251,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9729,7 +9744,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -9932,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
         <v>0.38</v>
@@ -10138,7 +10153,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10266,7 +10281,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10347,7 +10362,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10472,7 +10487,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10550,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10678,7 +10693,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10884,7 +10899,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11090,7 +11105,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11168,7 +11183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11296,7 +11311,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11377,7 +11392,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11502,7 +11517,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11914,7 +11929,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12120,7 +12135,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12326,7 +12341,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12532,7 +12547,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12610,7 +12625,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56">
         <v>2.25</v>
@@ -13025,7 +13040,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13228,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13562,7 +13577,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13768,7 +13783,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14258,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14592,7 +14607,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14670,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.25</v>
@@ -14798,7 +14813,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15416,7 +15431,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15494,10 +15509,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>2.32</v>
@@ -15703,7 +15718,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.43</v>
@@ -15828,7 +15843,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15909,7 +15924,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ72">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16034,7 +16049,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16318,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74">
         <v>0.38</v>
@@ -16446,7 +16461,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16652,7 +16667,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17064,7 +17079,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17270,7 +17285,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17476,7 +17491,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17969,7 +17984,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ82">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18300,7 +18315,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18378,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>0.25</v>
@@ -18712,7 +18727,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18790,7 +18805,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>2.25</v>
@@ -18996,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ87">
         <v>0.5</v>
@@ -19202,7 +19217,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ88">
         <v>1.38</v>
@@ -19330,7 +19345,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19536,7 +19551,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19742,7 +19757,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20154,7 +20169,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20232,7 +20247,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ93">
         <v>2.33</v>
@@ -20566,7 +20581,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20647,7 +20662,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.67</v>
@@ -20772,7 +20787,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21056,10 +21071,10 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ97">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21184,7 +21199,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21471,7 +21486,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21674,7 +21689,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22214,7 +22229,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22292,7 +22307,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>2.33</v>
@@ -22420,7 +22435,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22626,7 +22641,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22832,7 +22847,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -22910,7 +22925,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ106">
         <v>1.75</v>
@@ -23244,7 +23259,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23531,7 +23546,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -23862,7 +23877,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24149,7 +24164,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>2.46</v>
@@ -24274,7 +24289,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24480,7 +24495,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24558,7 +24573,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ114">
         <v>2.5</v>
@@ -24686,7 +24701,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24767,7 +24782,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ115">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24892,7 +24907,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25176,7 +25191,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25588,10 +25603,10 @@
         <v>0.33</v>
       </c>
       <c r="AP119">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26334,7 +26349,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26412,7 +26427,7 @@
         <v>2.57</v>
       </c>
       <c r="AP123">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>2.33</v>
@@ -26540,7 +26555,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26618,7 +26633,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26952,7 +26967,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27030,7 +27045,7 @@
         <v>1.83</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
         <v>1.75</v>
@@ -27158,7 +27173,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27236,7 +27251,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ127">
         <v>2.5</v>
@@ -27776,7 +27791,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -27982,7 +27997,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28188,7 +28203,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28806,7 +28821,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -29012,7 +29027,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29185,10 +29200,10 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
         <v>85</v>
@@ -29218,7 +29233,7 @@
         <v>91</v>
       </c>
       <c r="P137" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q137">
         <v>2.88</v>
@@ -29630,7 +29645,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29729,13 +29744,13 @@
         <v>8</v>
       </c>
       <c r="AW139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX139">
         <v>4</v>
       </c>
       <c r="AY139">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ139">
         <v>16</v>
@@ -29836,7 +29851,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -29993,6 +30008,1036 @@
       </c>
       <c r="BP140">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7466190</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45641.34375</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>6</v>
+      </c>
+      <c r="O141" t="s">
+        <v>190</v>
+      </c>
+      <c r="P141" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q141">
+        <v>2.6</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.33</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
+        <v>2.63</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>6.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.11</v>
+      </c>
+      <c r="Z141">
+        <v>2.06</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>3.2</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>13</v>
+      </c>
+      <c r="AE141">
+        <v>1.26</v>
+      </c>
+      <c r="AF141">
+        <v>3.67</v>
+      </c>
+      <c r="AG141">
+        <v>1.75</v>
+      </c>
+      <c r="AH141">
+        <v>1.95</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.33</v>
+      </c>
+      <c r="AL141">
+        <v>1.24</v>
+      </c>
+      <c r="AM141">
+        <v>1.78</v>
+      </c>
+      <c r="AN141">
+        <v>2.14</v>
+      </c>
+      <c r="AO141">
+        <v>1</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>1</v>
+      </c>
+      <c r="AR141">
+        <v>1.36</v>
+      </c>
+      <c r="AS141">
+        <v>1.11</v>
+      </c>
+      <c r="AT141">
+        <v>2.47</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>13</v>
+      </c>
+      <c r="AX141">
+        <v>2</v>
+      </c>
+      <c r="AY141">
+        <v>40</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>7</v>
+      </c>
+      <c r="BB141">
+        <v>1</v>
+      </c>
+      <c r="BC141">
+        <v>8</v>
+      </c>
+      <c r="BD141">
+        <v>1.61</v>
+      </c>
+      <c r="BE141">
+        <v>6.75</v>
+      </c>
+      <c r="BF141">
+        <v>2.55</v>
+      </c>
+      <c r="BG141">
+        <v>1.24</v>
+      </c>
+      <c r="BH141">
+        <v>3.55</v>
+      </c>
+      <c r="BI141">
+        <v>1.44</v>
+      </c>
+      <c r="BJ141">
+        <v>2.55</v>
+      </c>
+      <c r="BK141">
+        <v>1.72</v>
+      </c>
+      <c r="BL141">
+        <v>1.98</v>
+      </c>
+      <c r="BM141">
+        <v>2.1</v>
+      </c>
+      <c r="BN141">
+        <v>1.64</v>
+      </c>
+      <c r="BO141">
+        <v>2.65</v>
+      </c>
+      <c r="BP141">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7466189</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45641.4375</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>191</v>
+      </c>
+      <c r="P142" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q142">
+        <v>1.91</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.5</v>
+      </c>
+      <c r="W142">
+        <v>1.5</v>
+      </c>
+      <c r="X142">
+        <v>6.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.11</v>
+      </c>
+      <c r="Z142">
+        <v>1.35</v>
+      </c>
+      <c r="AA142">
+        <v>4.5</v>
+      </c>
+      <c r="AB142">
+        <v>7.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>19</v>
+      </c>
+      <c r="AE142">
+        <v>1.18</v>
+      </c>
+      <c r="AF142">
+        <v>4.65</v>
+      </c>
+      <c r="AG142">
+        <v>1.6</v>
+      </c>
+      <c r="AH142">
+        <v>2.2</v>
+      </c>
+      <c r="AI142">
+        <v>1.95</v>
+      </c>
+      <c r="AJ142">
+        <v>1.8</v>
+      </c>
+      <c r="AK142">
+        <v>1.07</v>
+      </c>
+      <c r="AL142">
+        <v>1.13</v>
+      </c>
+      <c r="AM142">
+        <v>3.1</v>
+      </c>
+      <c r="AN142">
+        <v>2.14</v>
+      </c>
+      <c r="AO142">
+        <v>0.57</v>
+      </c>
+      <c r="AP142">
+        <v>2.25</v>
+      </c>
+      <c r="AQ142">
+        <v>0.5</v>
+      </c>
+      <c r="AR142">
+        <v>2.08</v>
+      </c>
+      <c r="AS142">
+        <v>1.06</v>
+      </c>
+      <c r="AT142">
+        <v>3.14</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.3</v>
+      </c>
+      <c r="BE142">
+        <v>7.5</v>
+      </c>
+      <c r="BF142">
+        <v>3.7</v>
+      </c>
+      <c r="BG142">
+        <v>1.24</v>
+      </c>
+      <c r="BH142">
+        <v>3.55</v>
+      </c>
+      <c r="BI142">
+        <v>1.43</v>
+      </c>
+      <c r="BJ142">
+        <v>2.6</v>
+      </c>
+      <c r="BK142">
+        <v>1.7</v>
+      </c>
+      <c r="BL142">
+        <v>2</v>
+      </c>
+      <c r="BM142">
+        <v>2.08</v>
+      </c>
+      <c r="BN142">
+        <v>1.65</v>
+      </c>
+      <c r="BO142">
+        <v>2.65</v>
+      </c>
+      <c r="BP142">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7466193</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45641.4375</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>142</v>
+      </c>
+      <c r="P143" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q143">
+        <v>2.63</v>
+      </c>
+      <c r="R143">
+        <v>2.2</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>2.03</v>
+      </c>
+      <c r="AA143">
+        <v>3.1</v>
+      </c>
+      <c r="AB143">
+        <v>3.2</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>12</v>
+      </c>
+      <c r="AE143">
+        <v>1.28</v>
+      </c>
+      <c r="AF143">
+        <v>3.52</v>
+      </c>
+      <c r="AG143">
+        <v>1.85</v>
+      </c>
+      <c r="AH143">
+        <v>1.85</v>
+      </c>
+      <c r="AI143">
+        <v>1.75</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.3</v>
+      </c>
+      <c r="AL143">
+        <v>1.26</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.25</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.22</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1.53</v>
+      </c>
+      <c r="AS143">
+        <v>1.24</v>
+      </c>
+      <c r="AT143">
+        <v>2.77</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>7</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>22</v>
+      </c>
+      <c r="AZ143">
+        <v>17</v>
+      </c>
+      <c r="BA143">
+        <v>13</v>
+      </c>
+      <c r="BB143">
+        <v>6</v>
+      </c>
+      <c r="BC143">
+        <v>19</v>
+      </c>
+      <c r="BD143">
+        <v>1.96</v>
+      </c>
+      <c r="BE143">
+        <v>6.5</v>
+      </c>
+      <c r="BF143">
+        <v>2.02</v>
+      </c>
+      <c r="BG143">
+        <v>1.2</v>
+      </c>
+      <c r="BH143">
+        <v>3.95</v>
+      </c>
+      <c r="BI143">
+        <v>1.35</v>
+      </c>
+      <c r="BJ143">
+        <v>2.9</v>
+      </c>
+      <c r="BK143">
+        <v>1.58</v>
+      </c>
+      <c r="BL143">
+        <v>2.18</v>
+      </c>
+      <c r="BM143">
+        <v>1.93</v>
+      </c>
+      <c r="BN143">
+        <v>1.76</v>
+      </c>
+      <c r="BO143">
+        <v>2.43</v>
+      </c>
+      <c r="BP143">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7466188</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45641.53125</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>192</v>
+      </c>
+      <c r="P144" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q144">
+        <v>1.44</v>
+      </c>
+      <c r="R144">
+        <v>3.25</v>
+      </c>
+      <c r="S144">
+        <v>13</v>
+      </c>
+      <c r="T144">
+        <v>1.2</v>
+      </c>
+      <c r="U144">
+        <v>4.33</v>
+      </c>
+      <c r="V144">
+        <v>1.91</v>
+      </c>
+      <c r="W144">
+        <v>1.8</v>
+      </c>
+      <c r="X144">
+        <v>4</v>
+      </c>
+      <c r="Y144">
+        <v>1.22</v>
+      </c>
+      <c r="Z144">
+        <v>1.11</v>
+      </c>
+      <c r="AA144">
+        <v>7.7</v>
+      </c>
+      <c r="AB144">
+        <v>14</v>
+      </c>
+      <c r="AC144">
+        <v>1.01</v>
+      </c>
+      <c r="AD144">
+        <v>29</v>
+      </c>
+      <c r="AE144">
+        <v>1.1</v>
+      </c>
+      <c r="AF144">
+        <v>6.39</v>
+      </c>
+      <c r="AG144">
+        <v>1.33</v>
+      </c>
+      <c r="AH144">
+        <v>3.15</v>
+      </c>
+      <c r="AI144">
+        <v>2.2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.62</v>
+      </c>
+      <c r="AK144">
+        <v>1.01</v>
+      </c>
+      <c r="AL144">
+        <v>1.05</v>
+      </c>
+      <c r="AM144">
+        <v>6.5</v>
+      </c>
+      <c r="AN144">
+        <v>2.71</v>
+      </c>
+      <c r="AO144">
+        <v>0.29</v>
+      </c>
+      <c r="AP144">
+        <v>2.75</v>
+      </c>
+      <c r="AQ144">
+        <v>0.25</v>
+      </c>
+      <c r="AR144">
+        <v>1.74</v>
+      </c>
+      <c r="AS144">
+        <v>1.18</v>
+      </c>
+      <c r="AT144">
+        <v>2.92</v>
+      </c>
+      <c r="AU144">
+        <v>9</v>
+      </c>
+      <c r="AV144">
+        <v>0</v>
+      </c>
+      <c r="AW144">
+        <v>1</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+      <c r="AY144">
+        <v>15</v>
+      </c>
+      <c r="AZ144">
+        <v>5</v>
+      </c>
+      <c r="BA144">
+        <v>7</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.11</v>
+      </c>
+      <c r="BE144">
+        <v>10.5</v>
+      </c>
+      <c r="BF144">
+        <v>6.5</v>
+      </c>
+      <c r="BG144">
+        <v>1.22</v>
+      </c>
+      <c r="BH144">
+        <v>3.7</v>
+      </c>
+      <c r="BI144">
+        <v>1.38</v>
+      </c>
+      <c r="BJ144">
+        <v>2.7</v>
+      </c>
+      <c r="BK144">
+        <v>1.64</v>
+      </c>
+      <c r="BL144">
+        <v>2.1</v>
+      </c>
+      <c r="BM144">
+        <v>1.98</v>
+      </c>
+      <c r="BN144">
+        <v>1.72</v>
+      </c>
+      <c r="BO144">
+        <v>2.48</v>
+      </c>
+      <c r="BP144">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7466194</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45641.66666666666</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>87</v>
+      </c>
+      <c r="H145" t="s">
+        <v>82</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>89</v>
+      </c>
+      <c r="P145" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q145">
+        <v>4.33</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>2.63</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>3.2</v>
+      </c>
+      <c r="AA145">
+        <v>3.1</v>
+      </c>
+      <c r="AB145">
+        <v>2.02</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>13</v>
+      </c>
+      <c r="AE145">
+        <v>1.26</v>
+      </c>
+      <c r="AF145">
+        <v>3.67</v>
+      </c>
+      <c r="AG145">
+        <v>1.93</v>
+      </c>
+      <c r="AH145">
+        <v>1.88</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.95</v>
+      </c>
+      <c r="AK145">
+        <v>1.78</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.33</v>
+      </c>
+      <c r="AN145">
+        <v>2.14</v>
+      </c>
+      <c r="AO145">
+        <v>1.86</v>
+      </c>
+      <c r="AP145">
+        <v>1.88</v>
+      </c>
+      <c r="AQ145">
+        <v>2</v>
+      </c>
+      <c r="AR145">
+        <v>1.32</v>
+      </c>
+      <c r="AS145">
+        <v>1.41</v>
+      </c>
+      <c r="AT145">
+        <v>2.73</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>2</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+      <c r="AY145">
+        <v>5</v>
+      </c>
+      <c r="AZ145">
+        <v>16</v>
+      </c>
+      <c r="BA145">
+        <v>1</v>
+      </c>
+      <c r="BB145">
+        <v>7</v>
+      </c>
+      <c r="BC145">
+        <v>8</v>
+      </c>
+      <c r="BD145">
+        <v>2.63</v>
+      </c>
+      <c r="BE145">
+        <v>6.4</v>
+      </c>
+      <c r="BF145">
+        <v>1.6</v>
+      </c>
+      <c r="BG145">
+        <v>1.27</v>
+      </c>
+      <c r="BH145">
+        <v>3.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.45</v>
+      </c>
+      <c r="BK145">
+        <v>1.79</v>
+      </c>
+      <c r="BL145">
+        <v>1.9</v>
+      </c>
+      <c r="BM145">
+        <v>2.23</v>
+      </c>
+      <c r="BN145">
+        <v>1.56</v>
+      </c>
+      <c r="BO145">
+        <v>2.9</v>
+      </c>
+      <c r="BP145">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -586,10 +586,10 @@
     <t>['31', '36', '45+3', '49', '90']</t>
   </si>
   <si>
-    <t>['12', '88', '90+7']</t>
+    <t>['24', '57']</t>
   </si>
   <si>
-    <t>['24', '57']</t>
+    <t>['12', '88', '90+7']</t>
   </si>
   <si>
     <t>['12', '40', '55']</t>
@@ -30015,7 +30015,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7466190</v>
+        <v>7466189</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30024,49 +30024,49 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45641.34375</v>
+        <v>45640.875</v>
       </c>
       <c r="F141">
         <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="Q141">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="R141">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T141">
         <v>1.33</v>
@@ -30075,10 +30075,10 @@
         <v>3.25</v>
       </c>
       <c r="V141">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W141">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X141">
         <v>6.5</v>
@@ -30087,103 +30087,103 @@
         <v>1.11</v>
       </c>
       <c r="Z141">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="AA141">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AB141">
-        <v>3.2</v>
+        <v>7.1</v>
       </c>
       <c r="AC141">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD141">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE141">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AF141">
-        <v>3.67</v>
+        <v>4.65</v>
       </c>
       <c r="AG141">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AH141">
+        <v>2.2</v>
+      </c>
+      <c r="AI141">
         <v>1.95</v>
       </c>
-      <c r="AI141">
-        <v>1.62</v>
-      </c>
       <c r="AJ141">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK141">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AL141">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AM141">
-        <v>1.78</v>
+        <v>3.1</v>
       </c>
       <c r="AN141">
         <v>2.14</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="AS141">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AT141">
-        <v>2.47</v>
+        <v>3.14</v>
       </c>
       <c r="AU141">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV141">
         <v>4</v>
       </c>
       <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
         <v>13</v>
-      </c>
-      <c r="AX141">
-        <v>2</v>
-      </c>
-      <c r="AY141">
-        <v>40</v>
       </c>
       <c r="AZ141">
         <v>10</v>
       </c>
       <c r="BA141">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC141">
         <v>8</v>
       </c>
       <c r="BD141">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="BE141">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF141">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="BG141">
         <v>1.24</v>
@@ -30192,28 +30192,28 @@
         <v>3.55</v>
       </c>
       <c r="BI141">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BJ141">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK141">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="BL141">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM141">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BN141">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="BO141">
         <v>2.65</v>
       </c>
       <c r="BP141">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30221,7 +30221,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7466189</v>
+        <v>7466193</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30230,196 +30230,196 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45641.4375</v>
+        <v>45640.875</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142">
         <v>2</v>
       </c>
       <c r="O142" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="P142" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q142">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="R142">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S142">
+        <v>4</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>2.75</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
+      <c r="Y142">
+        <v>1.08</v>
+      </c>
+      <c r="Z142">
+        <v>2.03</v>
+      </c>
+      <c r="AA142">
+        <v>3.1</v>
+      </c>
+      <c r="AB142">
+        <v>3.2</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>12</v>
+      </c>
+      <c r="AE142">
+        <v>1.28</v>
+      </c>
+      <c r="AF142">
+        <v>3.52</v>
+      </c>
+      <c r="AG142">
+        <v>1.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.85</v>
+      </c>
+      <c r="AI142">
+        <v>1.75</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1.3</v>
+      </c>
+      <c r="AL142">
+        <v>1.26</v>
+      </c>
+      <c r="AM142">
+        <v>1.8</v>
+      </c>
+      <c r="AN142">
+        <v>1.25</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>1.22</v>
+      </c>
+      <c r="AQ142">
+        <v>1</v>
+      </c>
+      <c r="AR142">
+        <v>1.53</v>
+      </c>
+      <c r="AS142">
+        <v>1.24</v>
+      </c>
+      <c r="AT142">
+        <v>2.77</v>
+      </c>
+      <c r="AU142">
+        <v>8</v>
+      </c>
+      <c r="AV142">
         <v>7</v>
       </c>
-      <c r="T142">
-        <v>1.33</v>
-      </c>
-      <c r="U142">
-        <v>3.25</v>
-      </c>
-      <c r="V142">
-        <v>2.5</v>
-      </c>
-      <c r="W142">
-        <v>1.5</v>
-      </c>
-      <c r="X142">
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>7</v>
+      </c>
+      <c r="AY142">
+        <v>22</v>
+      </c>
+      <c r="AZ142">
+        <v>17</v>
+      </c>
+      <c r="BA142">
+        <v>13</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>19</v>
+      </c>
+      <c r="BD142">
+        <v>1.96</v>
+      </c>
+      <c r="BE142">
         <v>6.5</v>
       </c>
-      <c r="Y142">
-        <v>1.11</v>
-      </c>
-      <c r="Z142">
+      <c r="BF142">
+        <v>2.02</v>
+      </c>
+      <c r="BG142">
+        <v>1.2</v>
+      </c>
+      <c r="BH142">
+        <v>3.95</v>
+      </c>
+      <c r="BI142">
         <v>1.35</v>
       </c>
-      <c r="AA142">
-        <v>4.5</v>
-      </c>
-      <c r="AB142">
-        <v>7.1</v>
-      </c>
-      <c r="AC142">
-        <v>1.02</v>
-      </c>
-      <c r="AD142">
-        <v>19</v>
-      </c>
-      <c r="AE142">
-        <v>1.18</v>
-      </c>
-      <c r="AF142">
-        <v>4.65</v>
-      </c>
-      <c r="AG142">
-        <v>1.6</v>
-      </c>
-      <c r="AH142">
-        <v>2.2</v>
-      </c>
-      <c r="AI142">
-        <v>1.95</v>
-      </c>
-      <c r="AJ142">
-        <v>1.8</v>
-      </c>
-      <c r="AK142">
-        <v>1.07</v>
-      </c>
-      <c r="AL142">
-        <v>1.13</v>
-      </c>
-      <c r="AM142">
-        <v>3.1</v>
-      </c>
-      <c r="AN142">
-        <v>2.14</v>
-      </c>
-      <c r="AO142">
-        <v>0.57</v>
-      </c>
-      <c r="AP142">
-        <v>2.25</v>
-      </c>
-      <c r="AQ142">
-        <v>0.5</v>
-      </c>
-      <c r="AR142">
-        <v>2.08</v>
-      </c>
-      <c r="AS142">
-        <v>1.06</v>
-      </c>
-      <c r="AT142">
-        <v>3.14</v>
-      </c>
-      <c r="AU142">
-        <v>6</v>
-      </c>
-      <c r="AV142">
-        <v>4</v>
-      </c>
-      <c r="AW142">
-        <v>4</v>
-      </c>
-      <c r="AX142">
-        <v>4</v>
-      </c>
-      <c r="AY142">
-        <v>13</v>
-      </c>
-      <c r="AZ142">
-        <v>10</v>
-      </c>
-      <c r="BA142">
-        <v>3</v>
-      </c>
-      <c r="BB142">
-        <v>5</v>
-      </c>
-      <c r="BC142">
-        <v>8</v>
-      </c>
-      <c r="BD142">
-        <v>1.3</v>
-      </c>
-      <c r="BE142">
-        <v>7.5</v>
-      </c>
-      <c r="BF142">
-        <v>3.7</v>
-      </c>
-      <c r="BG142">
-        <v>1.24</v>
-      </c>
-      <c r="BH142">
-        <v>3.55</v>
-      </c>
-      <c r="BI142">
-        <v>1.43</v>
-      </c>
       <c r="BJ142">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BK142">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BL142">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="BM142">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="BN142">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="BO142">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BP142">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30427,7 +30427,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7466193</v>
+        <v>7466190</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30436,196 +30436,196 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45641.4375</v>
+        <v>45641.34375</v>
       </c>
       <c r="F143">
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O143" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="Q143">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R143">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S143">
         <v>4</v>
       </c>
       <c r="T143">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V143">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X143">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y143">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z143">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AA143">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB143">
         <v>3.2</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE143">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF143">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="AG143">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI143">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ143">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK143">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL143">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM143">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AN143">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>1</v>
       </c>
       <c r="AR143">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AS143">
+        <v>1.11</v>
+      </c>
+      <c r="AT143">
+        <v>2.47</v>
+      </c>
+      <c r="AU143">
+        <v>9</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>13</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>40</v>
+      </c>
+      <c r="AZ143">
+        <v>10</v>
+      </c>
+      <c r="BA143">
+        <v>7</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.61</v>
+      </c>
+      <c r="BE143">
+        <v>6.75</v>
+      </c>
+      <c r="BF143">
+        <v>2.55</v>
+      </c>
+      <c r="BG143">
         <v>1.24</v>
       </c>
-      <c r="AT143">
-        <v>2.77</v>
-      </c>
-      <c r="AU143">
-        <v>8</v>
-      </c>
-      <c r="AV143">
-        <v>7</v>
-      </c>
-      <c r="AW143">
-        <v>6</v>
-      </c>
-      <c r="AX143">
-        <v>7</v>
-      </c>
-      <c r="AY143">
-        <v>22</v>
-      </c>
-      <c r="AZ143">
-        <v>17</v>
-      </c>
-      <c r="BA143">
-        <v>13</v>
-      </c>
-      <c r="BB143">
-        <v>6</v>
-      </c>
-      <c r="BC143">
-        <v>19</v>
-      </c>
-      <c r="BD143">
-        <v>1.96</v>
-      </c>
-      <c r="BE143">
-        <v>6.5</v>
-      </c>
-      <c r="BF143">
-        <v>2.02</v>
-      </c>
-      <c r="BG143">
-        <v>1.2</v>
-      </c>
       <c r="BH143">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="BI143">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BJ143">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BK143">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BL143">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BM143">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="BN143">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="BO143">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BP143">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="144" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -586,10 +586,10 @@
     <t>['31', '36', '45+3', '49', '90']</t>
   </si>
   <si>
-    <t>['24', '57']</t>
+    <t>['12', '88', '90+7']</t>
   </si>
   <si>
-    <t>['12', '88', '90+7']</t>
+    <t>['24', '57']</t>
   </si>
   <si>
     <t>['12', '40', '55']</t>
@@ -30015,7 +30015,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7466189</v>
+        <v>7466190</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30024,49 +30024,49 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45640.875</v>
+        <v>45641.34375</v>
       </c>
       <c r="F141">
         <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H141" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O141" t="s">
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="Q141">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="R141">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S141">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T141">
         <v>1.33</v>
@@ -30075,10 +30075,10 @@
         <v>3.25</v>
       </c>
       <c r="V141">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X141">
         <v>6.5</v>
@@ -30087,103 +30087,103 @@
         <v>1.11</v>
       </c>
       <c r="Z141">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="AA141">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB141">
-        <v>7.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC141">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD141">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE141">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AF141">
-        <v>4.65</v>
+        <v>3.67</v>
       </c>
       <c r="AG141">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AH141">
+        <v>1.95</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
         <v>2.2</v>
       </c>
-      <c r="AI141">
-        <v>1.95</v>
-      </c>
-      <c r="AJ141">
-        <v>1.8</v>
-      </c>
       <c r="AK141">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AL141">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AM141">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="AN141">
         <v>2.14</v>
       </c>
       <c r="AO141">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR141">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AT141">
-        <v>3.14</v>
+        <v>2.47</v>
       </c>
       <c r="AU141">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV141">
         <v>4</v>
       </c>
       <c r="AW141">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AX141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY141">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AZ141">
         <v>10</v>
       </c>
       <c r="BA141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC141">
         <v>8</v>
       </c>
       <c r="BD141">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="BE141">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF141">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="BG141">
         <v>1.24</v>
@@ -30192,28 +30192,28 @@
         <v>3.55</v>
       </c>
       <c r="BI141">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BJ141">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BK141">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="BL141">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BM141">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BN141">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BO141">
         <v>2.65</v>
       </c>
       <c r="BP141">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30221,7 +30221,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7466193</v>
+        <v>7466189</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30230,196 +30230,196 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45640.875</v>
+        <v>45641.4375</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>2</v>
       </c>
       <c r="O142" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Q142">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.5</v>
+      </c>
+      <c r="W142">
+        <v>1.5</v>
+      </c>
+      <c r="X142">
+        <v>6.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.11</v>
+      </c>
+      <c r="Z142">
+        <v>1.35</v>
+      </c>
+      <c r="AA142">
+        <v>4.5</v>
+      </c>
+      <c r="AB142">
+        <v>7.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>19</v>
+      </c>
+      <c r="AE142">
+        <v>1.18</v>
+      </c>
+      <c r="AF142">
+        <v>4.65</v>
+      </c>
+      <c r="AG142">
+        <v>1.6</v>
+      </c>
+      <c r="AH142">
         <v>2.2</v>
       </c>
-      <c r="S142">
+      <c r="AI142">
+        <v>1.95</v>
+      </c>
+      <c r="AJ142">
+        <v>1.8</v>
+      </c>
+      <c r="AK142">
+        <v>1.07</v>
+      </c>
+      <c r="AL142">
+        <v>1.13</v>
+      </c>
+      <c r="AM142">
+        <v>3.1</v>
+      </c>
+      <c r="AN142">
+        <v>2.14</v>
+      </c>
+      <c r="AO142">
+        <v>0.57</v>
+      </c>
+      <c r="AP142">
+        <v>2.25</v>
+      </c>
+      <c r="AQ142">
+        <v>0.5</v>
+      </c>
+      <c r="AR142">
+        <v>2.08</v>
+      </c>
+      <c r="AS142">
+        <v>1.06</v>
+      </c>
+      <c r="AT142">
+        <v>3.14</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
         <v>4</v>
       </c>
-      <c r="T142">
-        <v>1.4</v>
-      </c>
-      <c r="U142">
-        <v>2.75</v>
-      </c>
-      <c r="V142">
-        <v>2.75</v>
-      </c>
-      <c r="W142">
-        <v>1.4</v>
-      </c>
-      <c r="X142">
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
         <v>8</v>
       </c>
-      <c r="Y142">
-        <v>1.08</v>
-      </c>
-      <c r="Z142">
-        <v>2.03</v>
-      </c>
-      <c r="AA142">
-        <v>3.1</v>
-      </c>
-      <c r="AB142">
-        <v>3.2</v>
-      </c>
-      <c r="AC142">
-        <v>1.05</v>
-      </c>
-      <c r="AD142">
-        <v>12</v>
-      </c>
-      <c r="AE142">
-        <v>1.28</v>
-      </c>
-      <c r="AF142">
-        <v>3.52</v>
-      </c>
-      <c r="AG142">
-        <v>1.85</v>
-      </c>
-      <c r="AH142">
-        <v>1.85</v>
-      </c>
-      <c r="AI142">
-        <v>1.75</v>
-      </c>
-      <c r="AJ142">
-        <v>2</v>
-      </c>
-      <c r="AK142">
+      <c r="BD142">
         <v>1.3</v>
       </c>
-      <c r="AL142">
-        <v>1.26</v>
-      </c>
-      <c r="AM142">
-        <v>1.8</v>
-      </c>
-      <c r="AN142">
-        <v>1.25</v>
-      </c>
-      <c r="AO142">
-        <v>1</v>
-      </c>
-      <c r="AP142">
-        <v>1.22</v>
-      </c>
-      <c r="AQ142">
-        <v>1</v>
-      </c>
-      <c r="AR142">
-        <v>1.53</v>
-      </c>
-      <c r="AS142">
+      <c r="BE142">
+        <v>7.5</v>
+      </c>
+      <c r="BF142">
+        <v>3.7</v>
+      </c>
+      <c r="BG142">
         <v>1.24</v>
       </c>
-      <c r="AT142">
-        <v>2.77</v>
-      </c>
-      <c r="AU142">
-        <v>8</v>
-      </c>
-      <c r="AV142">
-        <v>7</v>
-      </c>
-      <c r="AW142">
-        <v>6</v>
-      </c>
-      <c r="AX142">
-        <v>7</v>
-      </c>
-      <c r="AY142">
-        <v>22</v>
-      </c>
-      <c r="AZ142">
-        <v>17</v>
-      </c>
-      <c r="BA142">
-        <v>13</v>
-      </c>
-      <c r="BB142">
-        <v>6</v>
-      </c>
-      <c r="BC142">
-        <v>19</v>
-      </c>
-      <c r="BD142">
-        <v>1.96</v>
-      </c>
-      <c r="BE142">
-        <v>6.5</v>
-      </c>
-      <c r="BF142">
-        <v>2.02</v>
-      </c>
-      <c r="BG142">
-        <v>1.2</v>
-      </c>
       <c r="BH142">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="BI142">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="BJ142">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BK142">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BL142">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="BM142">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="BN142">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="BO142">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BP142">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30427,7 +30427,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7466190</v>
+        <v>7466193</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30436,196 +30436,196 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45641.34375</v>
+        <v>45641.4375</v>
       </c>
       <c r="F143">
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H143" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="Q143">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R143">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S143">
         <v>4</v>
       </c>
       <c r="T143">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W143">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y143">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z143">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AA143">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB143">
         <v>3.2</v>
       </c>
       <c r="AC143">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD143">
+        <v>12</v>
+      </c>
+      <c r="AE143">
+        <v>1.28</v>
+      </c>
+      <c r="AF143">
+        <v>3.52</v>
+      </c>
+      <c r="AG143">
+        <v>1.85</v>
+      </c>
+      <c r="AH143">
+        <v>1.85</v>
+      </c>
+      <c r="AI143">
+        <v>1.75</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.3</v>
+      </c>
+      <c r="AL143">
+        <v>1.26</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.25</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.22</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1.53</v>
+      </c>
+      <c r="AS143">
+        <v>1.24</v>
+      </c>
+      <c r="AT143">
+        <v>2.77</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>7</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>22</v>
+      </c>
+      <c r="AZ143">
+        <v>17</v>
+      </c>
+      <c r="BA143">
         <v>13</v>
       </c>
-      <c r="AE143">
-        <v>1.26</v>
-      </c>
-      <c r="AF143">
-        <v>3.67</v>
-      </c>
-      <c r="AG143">
-        <v>1.75</v>
-      </c>
-      <c r="AH143">
-        <v>1.95</v>
-      </c>
-      <c r="AI143">
-        <v>1.62</v>
-      </c>
-      <c r="AJ143">
-        <v>2.2</v>
-      </c>
-      <c r="AK143">
-        <v>1.33</v>
-      </c>
-      <c r="AL143">
-        <v>1.24</v>
-      </c>
-      <c r="AM143">
-        <v>1.78</v>
-      </c>
-      <c r="AN143">
-        <v>2.14</v>
-      </c>
-      <c r="AO143">
-        <v>1</v>
-      </c>
-      <c r="AP143">
-        <v>2</v>
-      </c>
-      <c r="AQ143">
-        <v>1</v>
-      </c>
-      <c r="AR143">
-        <v>1.36</v>
-      </c>
-      <c r="AS143">
-        <v>1.11</v>
-      </c>
-      <c r="AT143">
-        <v>2.47</v>
-      </c>
-      <c r="AU143">
-        <v>9</v>
-      </c>
-      <c r="AV143">
-        <v>4</v>
-      </c>
-      <c r="AW143">
-        <v>13</v>
-      </c>
-      <c r="AX143">
-        <v>2</v>
-      </c>
-      <c r="AY143">
-        <v>40</v>
-      </c>
-      <c r="AZ143">
-        <v>10</v>
-      </c>
-      <c r="BA143">
-        <v>7</v>
-      </c>
       <c r="BB143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC143">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BD143">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="BE143">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF143">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="BG143">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH143">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="BI143">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BJ143">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BK143">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="BL143">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="BM143">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="BN143">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="BO143">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BP143">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="144" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1164,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -5212,7 +5212,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -6651,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -8508,7 +8508,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -10771,7 +10771,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -13655,7 +13655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -15306,7 +15306,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -16539,7 +16539,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ75">
         <v>1.63</v>
@@ -18190,7 +18190,7 @@
         <v>3</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -20868,7 +20868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21483,7 +21483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ99">
         <v>0.25</v>
@@ -22513,7 +22513,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ104">
         <v>0.86</v>
@@ -25194,7 +25194,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -28075,7 +28075,7 @@
         <v>2.14</v>
       </c>
       <c r="AP131">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ131">
         <v>2.25</v>
@@ -28490,7 +28490,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133">
         <v>1.23</v>
@@ -31038,6 +31038,212 @@
       </c>
       <c r="BP145">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7466203</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>83</v>
+      </c>
+      <c r="H146" t="s">
+        <v>85</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>139</v>
+      </c>
+      <c r="P146" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q146">
+        <v>3.4</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>2.88</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.5</v>
+      </c>
+      <c r="W146">
+        <v>1.5</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>2.8</v>
+      </c>
+      <c r="AA146">
+        <v>3.6</v>
+      </c>
+      <c r="AB146">
+        <v>2.37</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>15</v>
+      </c>
+      <c r="AE146">
+        <v>1.21</v>
+      </c>
+      <c r="AF146">
+        <v>4.25</v>
+      </c>
+      <c r="AG146">
+        <v>1.67</v>
+      </c>
+      <c r="AH146">
+        <v>2.1</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.2</v>
+      </c>
+      <c r="AK146">
+        <v>1.63</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.44</v>
+      </c>
+      <c r="AN146">
+        <v>0.5</v>
+      </c>
+      <c r="AO146">
+        <v>0.5</v>
+      </c>
+      <c r="AP146">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ146">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR146">
+        <v>1.16</v>
+      </c>
+      <c r="AS146">
+        <v>0.95</v>
+      </c>
+      <c r="AT146">
+        <v>2.11</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>12</v>
+      </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
+      <c r="BB146">
+        <v>4</v>
+      </c>
+      <c r="BC146">
+        <v>11</v>
+      </c>
+      <c r="BD146">
+        <v>1.7</v>
+      </c>
+      <c r="BE146">
+        <v>6.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.4</v>
+      </c>
+      <c r="BG146">
+        <v>1.23</v>
+      </c>
+      <c r="BH146">
+        <v>3.65</v>
+      </c>
+      <c r="BI146">
+        <v>1.41</v>
+      </c>
+      <c r="BJ146">
+        <v>2.65</v>
+      </c>
+      <c r="BK146">
+        <v>1.66</v>
+      </c>
+      <c r="BL146">
+        <v>2.06</v>
+      </c>
+      <c r="BM146">
+        <v>2</v>
+      </c>
+      <c r="BN146">
+        <v>1.8</v>
+      </c>
+      <c r="BO146">
+        <v>2.6</v>
+      </c>
+      <c r="BP146">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['12', '40', '55']</t>
   </si>
   <si>
+    <t>['56', '60']</t>
+  </si>
+  <si>
+    <t>['52', '56', '90+2']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1510,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1835,7 +1841,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1916,7 +1922,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2047,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2247,7 +2253,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2865,7 +2871,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2943,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3152,7 +3158,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ10">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3973,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4101,7 +4107,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4307,7 +4313,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4513,7 +4519,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5337,7 +5343,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5415,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5543,7 +5549,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6161,7 +6167,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6445,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
         <v>0.25</v>
@@ -6573,7 +6579,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6857,7 +6863,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6985,7 +6991,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7272,7 +7278,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7397,7 +7403,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7603,7 +7609,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7684,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8633,7 +8639,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9045,7 +9051,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9123,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ39">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>1.82</v>
@@ -9251,7 +9257,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9950,7 +9956,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>2.19</v>
@@ -10281,7 +10287,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10487,7 +10493,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10693,7 +10699,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10899,7 +10905,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10977,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ48">
         <v>1.75</v>
@@ -11105,7 +11111,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11311,7 +11317,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11517,7 +11523,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11595,10 +11601,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11804,7 +11810,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -11929,7 +11935,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12135,7 +12141,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12216,7 +12222,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12341,7 +12347,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12547,7 +12553,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13246,7 +13252,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13577,7 +13583,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13783,7 +13789,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13861,7 +13867,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>2.5</v>
@@ -14067,7 +14073,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ63">
         <v>1.38</v>
@@ -14607,7 +14613,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14813,7 +14819,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14891,7 +14897,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -15100,7 +15106,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15431,7 +15437,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15843,7 +15849,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16049,7 +16055,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16127,7 +16133,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73">
         <v>2.33</v>
@@ -16336,7 +16342,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ74">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.44</v>
@@ -16461,7 +16467,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16542,7 +16548,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -16667,7 +16673,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16745,7 +16751,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76">
         <v>2.25</v>
@@ -17079,7 +17085,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17285,7 +17291,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17491,7 +17497,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17572,7 +17578,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17775,7 +17781,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18315,7 +18321,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18727,7 +18733,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19345,7 +19351,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19423,7 +19429,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19551,7 +19557,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19757,7 +19763,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19838,7 +19844,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20044,7 +20050,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.39</v>
@@ -20169,7 +20175,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20456,7 +20462,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20581,7 +20587,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20787,7 +20793,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -20865,7 +20871,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21199,7 +21205,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22229,7 +22235,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22435,7 +22441,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22641,7 +22647,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22719,7 +22725,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ105">
         <v>2.25</v>
@@ -22847,7 +22853,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23259,7 +23265,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23337,7 +23343,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23543,7 +23549,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>0.25</v>
@@ -23752,7 +23758,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -23877,7 +23883,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24289,7 +24295,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24370,7 +24376,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.21</v>
@@ -24495,7 +24501,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24701,7 +24707,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24907,7 +24913,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24988,7 +24994,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR116">
         <v>1.02</v>
@@ -26349,7 +26355,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26555,7 +26561,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26839,7 +26845,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -26967,7 +26973,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27173,7 +27179,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27460,7 +27466,7 @@
         <v>3</v>
       </c>
       <c r="AQ128">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR128">
         <v>2.46</v>
@@ -27663,7 +27669,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ129">
         <v>0.86</v>
@@ -27791,7 +27797,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -27872,7 +27878,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -27997,7 +28003,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28203,7 +28209,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28693,7 +28699,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -28821,7 +28827,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28902,7 +28908,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR135">
         <v>1.12</v>
@@ -29027,7 +29033,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29105,7 +29111,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ136">
         <v>2.5</v>
@@ -29233,7 +29239,7 @@
         <v>91</v>
       </c>
       <c r="P137" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q137">
         <v>2.88</v>
@@ -29645,7 +29651,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29851,7 +29857,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30057,7 +30063,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30881,7 +30887,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31087,7 +31093,7 @@
         <v>139</v>
       </c>
       <c r="P146" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31244,6 +31250,624 @@
       </c>
       <c r="BP146">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7466200</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45647.52083333334</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>77</v>
+      </c>
+      <c r="H147" t="s">
+        <v>87</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>193</v>
+      </c>
+      <c r="P147" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q147">
+        <v>2.25</v>
+      </c>
+      <c r="R147">
+        <v>2.3</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.11</v>
+      </c>
+      <c r="Z147">
+        <v>1.63</v>
+      </c>
+      <c r="AA147">
+        <v>3.58</v>
+      </c>
+      <c r="AB147">
+        <v>4.65</v>
+      </c>
+      <c r="AC147">
+        <v>1.03</v>
+      </c>
+      <c r="AD147">
+        <v>15</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>4.08</v>
+      </c>
+      <c r="AG147">
+        <v>1.67</v>
+      </c>
+      <c r="AH147">
+        <v>2.15</v>
+      </c>
+      <c r="AI147">
+        <v>1.75</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.18</v>
+      </c>
+      <c r="AL147">
+        <v>1.2</v>
+      </c>
+      <c r="AM147">
+        <v>2.3</v>
+      </c>
+      <c r="AN147">
+        <v>1.75</v>
+      </c>
+      <c r="AO147">
+        <v>0.88</v>
+      </c>
+      <c r="AP147">
+        <v>1.89</v>
+      </c>
+      <c r="AQ147">
+        <v>0.78</v>
+      </c>
+      <c r="AR147">
+        <v>1.7</v>
+      </c>
+      <c r="AS147">
+        <v>1.02</v>
+      </c>
+      <c r="AT147">
+        <v>2.72</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>14</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>30</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
+        <v>11</v>
+      </c>
+      <c r="BB147">
+        <v>7</v>
+      </c>
+      <c r="BC147">
+        <v>18</v>
+      </c>
+      <c r="BD147">
+        <v>1.5</v>
+      </c>
+      <c r="BE147">
+        <v>6.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.9</v>
+      </c>
+      <c r="BG147">
+        <v>1.24</v>
+      </c>
+      <c r="BH147">
+        <v>3.55</v>
+      </c>
+      <c r="BI147">
+        <v>1.44</v>
+      </c>
+      <c r="BJ147">
+        <v>2.55</v>
+      </c>
+      <c r="BK147">
+        <v>1.72</v>
+      </c>
+      <c r="BL147">
+        <v>1.98</v>
+      </c>
+      <c r="BM147">
+        <v>2.12</v>
+      </c>
+      <c r="BN147">
+        <v>1.62</v>
+      </c>
+      <c r="BO147">
+        <v>2.7</v>
+      </c>
+      <c r="BP147">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7466197</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45647.61458333334</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>194</v>
+      </c>
+      <c r="P148" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q148">
+        <v>3.75</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>2.88</v>
+      </c>
+      <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>8</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>3.35</v>
+      </c>
+      <c r="AA148">
+        <v>1.63</v>
+      </c>
+      <c r="AB148">
+        <v>5.09</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>11</v>
+      </c>
+      <c r="AE148">
+        <v>1.28</v>
+      </c>
+      <c r="AF148">
+        <v>3.52</v>
+      </c>
+      <c r="AG148">
+        <v>1.88</v>
+      </c>
+      <c r="AH148">
+        <v>2</v>
+      </c>
+      <c r="AI148">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.68</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.36</v>
+      </c>
+      <c r="AN148">
+        <v>0.5</v>
+      </c>
+      <c r="AO148">
+        <v>0.38</v>
+      </c>
+      <c r="AP148">
+        <v>0.78</v>
+      </c>
+      <c r="AQ148">
+        <v>0.33</v>
+      </c>
+      <c r="AR148">
+        <v>1.21</v>
+      </c>
+      <c r="AS148">
+        <v>1.24</v>
+      </c>
+      <c r="AT148">
+        <v>2.45</v>
+      </c>
+      <c r="AU148">
+        <v>9</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>12</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>9</v>
+      </c>
+      <c r="BD148">
+        <v>2.23</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>1.77</v>
+      </c>
+      <c r="BG148">
+        <v>1.19</v>
+      </c>
+      <c r="BH148">
+        <v>4.1</v>
+      </c>
+      <c r="BI148">
+        <v>1.32</v>
+      </c>
+      <c r="BJ148">
+        <v>3</v>
+      </c>
+      <c r="BK148">
+        <v>1.54</v>
+      </c>
+      <c r="BL148">
+        <v>2.28</v>
+      </c>
+      <c r="BM148">
+        <v>1.86</v>
+      </c>
+      <c r="BN148">
+        <v>1.82</v>
+      </c>
+      <c r="BO148">
+        <v>2.32</v>
+      </c>
+      <c r="BP148">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7466198</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45647.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>82</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>172</v>
+      </c>
+      <c r="P149" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2.25</v>
+      </c>
+      <c r="S149">
+        <v>3.4</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.25</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>6.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.11</v>
+      </c>
+      <c r="Z149">
+        <v>3.48</v>
+      </c>
+      <c r="AA149">
+        <v>1.96</v>
+      </c>
+      <c r="AB149">
+        <v>3.23</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>13</v>
+      </c>
+      <c r="AE149">
+        <v>1.22</v>
+      </c>
+      <c r="AF149">
+        <v>4.08</v>
+      </c>
+      <c r="AG149">
+        <v>1.6</v>
+      </c>
+      <c r="AH149">
+        <v>2.15</v>
+      </c>
+      <c r="AI149">
+        <v>1.62</v>
+      </c>
+      <c r="AJ149">
+        <v>2.2</v>
+      </c>
+      <c r="AK149">
+        <v>1.4</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.65</v>
+      </c>
+      <c r="AN149">
+        <v>1.63</v>
+      </c>
+      <c r="AO149">
+        <v>1.63</v>
+      </c>
+      <c r="AP149">
+        <v>1.78</v>
+      </c>
+      <c r="AQ149">
+        <v>1.44</v>
+      </c>
+      <c r="AR149">
+        <v>1.83</v>
+      </c>
+      <c r="AS149">
+        <v>1.62</v>
+      </c>
+      <c r="AT149">
+        <v>3.45</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>3</v>
+      </c>
+      <c r="AY149">
+        <v>12</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>6</v>
+      </c>
+      <c r="BD149">
+        <v>1.73</v>
+      </c>
+      <c r="BE149">
+        <v>6.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.33</v>
+      </c>
+      <c r="BG149">
+        <v>1.29</v>
+      </c>
+      <c r="BH149">
+        <v>3.2</v>
+      </c>
+      <c r="BI149">
+        <v>1.5</v>
+      </c>
+      <c r="BJ149">
+        <v>2.38</v>
+      </c>
+      <c r="BK149">
+        <v>1.82</v>
+      </c>
+      <c r="BL149">
+        <v>1.86</v>
+      </c>
+      <c r="BM149">
+        <v>2.3</v>
+      </c>
+      <c r="BN149">
+        <v>1.53</v>
+      </c>
+      <c r="BO149">
+        <v>2.95</v>
+      </c>
+      <c r="BP149">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,15 @@
     <t>['52', '56', '90+2']</t>
   </si>
   <si>
+    <t>['19', '27', '63']</t>
+  </si>
+  <si>
+    <t>['6', '57']</t>
+  </si>
+  <si>
+    <t>['20', '33', '63', '86']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -809,6 +818,12 @@
   </si>
   <si>
     <t>['76', '90+2']</t>
+  </si>
+  <si>
+    <t>['77', '87']</t>
+  </si>
+  <si>
+    <t>['56', '75', '78', '85', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,7 +1856,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2047,7 +2062,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2253,7 +2268,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2537,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2743,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
         <v>0.5600000000000001</v>
@@ -2871,7 +2886,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2952,7 +2967,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3982,7 +3997,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,7 +4122,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4313,7 +4328,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4519,7 +4534,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4600,7 +4615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4803,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5012,7 +5027,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5343,7 +5358,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5549,7 +5564,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6167,7 +6182,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6245,10 +6260,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6579,7 +6594,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6991,7 +7006,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7072,7 +7087,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7403,7 +7418,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7481,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7609,7 +7624,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7687,7 +7702,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>1.44</v>
@@ -8308,7 +8323,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8639,7 +8654,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8720,7 +8735,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8926,7 +8941,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -9051,7 +9066,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9257,7 +9272,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9335,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9541,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
         <v>0.25</v>
@@ -10162,7 +10177,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ44">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR44">
         <v>1.45</v>
@@ -10287,7 +10302,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10493,7 +10508,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10571,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10699,7 +10714,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10905,7 +10920,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10986,7 +11001,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11111,7 +11126,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11317,7 +11332,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11523,7 +11538,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11935,7 +11950,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12141,7 +12156,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12347,7 +12362,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12425,7 +12440,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12553,7 +12568,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12634,7 +12649,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -12837,10 +12852,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13583,7 +13598,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13664,7 +13679,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13789,7 +13804,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14282,7 +14297,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14613,7 +14628,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14691,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66">
         <v>0.25</v>
@@ -14819,7 +14834,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15437,7 +15452,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15849,7 +15864,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15927,7 +15942,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ72">
         <v>0.25</v>
@@ -16055,7 +16070,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16467,7 +16482,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16673,7 +16688,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16754,7 +16769,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.77</v>
@@ -16957,10 +16972,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17085,7 +17100,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17166,7 +17181,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17291,7 +17306,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17497,7 +17512,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17784,7 +17799,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18321,7 +18336,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18733,7 +18748,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18811,10 +18826,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19351,7 +19366,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19557,7 +19572,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19638,7 +19653,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -19763,7 +19778,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -19841,7 +19856,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
         <v>1.44</v>
@@ -20175,7 +20190,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20587,7 +20602,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20793,7 +20808,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21205,7 +21220,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21283,7 +21298,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ98">
         <v>2.5</v>
@@ -21695,7 +21710,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22110,7 +22125,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22235,7 +22250,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22441,7 +22456,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22522,7 +22537,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22647,7 +22662,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -22728,7 +22743,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.24</v>
@@ -22853,7 +22868,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -22934,7 +22949,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ106">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR106">
         <v>2.03</v>
@@ -23265,7 +23280,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23883,7 +23898,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24295,7 +24310,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24501,7 +24516,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24707,7 +24722,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24785,7 +24800,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
         <v>2</v>
@@ -24913,7 +24928,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24991,7 +25006,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ116">
         <v>0.78</v>
@@ -26024,7 +26039,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR121">
         <v>1.62</v>
@@ -26355,7 +26370,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26433,7 +26448,7 @@
         <v>2.57</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ123">
         <v>2.33</v>
@@ -26561,7 +26576,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26973,7 +26988,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27054,7 +27069,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27179,7 +27194,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27672,7 +27687,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -27797,7 +27812,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -27875,7 +27890,7 @@
         <v>0.57</v>
       </c>
       <c r="AP130">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ130">
         <v>0.78</v>
@@ -28003,7 +28018,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28084,7 +28099,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28209,7 +28224,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28290,7 +28305,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28702,7 +28717,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR134">
         <v>1.92</v>
@@ -28827,7 +28842,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -28905,7 +28920,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ135">
         <v>0.33</v>
@@ -29033,7 +29048,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29239,7 +29254,7 @@
         <v>91</v>
       </c>
       <c r="P137" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q137">
         <v>2.88</v>
@@ -29651,7 +29666,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29857,7 +29872,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30063,7 +30078,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30141,7 +30156,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30887,7 +30902,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31093,7 +31108,7 @@
         <v>139</v>
       </c>
       <c r="P146" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31681,7 +31696,7 @@
         <v>45647.66666666666</v>
       </c>
       <c r="F149">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
         <v>82</v>
@@ -31868,6 +31883,830 @@
       </c>
       <c r="BP149">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7466204</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45648.34375</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>91</v>
+      </c>
+      <c r="P150" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q150">
+        <v>4.75</v>
+      </c>
+      <c r="R150">
+        <v>2.38</v>
+      </c>
+      <c r="S150">
+        <v>2.2</v>
+      </c>
+      <c r="T150">
+        <v>1.3</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>4.8</v>
+      </c>
+      <c r="AA150">
+        <v>4.33</v>
+      </c>
+      <c r="AB150">
+        <v>1.67</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>17</v>
+      </c>
+      <c r="AE150">
+        <v>1.19</v>
+      </c>
+      <c r="AF150">
+        <v>4.45</v>
+      </c>
+      <c r="AG150">
+        <v>1.6</v>
+      </c>
+      <c r="AH150">
+        <v>2.25</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>2.25</v>
+      </c>
+      <c r="AL150">
+        <v>1.19</v>
+      </c>
+      <c r="AM150">
+        <v>1.19</v>
+      </c>
+      <c r="AN150">
+        <v>0.5</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>0.44</v>
+      </c>
+      <c r="AQ150">
+        <v>1.89</v>
+      </c>
+      <c r="AR150">
+        <v>1.58</v>
+      </c>
+      <c r="AS150">
+        <v>1.34</v>
+      </c>
+      <c r="AT150">
+        <v>2.92</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>13</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>1</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>2.9</v>
+      </c>
+      <c r="BE150">
+        <v>6.75</v>
+      </c>
+      <c r="BF150">
+        <v>1.49</v>
+      </c>
+      <c r="BG150">
+        <v>1.25</v>
+      </c>
+      <c r="BH150">
+        <v>3.4</v>
+      </c>
+      <c r="BI150">
+        <v>1.44</v>
+      </c>
+      <c r="BJ150">
+        <v>2.55</v>
+      </c>
+      <c r="BK150">
+        <v>1.74</v>
+      </c>
+      <c r="BL150">
+        <v>1.96</v>
+      </c>
+      <c r="BM150">
+        <v>2.17</v>
+      </c>
+      <c r="BN150">
+        <v>1.6</v>
+      </c>
+      <c r="BO150">
+        <v>2.7</v>
+      </c>
+      <c r="BP150">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7466202</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45648.4375</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q151">
+        <v>2.2</v>
+      </c>
+      <c r="R151">
+        <v>2.5</v>
+      </c>
+      <c r="S151">
+        <v>4.5</v>
+      </c>
+      <c r="T151">
+        <v>1.25</v>
+      </c>
+      <c r="U151">
+        <v>3.75</v>
+      </c>
+      <c r="V151">
+        <v>2.2</v>
+      </c>
+      <c r="W151">
+        <v>1.62</v>
+      </c>
+      <c r="X151">
+        <v>5</v>
+      </c>
+      <c r="Y151">
+        <v>1.17</v>
+      </c>
+      <c r="Z151">
+        <v>1.68</v>
+      </c>
+      <c r="AA151">
+        <v>4.4</v>
+      </c>
+      <c r="AB151">
+        <v>4.7</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>21</v>
+      </c>
+      <c r="AE151">
+        <v>1.14</v>
+      </c>
+      <c r="AF151">
+        <v>5.38</v>
+      </c>
+      <c r="AG151">
+        <v>1.44</v>
+      </c>
+      <c r="AH151">
+        <v>2.6</v>
+      </c>
+      <c r="AI151">
+        <v>1.53</v>
+      </c>
+      <c r="AJ151">
+        <v>2.38</v>
+      </c>
+      <c r="AK151">
+        <v>1.2</v>
+      </c>
+      <c r="AL151">
+        <v>1.19</v>
+      </c>
+      <c r="AM151">
+        <v>2.25</v>
+      </c>
+      <c r="AN151">
+        <v>3</v>
+      </c>
+      <c r="AO151">
+        <v>2.25</v>
+      </c>
+      <c r="AP151">
+        <v>3</v>
+      </c>
+      <c r="AQ151">
+        <v>2</v>
+      </c>
+      <c r="AR151">
+        <v>2.48</v>
+      </c>
+      <c r="AS151">
+        <v>2.02</v>
+      </c>
+      <c r="AT151">
+        <v>4.5</v>
+      </c>
+      <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>18</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.68</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>2.45</v>
+      </c>
+      <c r="BG151">
+        <v>1.25</v>
+      </c>
+      <c r="BH151">
+        <v>3.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.46</v>
+      </c>
+      <c r="BJ151">
+        <v>2.5</v>
+      </c>
+      <c r="BK151">
+        <v>1.72</v>
+      </c>
+      <c r="BL151">
+        <v>1.98</v>
+      </c>
+      <c r="BM151">
+        <v>2.12</v>
+      </c>
+      <c r="BN151">
+        <v>1.63</v>
+      </c>
+      <c r="BO151">
+        <v>2.7</v>
+      </c>
+      <c r="BP151">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7466199</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45648.4375</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>5</v>
+      </c>
+      <c r="N152">
+        <v>7</v>
+      </c>
+      <c r="O152" t="s">
+        <v>196</v>
+      </c>
+      <c r="P152" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q152">
+        <v>2.25</v>
+      </c>
+      <c r="R152">
+        <v>2.25</v>
+      </c>
+      <c r="S152">
+        <v>5</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>2.63</v>
+      </c>
+      <c r="W152">
+        <v>1.44</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.1</v>
+      </c>
+      <c r="Z152">
+        <v>1.68</v>
+      </c>
+      <c r="AA152">
+        <v>4.2</v>
+      </c>
+      <c r="AB152">
+        <v>5</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.24</v>
+      </c>
+      <c r="AF152">
+        <v>3.89</v>
+      </c>
+      <c r="AG152">
+        <v>1.81</v>
+      </c>
+      <c r="AH152">
+        <v>2.01</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.18</v>
+      </c>
+      <c r="AL152">
+        <v>1.2</v>
+      </c>
+      <c r="AM152">
+        <v>2.25</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>0.88</v>
+      </c>
+      <c r="AP152">
+        <v>1.78</v>
+      </c>
+      <c r="AQ152">
+        <v>1.11</v>
+      </c>
+      <c r="AR152">
+        <v>1.54</v>
+      </c>
+      <c r="AS152">
+        <v>1.09</v>
+      </c>
+      <c r="AT152">
+        <v>2.63</v>
+      </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>18</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>1.4</v>
+      </c>
+      <c r="BE152">
+        <v>7</v>
+      </c>
+      <c r="BF152">
+        <v>3.3</v>
+      </c>
+      <c r="BG152">
+        <v>1.2</v>
+      </c>
+      <c r="BH152">
+        <v>3.9</v>
+      </c>
+      <c r="BI152">
+        <v>1.36</v>
+      </c>
+      <c r="BJ152">
+        <v>2.8</v>
+      </c>
+      <c r="BK152">
+        <v>1.58</v>
+      </c>
+      <c r="BL152">
+        <v>2.18</v>
+      </c>
+      <c r="BM152">
+        <v>1.94</v>
+      </c>
+      <c r="BN152">
+        <v>1.76</v>
+      </c>
+      <c r="BO152">
+        <v>2.4</v>
+      </c>
+      <c r="BP152">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7466205</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45648.53125</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>197</v>
+      </c>
+      <c r="P153" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q153">
+        <v>3.6</v>
+      </c>
+      <c r="R153">
+        <v>2.05</v>
+      </c>
+      <c r="S153">
+        <v>3.1</v>
+      </c>
+      <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3.25</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>10</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>2.82</v>
+      </c>
+      <c r="AA153">
+        <v>3.41</v>
+      </c>
+      <c r="AB153">
+        <v>2.58</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10.06</v>
+      </c>
+      <c r="AE153">
+        <v>1.33</v>
+      </c>
+      <c r="AF153">
+        <v>3.19</v>
+      </c>
+      <c r="AG153">
+        <v>2.02</v>
+      </c>
+      <c r="AH153">
+        <v>1.8</v>
+      </c>
+      <c r="AI153">
+        <v>1.91</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>1.57</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.45</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>0.86</v>
+      </c>
+      <c r="AP153">
+        <v>1.22</v>
+      </c>
+      <c r="AQ153">
+        <v>0.75</v>
+      </c>
+      <c r="AR153">
+        <v>1.13</v>
+      </c>
+      <c r="AS153">
+        <v>1.19</v>
+      </c>
+      <c r="AT153">
+        <v>2.32</v>
+      </c>
+      <c r="AU153">
+        <v>9</v>
+      </c>
+      <c r="AV153">
+        <v>8</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>4</v>
+      </c>
+      <c r="AY153">
+        <v>16</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>1.92</v>
+      </c>
+      <c r="BE153">
+        <v>6.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.07</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>3.9</v>
+      </c>
+      <c r="BI153">
+        <v>1.36</v>
+      </c>
+      <c r="BJ153">
+        <v>2.85</v>
+      </c>
+      <c r="BK153">
+        <v>1.58</v>
+      </c>
+      <c r="BL153">
+        <v>2.18</v>
+      </c>
+      <c r="BM153">
+        <v>1.94</v>
+      </c>
+      <c r="BN153">
+        <v>1.76</v>
+      </c>
+      <c r="BO153">
+        <v>2.4</v>
+      </c>
+      <c r="BP153">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -32658,7 +32658,7 @@
         <v>16</v>
       </c>
       <c r="AZ153">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA153">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -825,6 +825,9 @@
   <si>
     <t>['56', '75', '78', '85', '90+6']</t>
   </si>
+  <si>
+    <t>['27', '47', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3376,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.25</v>
@@ -4821,7 +4824,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -7084,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -8117,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -9353,7 +9356,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>1.21</v>
@@ -12028,7 +12031,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>2.33</v>
@@ -13473,7 +13476,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -15736,7 +15739,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -18002,7 +18005,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -19447,7 +19450,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>2.01</v>
@@ -20474,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>0.33</v>
@@ -23155,7 +23158,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.85</v>
@@ -24388,7 +24391,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113">
         <v>1.44</v>
@@ -26657,7 +26660,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR124">
         <v>1.98</v>
@@ -29744,7 +29747,7 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139">
         <v>0.25</v>
@@ -30159,7 +30162,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -32707,6 +32710,212 @@
       </c>
       <c r="BP153">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7466210</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>79</v>
+      </c>
+      <c r="H154" t="s">
+        <v>77</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>91</v>
+      </c>
+      <c r="P154" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q154">
+        <v>3.5</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>3</v>
+      </c>
+      <c r="T154">
+        <v>1.36</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>2.75</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>2.63</v>
+      </c>
+      <c r="AA154">
+        <v>3.3</v>
+      </c>
+      <c r="AB154">
+        <v>2.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>12</v>
+      </c>
+      <c r="AE154">
+        <v>1.28</v>
+      </c>
+      <c r="AF154">
+        <v>3.52</v>
+      </c>
+      <c r="AG154">
+        <v>1.8</v>
+      </c>
+      <c r="AH154">
+        <v>1.91</v>
+      </c>
+      <c r="AI154">
+        <v>1.67</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.57</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.4</v>
+      </c>
+      <c r="AN154">
+        <v>1.88</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.67</v>
+      </c>
+      <c r="AQ154">
+        <v>1.22</v>
+      </c>
+      <c r="AR154">
+        <v>1.32</v>
+      </c>
+      <c r="AS154">
+        <v>1.08</v>
+      </c>
+      <c r="AT154">
+        <v>2.4</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>7</v>
+      </c>
+      <c r="AW154">
+        <v>14</v>
+      </c>
+      <c r="AX154">
+        <v>16</v>
+      </c>
+      <c r="AY154">
+        <v>22</v>
+      </c>
+      <c r="AZ154">
+        <v>27</v>
+      </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>1.97</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>2.02</v>
+      </c>
+      <c r="BG154">
+        <v>1.24</v>
+      </c>
+      <c r="BH154">
+        <v>3.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.41</v>
+      </c>
+      <c r="BJ154">
+        <v>2.63</v>
+      </c>
+      <c r="BK154">
+        <v>1.68</v>
+      </c>
+      <c r="BL154">
+        <v>2.02</v>
+      </c>
+      <c r="BM154">
+        <v>2.08</v>
+      </c>
+      <c r="BN154">
+        <v>1.65</v>
+      </c>
+      <c r="BO154">
+        <v>2.65</v>
+      </c>
+      <c r="BP154">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
